--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:J483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16907,6 +16907,78 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="C482" t="n">
+        <v>373.36</v>
+      </c>
+      <c r="D482" t="n">
+        <v>369.4944444444445</v>
+      </c>
+      <c r="E482" t="n">
+        <v>362.4244444444445</v>
+      </c>
+      <c r="F482" t="n">
+        <v>363.0544444444445</v>
+      </c>
+      <c r="G482" t="n">
+        <v>370.4666666666666</v>
+      </c>
+      <c r="H482" t="n">
+        <v>366.7481818181818</v>
+      </c>
+      <c r="I482" t="n">
+        <v>384.8457142857143</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>355.95</v>
+      </c>
+      <c r="C483" t="n">
+        <v>360.84</v>
+      </c>
+      <c r="D483" t="n">
+        <v>357.9088888888889</v>
+      </c>
+      <c r="E483" t="n">
+        <v>350.0288888888889</v>
+      </c>
+      <c r="F483" t="n">
+        <v>352.1588888888889</v>
+      </c>
+      <c r="G483" t="n">
+        <v>375.4233333333333</v>
+      </c>
+      <c r="H483" t="n">
+        <v>380.0572727272727</v>
+      </c>
+      <c r="I483" t="n">
+        <v>374.0571428571428</v>
+      </c>
+      <c r="J483" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16923,7 +16995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22921,6 +22993,26 @@
       </c>
       <c r="B599" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.95</v>
       </c>
     </row>
   </sheetData>
@@ -23089,28 +23181,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009311616640585029</v>
+        <v>-0.0212438715780671</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L2" t="n">
-        <v>2.06614947703132e-05</v>
+        <v>0.0001080211474091541</v>
       </c>
       <c r="M2" t="n">
-        <v>11.12457854113887</v>
+        <v>11.13186530289098</v>
       </c>
       <c r="N2" t="n">
-        <v>202.3408863489897</v>
+        <v>202.3195357504669</v>
       </c>
       <c r="O2" t="n">
-        <v>14.22465768828866</v>
+        <v>14.22390719002577</v>
       </c>
       <c r="P2" t="n">
-        <v>375.4446641560397</v>
+        <v>375.5734561995069</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23166,28 +23258,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.08767025153984499</v>
+        <v>-0.09635031120620577</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001717179965951554</v>
+        <v>0.002084837917475046</v>
       </c>
       <c r="M3" t="n">
-        <v>11.33491372420857</v>
+        <v>11.33209560415494</v>
       </c>
       <c r="N3" t="n">
-        <v>219.6272819715846</v>
+        <v>219.2461897272704</v>
       </c>
       <c r="O3" t="n">
-        <v>14.81982732597059</v>
+        <v>14.80696423063385</v>
       </c>
       <c r="P3" t="n">
-        <v>379.2062670018381</v>
+        <v>379.299489740464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23243,28 +23335,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06726862593733497</v>
+        <v>-0.07894897803572715</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001215773137978382</v>
+        <v>0.001678961517842414</v>
       </c>
       <c r="M4" t="n">
-        <v>10.66453624280973</v>
+        <v>10.68405743348649</v>
       </c>
       <c r="N4" t="n">
-        <v>184.9002803338749</v>
+        <v>185.0371278670185</v>
       </c>
       <c r="O4" t="n">
-        <v>13.59780424678466</v>
+        <v>13.60283528780006</v>
       </c>
       <c r="P4" t="n">
-        <v>378.9908103456732</v>
+        <v>379.115046885532</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23320,28 +23412,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1190688722842589</v>
+        <v>-0.1314792127459826</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004147883845422085</v>
+        <v>0.005066730680591602</v>
       </c>
       <c r="M5" t="n">
-        <v>10.00853176667936</v>
+        <v>10.0366921820343</v>
       </c>
       <c r="N5" t="n">
-        <v>168.0984059916641</v>
+        <v>168.3610801833926</v>
       </c>
       <c r="O5" t="n">
-        <v>12.96527693463059</v>
+        <v>12.97540289098541</v>
       </c>
       <c r="P5" t="n">
-        <v>373.0463808477865</v>
+        <v>373.1775449345479</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23397,28 +23489,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2358095033778534</v>
+        <v>-0.2446587275655461</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01889730188152461</v>
+        <v>0.0204092732108726</v>
       </c>
       <c r="M6" t="n">
-        <v>9.718595970533382</v>
+        <v>9.719401910793293</v>
       </c>
       <c r="N6" t="n">
-        <v>144.9504215064182</v>
+        <v>144.8402112108889</v>
       </c>
       <c r="O6" t="n">
-        <v>12.0395357678948</v>
+        <v>12.03495788155858</v>
       </c>
       <c r="P6" t="n">
-        <v>373.27253385875</v>
+        <v>373.3660040121845</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23474,28 +23566,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3476159425745876</v>
+        <v>-0.3477908071438711</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03610885463182112</v>
+        <v>0.03644105899022176</v>
       </c>
       <c r="M7" t="n">
-        <v>9.821275994178144</v>
+        <v>9.787182738605416</v>
       </c>
       <c r="N7" t="n">
-        <v>160.6004736969846</v>
+        <v>159.8782213190974</v>
       </c>
       <c r="O7" t="n">
-        <v>12.6728242194463</v>
+        <v>12.6442959993468</v>
       </c>
       <c r="P7" t="n">
-        <v>381.9987404795103</v>
+        <v>382.0004465951315</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23545,28 +23637,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.2350658374164692</v>
+        <v>-0.2363769593316773</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01293552732795156</v>
+        <v>0.0131827955168391</v>
       </c>
       <c r="M8" t="n">
-        <v>11.28738422576822</v>
+        <v>11.26562639336872</v>
       </c>
       <c r="N8" t="n">
-        <v>206.9991477678135</v>
+        <v>206.2271262134611</v>
       </c>
       <c r="O8" t="n">
-        <v>14.38746495279184</v>
+        <v>14.36061023123534</v>
       </c>
       <c r="P8" t="n">
-        <v>380.847470864893</v>
+        <v>380.8610279178944</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23622,28 +23714,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1916238881546121</v>
+        <v>-0.1913437364677149</v>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006821326403989025</v>
+        <v>0.006859143628549114</v>
       </c>
       <c r="M9" t="n">
-        <v>12.38173244917258</v>
+        <v>12.34851634383337</v>
       </c>
       <c r="N9" t="n">
-        <v>254.0665046013686</v>
+        <v>252.999763272777</v>
       </c>
       <c r="O9" t="n">
-        <v>15.9394637488646</v>
+        <v>15.90596627912863</v>
       </c>
       <c r="P9" t="n">
-        <v>383.9531788817217</v>
+        <v>383.9504518688173</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23680,7 +23772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J481"/>
+  <dimension ref="A1:J483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46988,6 +47080,110 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-45.76170449011132,170.66615900814477</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-45.76194321651113,170.66694783811835</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-45.762148156189404,170.6677279299699</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-45.762303119234154,170.66857123700512</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-45.76239636355567,170.66946595842438</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-45.762456089807785,170.67035798678822</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-45.76256155174665,170.6712098646123</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-45.76241265264422,170.67209847223117</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-45.761814712141515,170.66607623881336</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-45.76204677267382,170.66688451095126</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-45.76224913604729,170.6676909967644</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-45.76241291270825,170.66854327770875</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-45.76249244171553,170.6694381614959</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-45.76241223520971,170.67036955322834</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-45.76244232801774,170.6712257815788</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-45.762509624673264,170.67209237813637</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -23026,7 +23026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23117,35 +23117,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23204,27 +23209,28 @@
       <c r="P2" t="n">
         <v>375.5734561995069</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.66394738588167 -45.764649481421785, 170.66920248543192 -45.757651205958844)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.6639473858817</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.76464948142178</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.6692024854319</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.75765120595884</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.6665749356568</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.76115034369032</v>
       </c>
     </row>
@@ -23281,27 +23287,28 @@
       <c r="P3" t="n">
         <v>379.299489740464</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.6650592497556 -45.76503135597584, 170.66950357052747 -45.757763575360755)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.6650592497556</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.76503135597584</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.6695035705275</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.75776357536076</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.6672814101415</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.7613974656683</v>
       </c>
     </row>
@@ -23358,27 +23365,28 @@
       <c r="P4" t="n">
         <v>379.115046885532</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.66654996194652 -45.76536866676028, 170.66935072970435 -45.75771083092708)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.6665499619465</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.76536866676028</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.6693507297043</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.75771083092708</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.6679503458254</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.76153974884368</v>
       </c>
     </row>
@@ -23435,27 +23443,28 @@
       <c r="P5" t="n">
         <v>373.1775449345479</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.66775370716968 -45.76551328458705, 170.6697353353575 -45.75773139558679)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.6677537071697</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.76551328458705</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.6697353353575</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.75773139558679</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.6687445212636</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.76162234008692</v>
       </c>
     </row>
@@ -23512,27 +23521,28 @@
       <c r="P6" t="n">
         <v>373.3660040121845</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.6685396728837 -45.76559781055495, 170.67078104084055 -45.75785045864212)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.6685396728837</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.76559781055495</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.6707810408406</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.75785045864212</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.6696603568621</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.76172413459854</v>
       </c>
     </row>
@@ -23589,27 +23599,28 @@
       <c r="P7" t="n">
         <v>382.0004465951315</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.66949344338758 -45.765733825055264, 170.6715435421957 -45.7579606181224)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.6694934433876</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.76573382505526</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.6715435421957</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.7579606181224</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.6705184927916</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.76184722158883</v>
       </c>
     </row>
@@ -23660,27 +23671,28 @@
       <c r="P8" t="n">
         <v>380.8610279178944</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.67077122262612 -45.765846904262396, 170.67182189081674 -45.75797683430639)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.6707712226261</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.7658469042624</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.6718218908167</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.75797683430639</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.6712965567214</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.76191186928439</v>
       </c>
     </row>
@@ -23737,27 +23749,28 @@
       <c r="P9" t="n">
         <v>383.9504518688173</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.67188106888682 -45.76587179966966, 170.67237731352904 -45.757975127086574)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.6718810688868</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.76587179966966</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.672377313529</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.75797512708657</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.6721291912079</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.76192346337812</v>
       </c>
     </row>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J483"/>
+  <dimension ref="A1:J490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16979,6 +16979,254 @@
         <v>374.0571428571428</v>
       </c>
       <c r="J483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="C484" t="n">
+        <v>377.13</v>
+      </c>
+      <c r="D484" t="n">
+        <v>376.9677777777778</v>
+      </c>
+      <c r="E484" t="n">
+        <v>366.0277777777778</v>
+      </c>
+      <c r="F484" t="n">
+        <v>371.4077777777778</v>
+      </c>
+      <c r="G484" t="n">
+        <v>385.4466666666667</v>
+      </c>
+      <c r="H484" t="n">
+        <v>391.4254545454546</v>
+      </c>
+      <c r="I484" t="n">
+        <v>390.0714285714286</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>377.46</v>
+      </c>
+      <c r="C485" t="n">
+        <v>382.72</v>
+      </c>
+      <c r="D485" t="n">
+        <v>386.7522222222222</v>
+      </c>
+      <c r="E485" t="n">
+        <v>375.5422222222222</v>
+      </c>
+      <c r="F485" t="n">
+        <v>380.8422222222222</v>
+      </c>
+      <c r="G485" t="n">
+        <v>388.0233333333334</v>
+      </c>
+      <c r="H485" t="n">
+        <v>395.8209090909091</v>
+      </c>
+      <c r="I485" t="n">
+        <v>399.08</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="C486" t="n">
+        <v>350.31</v>
+      </c>
+      <c r="D486" t="n">
+        <v>347.4488888888889</v>
+      </c>
+      <c r="E486" t="n">
+        <v>353.7588888888889</v>
+      </c>
+      <c r="F486" t="n">
+        <v>346.4288888888889</v>
+      </c>
+      <c r="G486" t="n">
+        <v>353.1733333333333</v>
+      </c>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>379.2</v>
+      </c>
+      <c r="C487" t="n">
+        <v>386.56</v>
+      </c>
+      <c r="D487" t="n">
+        <v>382.3666666666667</v>
+      </c>
+      <c r="E487" t="n">
+        <v>378.4666666666667</v>
+      </c>
+      <c r="F487" t="n">
+        <v>378.1066666666667</v>
+      </c>
+      <c r="G487" t="n">
+        <v>388.67</v>
+      </c>
+      <c r="H487" t="n">
+        <v>398.49</v>
+      </c>
+      <c r="I487" t="n">
+        <v>399.7414285714286</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="C488" t="n">
+        <v>379.8200000000001</v>
+      </c>
+      <c r="D488" t="n">
+        <v>373.3633333333333</v>
+      </c>
+      <c r="E488" t="n">
+        <v>367.3033333333333</v>
+      </c>
+      <c r="F488" t="n">
+        <v>365.5033333333333</v>
+      </c>
+      <c r="G488" t="n">
+        <v>382.47</v>
+      </c>
+      <c r="H488" t="n">
+        <v>390.3663636363637</v>
+      </c>
+      <c r="I488" t="n">
+        <v>391.8842857142857</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>364.23</v>
+      </c>
+      <c r="C489" t="n">
+        <v>365.02</v>
+      </c>
+      <c r="D489" t="n">
+        <v>374.7922222222222</v>
+      </c>
+      <c r="E489" t="n">
+        <v>360.0622222222222</v>
+      </c>
+      <c r="F489" t="n">
+        <v>365.7622222222223</v>
+      </c>
+      <c r="G489" t="n">
+        <v>371.0233333333333</v>
+      </c>
+      <c r="H489" t="n">
+        <v>373.0718181818182</v>
+      </c>
+      <c r="I489" t="n">
+        <v>370.3857142857143</v>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>385.11</v>
+      </c>
+      <c r="C490" t="n">
+        <v>386.67</v>
+      </c>
+      <c r="D490" t="n">
+        <v>390.4688888888889</v>
+      </c>
+      <c r="E490" t="n">
+        <v>378.7888888888889</v>
+      </c>
+      <c r="F490" t="n">
+        <v>382.3988888888889</v>
+      </c>
+      <c r="G490" t="n">
+        <v>390.8433333333334</v>
+      </c>
+      <c r="H490" t="n">
+        <v>385.0654545454545</v>
+      </c>
+      <c r="I490" t="n">
+        <v>395.7714285714285</v>
+      </c>
+      <c r="J490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16995,7 +17243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23013,6 +23261,76 @@
       </c>
       <c r="B601" t="n">
         <v>-0.95</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -23186,28 +23504,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0212438715780671</v>
+        <v>-0.02705485256018723</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001080211474091541</v>
+        <v>0.0001800283783772727</v>
       </c>
       <c r="M2" t="n">
-        <v>11.13186530289098</v>
+        <v>11.0558365260752</v>
       </c>
       <c r="N2" t="n">
-        <v>202.3195357504669</v>
+        <v>200.0094768439182</v>
       </c>
       <c r="O2" t="n">
-        <v>14.22390719002577</v>
+        <v>14.14247067679188</v>
       </c>
       <c r="P2" t="n">
-        <v>375.5734561995069</v>
+        <v>375.6364540736903</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23264,28 +23582,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09635031120620577</v>
+        <v>-0.1004125350729518</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002084837917475046</v>
+        <v>0.002305896026389531</v>
       </c>
       <c r="M3" t="n">
-        <v>11.33209560415494</v>
+        <v>11.30694785927843</v>
       </c>
       <c r="N3" t="n">
-        <v>219.2461897272704</v>
+        <v>218.228020508968</v>
       </c>
       <c r="O3" t="n">
-        <v>14.80696423063385</v>
+        <v>14.77254279089988</v>
       </c>
       <c r="P3" t="n">
-        <v>379.299489740464</v>
+        <v>379.3433013693573</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23342,28 +23660,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07894897803572715</v>
+        <v>-0.08204306829689688</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001678961517842414</v>
+        <v>0.001839820332131481</v>
       </c>
       <c r="M4" t="n">
-        <v>10.68405743348649</v>
+        <v>10.66242896942497</v>
       </c>
       <c r="N4" t="n">
-        <v>185.0371278670185</v>
+        <v>184.822964821899</v>
       </c>
       <c r="O4" t="n">
-        <v>13.60283528780006</v>
+        <v>13.59496100847292</v>
       </c>
       <c r="P4" t="n">
-        <v>379.115046885532</v>
+        <v>379.1480272813058</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23420,28 +23738,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1314792127459826</v>
+        <v>-0.1352568205436876</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005066730680591602</v>
+        <v>0.005487436604340479</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0366921820343</v>
+        <v>10.00706859323168</v>
       </c>
       <c r="N5" t="n">
-        <v>168.3610801833926</v>
+        <v>166.9833875258314</v>
       </c>
       <c r="O5" t="n">
-        <v>12.97540289098541</v>
+        <v>12.92220521141153</v>
       </c>
       <c r="P5" t="n">
-        <v>373.1775449345479</v>
+        <v>373.21765320218</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23498,28 +23816,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2446587275655461</v>
+        <v>-0.2354329920580081</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0204092732108726</v>
+        <v>0.01920680111414985</v>
       </c>
       <c r="M6" t="n">
-        <v>9.719401910793293</v>
+        <v>9.717916849119893</v>
       </c>
       <c r="N6" t="n">
-        <v>144.8402112108889</v>
+        <v>144.7884775494629</v>
       </c>
       <c r="O6" t="n">
-        <v>12.03495788155858</v>
+        <v>12.03280838164819</v>
       </c>
       <c r="P6" t="n">
-        <v>373.3660040121845</v>
+        <v>373.2676495016456</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23576,28 +23894,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3477908071438711</v>
+        <v>-0.3267238784698977</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03644105899022176</v>
+        <v>0.0326170334363175</v>
       </c>
       <c r="M7" t="n">
-        <v>9.787182738605416</v>
+        <v>9.828492363577409</v>
       </c>
       <c r="N7" t="n">
-        <v>159.8782213190974</v>
+        <v>160.5429526777047</v>
       </c>
       <c r="O7" t="n">
-        <v>12.6442959993468</v>
+        <v>12.67055455288776</v>
       </c>
       <c r="P7" t="n">
-        <v>382.0004465951315</v>
+        <v>381.774643720309</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23648,28 +23966,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.2363769593316773</v>
+        <v>-0.1969731380657377</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0131827955168391</v>
+        <v>0.009277249579671021</v>
       </c>
       <c r="M8" t="n">
-        <v>11.26562639336872</v>
+        <v>11.30422734471476</v>
       </c>
       <c r="N8" t="n">
-        <v>206.2271262134611</v>
+        <v>207.0382808090078</v>
       </c>
       <c r="O8" t="n">
-        <v>14.36061023123534</v>
+        <v>14.3888248585146</v>
       </c>
       <c r="P8" t="n">
-        <v>380.8610279178944</v>
+        <v>380.4372594983993</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23726,28 +24044,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1913437364677149</v>
+        <v>-0.1577289489369977</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K9" t="n">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006859143628549114</v>
+        <v>0.004736779445380646</v>
       </c>
       <c r="M9" t="n">
-        <v>12.34851634383337</v>
+        <v>12.38277148082625</v>
       </c>
       <c r="N9" t="n">
-        <v>252.999763272777</v>
+        <v>252.8049071038838</v>
       </c>
       <c r="O9" t="n">
-        <v>15.90596627912863</v>
+        <v>15.89983984522749</v>
       </c>
       <c r="P9" t="n">
-        <v>383.9504518688173</v>
+        <v>383.5811042173005</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23785,7 +24103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J483"/>
+  <dimension ref="A1:J490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47197,6 +47515,362 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-45.76169397760198,170.6661669023122</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-45.76191203385659,170.66696690703446</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-45.762083018507106,170.66775175388523</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-45.76227120275339,170.66857936462713</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-45.762322702973094,170.66948726952302</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-45.76232355277209,170.67039294273542</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-45.762340491078,170.6712393772594</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-45.76236568181683,170.67210142404835</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-45.761643406052144,170.66620487799958</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-45.76186579749983,170.66699518159402</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-45.76199773713646,170.66778294520333</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-45.76218692867409,170.66860082521046</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-45.76223950903049,170.66951133868997</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-45.762300755456515,170.67039895538935</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-45.76230111629849,170.67124463395078</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-45.7622847091427,170.67210651264958</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-45.76177313996763,170.66610745676496</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-45.762133868999044,170.6668312491779</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-45.76234030553393,170.6676576515595</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-45.76237987428232,170.66855169107342</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-45.762542969456774,170.6694235429806</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-45.76260909426876,170.67031763243858</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr"/>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-45.76162954864859,170.66621528392372</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-45.761834035847485,170.66701460451947</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-45.76203596170862,170.66776896473277</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-45.762161025440676,170.66860742151266</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-45.76226363145345,170.66950435974493</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-45.76229503400853,170.67040046438578</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-45.76227720640104,170.67124782601402</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-45.7622787639558,170.67210688626477</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-45.76166761668568,170.66618669752174</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-45.761889784161795,170.66698051322385</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-45.76211443489827,170.66774026344032</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-45.7622599045355,170.6685822417478</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-45.762374768993375,170.6694722060578</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-45.762349889126966,170.6703859966746</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-45.76234997848601,170.67123811065105</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-45.76234938712564,170.67210244806432</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-45.76174877006806,170.66612575692153</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-45.7620121988158,170.66690565375427</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-45.76210198068175,170.66774481853201</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-45.76232404258798,170.6685659088084</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-45.76237248608363,170.6694728665378</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-45.76245116464455,170.6703592857774</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-45.762504904188745,170.67121742735557</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-45.76254262495276,170.67209030426568</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-45.761582481252574,170.66625062814416</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-45.76183312600842,170.667015160905</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-45.76196534260869,170.66779479334417</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-45.76215817136096,170.6686081483085</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-45.76222578217621,170.66951531005267</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-45.76227580522441,170.6704055358558</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-45.762397464387625,170.6712317710784</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-45.76231444791758,170.67210464376498</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J490"/>
+  <dimension ref="A1:J493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17227,6 +17227,104 @@
         <v>395.7714285714285</v>
       </c>
       <c r="J490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>382.99</v>
+      </c>
+      <c r="C491" t="n">
+        <v>386.54</v>
+      </c>
+      <c r="D491" t="n">
+        <v>389.9466666666667</v>
+      </c>
+      <c r="E491" t="n">
+        <v>381.0966666666667</v>
+      </c>
+      <c r="F491" t="n">
+        <v>384.1166666666667</v>
+      </c>
+      <c r="G491" t="n">
+        <v>379.13</v>
+      </c>
+      <c r="H491" t="n">
+        <v>389.3536363636364</v>
+      </c>
+      <c r="I491" t="n">
+        <v>390.9257142857143</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>368.36</v>
+      </c>
+      <c r="C492" t="n">
+        <v>369.98</v>
+      </c>
+      <c r="D492" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>380.53</v>
+      </c>
+      <c r="C493" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="D493" t="n">
+        <v>373.5788888888889</v>
+      </c>
+      <c r="E493" t="n">
+        <v>372.0788888888889</v>
+      </c>
+      <c r="F493" t="n">
+        <v>372.1988888888889</v>
+      </c>
+      <c r="G493" t="n">
+        <v>390.0333333333334</v>
+      </c>
+      <c r="H493" t="n">
+        <v>384.1463636363636</v>
+      </c>
+      <c r="I493" t="n">
+        <v>378.5814285714285</v>
+      </c>
+      <c r="J493" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17243,7 +17341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23331,6 +23429,46 @@
       </c>
       <c r="B608" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -23504,28 +23642,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02705485256018723</v>
+        <v>-0.023792229587313</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001800283783772727</v>
+        <v>0.0001409105820473489</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0558365260752</v>
+        <v>11.02477390503842</v>
       </c>
       <c r="N2" t="n">
-        <v>200.0094768439182</v>
+        <v>198.9169746493992</v>
       </c>
       <c r="O2" t="n">
-        <v>14.14247067679188</v>
+        <v>14.103792917134</v>
       </c>
       <c r="P2" t="n">
-        <v>375.6364540736903</v>
+        <v>375.6008282327019</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23582,28 +23720,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1004125350729518</v>
+        <v>-0.09642678363757165</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002305896026389531</v>
+        <v>0.002149273313021394</v>
       </c>
       <c r="M3" t="n">
-        <v>11.30694785927843</v>
+        <v>11.28057476547542</v>
       </c>
       <c r="N3" t="n">
-        <v>218.228020508968</v>
+        <v>217.1833542741824</v>
       </c>
       <c r="O3" t="n">
-        <v>14.77254279089988</v>
+        <v>14.73714199816852</v>
       </c>
       <c r="P3" t="n">
-        <v>379.3433013693573</v>
+        <v>379.2999915771573</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23660,28 +23798,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08204306829689688</v>
+        <v>-0.07632650564859565</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001839820332131481</v>
+        <v>0.00160857213591914</v>
       </c>
       <c r="M4" t="n">
-        <v>10.66242896942497</v>
+        <v>10.63439518463287</v>
       </c>
       <c r="N4" t="n">
-        <v>184.822964821899</v>
+        <v>184.0411106857516</v>
       </c>
       <c r="O4" t="n">
-        <v>13.59496100847292</v>
+        <v>13.56617524159819</v>
       </c>
       <c r="P4" t="n">
-        <v>379.1480272813058</v>
+        <v>379.0864859121309</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23738,28 +23876,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1352568205436876</v>
+        <v>-0.1293028081415285</v>
       </c>
       <c r="J5" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K5" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005487436604340479</v>
+        <v>0.005052061014509057</v>
       </c>
       <c r="M5" t="n">
-        <v>10.00706859323168</v>
+        <v>9.9873513046652</v>
       </c>
       <c r="N5" t="n">
-        <v>166.9833875258314</v>
+        <v>166.5372164703558</v>
       </c>
       <c r="O5" t="n">
-        <v>12.92220521141153</v>
+        <v>12.9049299289208</v>
       </c>
       <c r="P5" t="n">
-        <v>373.21765320218</v>
+        <v>373.1539564970682</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23816,28 +23954,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2354329920580081</v>
+        <v>-0.2257753454794917</v>
       </c>
       <c r="J6" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01920680111414985</v>
+        <v>0.01775609342470585</v>
       </c>
       <c r="M6" t="n">
-        <v>9.717916849119893</v>
+        <v>9.721900347201114</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7884775494629</v>
+        <v>144.8297270740995</v>
       </c>
       <c r="O6" t="n">
-        <v>12.03280838164819</v>
+        <v>12.03452230352744</v>
       </c>
       <c r="P6" t="n">
-        <v>373.2676495016456</v>
+        <v>373.1643830005628</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23894,28 +24032,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3267238784698977</v>
+        <v>-0.3168982000221777</v>
       </c>
       <c r="J7" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K7" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0326170334363175</v>
+        <v>0.03086844666733335</v>
       </c>
       <c r="M7" t="n">
-        <v>9.828492363577409</v>
+        <v>9.828444911429514</v>
       </c>
       <c r="N7" t="n">
-        <v>160.5429526777047</v>
+        <v>160.5124685062318</v>
       </c>
       <c r="O7" t="n">
-        <v>12.67055455288776</v>
+        <v>12.66935154245203</v>
       </c>
       <c r="P7" t="n">
-        <v>381.774643720309</v>
+        <v>381.6687189926515</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23966,28 +24104,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1969731380657377</v>
+        <v>-0.1865011374671293</v>
       </c>
       <c r="J8" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009277249579671021</v>
+        <v>0.00837475011399369</v>
       </c>
       <c r="M8" t="n">
-        <v>11.30422734471476</v>
+        <v>11.30229001492668</v>
       </c>
       <c r="N8" t="n">
-        <v>207.0382808090078</v>
+        <v>206.6951674201491</v>
       </c>
       <c r="O8" t="n">
-        <v>14.3888248585146</v>
+        <v>14.37689700248802</v>
       </c>
       <c r="P8" t="n">
-        <v>380.4372594983993</v>
+        <v>380.3240409016471</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24044,28 +24182,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1577289489369977</v>
+        <v>-0.1529190870369482</v>
       </c>
       <c r="J9" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K9" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004736779445380646</v>
+        <v>0.004488209145620425</v>
       </c>
       <c r="M9" t="n">
-        <v>12.38277148082625</v>
+        <v>12.35354529478019</v>
       </c>
       <c r="N9" t="n">
-        <v>252.8049071038838</v>
+        <v>251.9314689149541</v>
       </c>
       <c r="O9" t="n">
-        <v>15.89983984522749</v>
+        <v>15.87234919332844</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5811042173005</v>
+        <v>383.5280773170292</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24103,7 +24241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J490"/>
+  <dimension ref="A1:J493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47871,6 +48009,142 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-45.761599364989976,170.66623794968288</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-45.76183420127276,170.66701450335847</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-45.76196989430627,170.66779312858387</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-45.76213773024506,170.6686133536679</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-45.762210634626534,170.66951969243908</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-45.76237944010896,170.670378202766</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-45.762359050565365,170.67123689949028</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-45.76235800315227,170.67210190660288</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-45.761715878662386,170.66615045612664</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-45.76197117337063,170.6669307418302</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-45.7620443871904,170.66776588314673</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-45.76161895649457,170.6662232378737</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-45.76186182729351,170.66699760946094</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-45.76211255611292,170.6677409506005</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-45.76221760510894,170.66859301339576</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-45.76231572687079,170.66948928780963</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-45.7622829717805,170.67040364572244</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-45.76240569766597,170.67123067189894</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-45.76246895856973,170.67209493375393</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17325,6 +17325,78 @@
         <v>378.5814285714285</v>
       </c>
       <c r="J493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>361.45</v>
+      </c>
+      <c r="C494" t="n">
+        <v>366.79</v>
+      </c>
+      <c r="D494" t="n">
+        <v>353.19</v>
+      </c>
+      <c r="E494" t="n">
+        <v>353.64</v>
+      </c>
+      <c r="F494" t="n">
+        <v>364.12</v>
+      </c>
+      <c r="G494" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="H494" t="n">
+        <v>381.9318181818182</v>
+      </c>
+      <c r="I494" t="n">
+        <v>383.9471428571428</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>360.74</v>
+      </c>
+      <c r="C495" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="D495" t="n">
+        <v>374.4844444444445</v>
+      </c>
+      <c r="E495" t="n">
+        <v>375.3044444444445</v>
+      </c>
+      <c r="F495" t="n">
+        <v>375.5844444444445</v>
+      </c>
+      <c r="G495" t="n">
+        <v>380.9466666666667</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400.0718181818182</v>
+      </c>
+      <c r="I495" t="n">
+        <v>400.2142857142857</v>
+      </c>
+      <c r="J495" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17341,7 +17413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23469,6 +23541,26 @@
       </c>
       <c r="B612" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -23642,28 +23734,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.023792229587313</v>
+        <v>-0.03656911721759615</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001409105820473489</v>
+        <v>0.000334318700435432</v>
       </c>
       <c r="M2" t="n">
-        <v>11.02477390503842</v>
+        <v>11.03932810380547</v>
       </c>
       <c r="N2" t="n">
-        <v>198.9169746493992</v>
+        <v>198.8772186312574</v>
       </c>
       <c r="O2" t="n">
-        <v>14.103792917134</v>
+        <v>14.10238343796032</v>
       </c>
       <c r="P2" t="n">
-        <v>375.6008282327019</v>
+        <v>375.7409071132863</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23720,28 +23812,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09642678363757165</v>
+        <v>-0.1064136980396542</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002149273313021394</v>
+        <v>0.002630103550357199</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28057476547542</v>
+        <v>11.28812475835404</v>
       </c>
       <c r="N3" t="n">
-        <v>217.1833542741824</v>
+        <v>216.8549128910757</v>
       </c>
       <c r="O3" t="n">
-        <v>14.73714199816852</v>
+        <v>14.72599446187169</v>
       </c>
       <c r="P3" t="n">
-        <v>379.2999915771573</v>
+        <v>379.4089636407244</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23798,28 +23890,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07632650564859565</v>
+        <v>-0.08728476326004571</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00160857213591914</v>
+        <v>0.002105270196852693</v>
       </c>
       <c r="M4" t="n">
-        <v>10.63439518463287</v>
+        <v>10.65179689802486</v>
       </c>
       <c r="N4" t="n">
-        <v>184.0411106857516</v>
+        <v>184.4913095699559</v>
       </c>
       <c r="O4" t="n">
-        <v>13.56617524159819</v>
+        <v>13.58275780428835</v>
       </c>
       <c r="P4" t="n">
-        <v>379.0864859121309</v>
+        <v>379.204994770198</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23876,28 +23968,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1293028081415285</v>
+        <v>-0.1339185056968511</v>
       </c>
       <c r="J5" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005052061014509057</v>
+        <v>0.005443088129837625</v>
       </c>
       <c r="M5" t="n">
-        <v>9.9873513046652</v>
+        <v>9.995471147866544</v>
       </c>
       <c r="N5" t="n">
-        <v>166.5372164703558</v>
+        <v>166.4445392940183</v>
       </c>
       <c r="O5" t="n">
-        <v>12.9049299289208</v>
+        <v>12.90133866286822</v>
       </c>
       <c r="P5" t="n">
-        <v>373.1539564970682</v>
+        <v>373.2034795780943</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23954,28 +24046,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2257753454794917</v>
+        <v>-0.2235650278089235</v>
       </c>
       <c r="J6" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01775609342470585</v>
+        <v>0.01754337854113763</v>
       </c>
       <c r="M6" t="n">
-        <v>9.721900347201114</v>
+        <v>9.703092111719423</v>
       </c>
       <c r="N6" t="n">
-        <v>144.8297270740995</v>
+        <v>144.340278292609</v>
       </c>
       <c r="O6" t="n">
-        <v>12.03452230352744</v>
+        <v>12.01416989611055</v>
       </c>
       <c r="P6" t="n">
-        <v>373.1643830005628</v>
+        <v>373.1406177479029</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24032,28 +24124,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3168982000221777</v>
+        <v>-0.3146526531136283</v>
       </c>
       <c r="J7" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K7" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03086844666733335</v>
+        <v>0.03067290539862721</v>
       </c>
       <c r="M7" t="n">
-        <v>9.828444911429514</v>
+        <v>9.804390700336267</v>
       </c>
       <c r="N7" t="n">
-        <v>160.5124685062318</v>
+        <v>159.9180847883075</v>
       </c>
       <c r="O7" t="n">
-        <v>12.66935154245203</v>
+        <v>12.64587224308025</v>
       </c>
       <c r="P7" t="n">
-        <v>381.6687189926515</v>
+        <v>381.6444247812997</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24104,28 +24196,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1865011374671293</v>
+        <v>-0.1723300485621296</v>
       </c>
       <c r="J8" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K8" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00837475011399369</v>
+        <v>0.007171761525301523</v>
       </c>
       <c r="M8" t="n">
-        <v>11.30229001492668</v>
+        <v>11.31875824792174</v>
       </c>
       <c r="N8" t="n">
-        <v>206.6951674201491</v>
+        <v>207.2231393154363</v>
       </c>
       <c r="O8" t="n">
-        <v>14.37689700248802</v>
+        <v>14.39524710852288</v>
       </c>
       <c r="P8" t="n">
-        <v>380.3240409016471</v>
+        <v>380.1702441181024</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24182,28 +24274,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1529190870369482</v>
+        <v>-0.1414505266226654</v>
       </c>
       <c r="J9" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K9" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004488209145620425</v>
+        <v>0.003861473378370284</v>
       </c>
       <c r="M9" t="n">
-        <v>12.35354529478019</v>
+        <v>12.35309560986096</v>
       </c>
       <c r="N9" t="n">
-        <v>251.9314689149541</v>
+        <v>251.7847223523825</v>
       </c>
       <c r="O9" t="n">
-        <v>15.87234919332844</v>
+        <v>15.86772580908753</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5280773170292</v>
+        <v>383.4009768513924</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24241,7 +24333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J493"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48145,6 +48237,110 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-45.761770910042316,170.6661091312898</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-45.76199755868792,170.6669146065599</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-45.76229026594161,170.66767595353602</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-45.7623809273391,170.66855142290856</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-45.762386967373686,170.66946867688256</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-45.76244960156878,170.6703596980314</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-45.76242553571336,170.67122802342945</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-45.762420729366525,170.67209796466</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-45.76177656449573,170.66610488517304</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-45.76202816234412,170.66689589165</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-45.7621046632774,170.667743837381</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-45.76218903478803,170.6686002888847</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-45.76228587267958,170.66949792504985</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-45.76236336697015,170.67038244196888</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-45.76226303636634,170.67124971776667</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-45.762274513725,170.67210715336327</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J495"/>
+  <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17397,6 +17397,148 @@
         <v>400.2142857142857</v>
       </c>
       <c r="J495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="D496" t="n">
+        <v>384.3633333333333</v>
+      </c>
+      <c r="E496" t="n">
+        <v>373.5333333333333</v>
+      </c>
+      <c r="F496" t="n">
+        <v>376.8133333333333</v>
+      </c>
+      <c r="G496" t="n">
+        <v>385.46</v>
+      </c>
+      <c r="H496" t="n">
+        <v>377.2772727272728</v>
+      </c>
+      <c r="I496" t="n">
+        <v>393.9357142857143</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>390.13</v>
+      </c>
+      <c r="C497" t="n">
+        <v>361.76</v>
+      </c>
+      <c r="D497" t="n">
+        <v>362.5977777777778</v>
+      </c>
+      <c r="E497" t="n">
+        <v>366.6077777777778</v>
+      </c>
+      <c r="F497" t="n">
+        <v>368.3077777777777</v>
+      </c>
+      <c r="G497" t="n">
+        <v>378.8066666666666</v>
+      </c>
+      <c r="H497" t="n">
+        <v>381.1554545454546</v>
+      </c>
+      <c r="I497" t="n">
+        <v>386.4714285714285</v>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>368.82</v>
+      </c>
+      <c r="C498" t="n">
+        <v>365.85</v>
+      </c>
+      <c r="D498" t="n">
+        <v>377.3622222222222</v>
+      </c>
+      <c r="E498" t="n">
+        <v>366.9422222222223</v>
+      </c>
+      <c r="F498" t="n">
+        <v>374.8122222222222</v>
+      </c>
+      <c r="G498" t="n">
+        <v>380.0933333333334</v>
+      </c>
+      <c r="H498" t="n">
+        <v>378.0745454545454</v>
+      </c>
+      <c r="I498" t="n">
+        <v>381.8485714285715</v>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>370.02</v>
+      </c>
+      <c r="C499" t="n">
+        <v>351.07</v>
+      </c>
+      <c r="D499" t="n">
+        <v>355.7377777777777</v>
+      </c>
+      <c r="E499" t="n">
+        <v>353.7877777777778</v>
+      </c>
+      <c r="F499" t="n">
+        <v>358.0677777777778</v>
+      </c>
+      <c r="G499" t="n">
+        <v>373.2066666666666</v>
+      </c>
+      <c r="H499" t="n">
+        <v>381.5463636363637</v>
+      </c>
+      <c r="I499" t="n">
+        <v>394.4971428571428</v>
+      </c>
+      <c r="J499" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17413,7 +17555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23561,6 +23703,46 @@
       </c>
       <c r="B614" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -23734,28 +23916,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03656911721759615</v>
+        <v>-0.03450757470380288</v>
       </c>
       <c r="J2" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K2" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000334318700435432</v>
+        <v>0.0003006678566327414</v>
       </c>
       <c r="M2" t="n">
-        <v>11.03932810380547</v>
+        <v>11.0226483463142</v>
       </c>
       <c r="N2" t="n">
-        <v>198.8772186312574</v>
+        <v>198.1672881092711</v>
       </c>
       <c r="O2" t="n">
-        <v>14.10238343796032</v>
+        <v>14.07719034854864</v>
       </c>
       <c r="P2" t="n">
-        <v>375.7409071132863</v>
+        <v>375.7183282623739</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23812,28 +23994,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1064136980396542</v>
+        <v>-0.1281905040231878</v>
       </c>
       <c r="J3" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K3" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002630103550357199</v>
+        <v>0.003836102580236811</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28812475835404</v>
+        <v>11.31319360452141</v>
       </c>
       <c r="N3" t="n">
-        <v>216.8549128910757</v>
+        <v>217.0962321777714</v>
       </c>
       <c r="O3" t="n">
-        <v>14.72599446187169</v>
+        <v>14.73418583355631</v>
       </c>
       <c r="P3" t="n">
-        <v>379.4089636407244</v>
+        <v>379.6475656796684</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23890,28 +24072,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08728476326004571</v>
+        <v>-0.09858429971976088</v>
       </c>
       <c r="J4" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K4" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002105270196852693</v>
+        <v>0.002704755653846425</v>
       </c>
       <c r="M4" t="n">
-        <v>10.65179689802486</v>
+        <v>10.66054303797109</v>
       </c>
       <c r="N4" t="n">
-        <v>184.4913095699559</v>
+        <v>184.4225499998</v>
       </c>
       <c r="O4" t="n">
-        <v>13.58275780428835</v>
+        <v>13.58022643404004</v>
       </c>
       <c r="P4" t="n">
-        <v>379.204994770198</v>
+        <v>379.3279203535741</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23968,28 +24150,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1339185056968511</v>
+        <v>-0.1416360366064248</v>
       </c>
       <c r="J5" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005443088129837625</v>
+        <v>0.006165869916882061</v>
       </c>
       <c r="M5" t="n">
-        <v>9.995471147866544</v>
+        <v>9.970773981265769</v>
       </c>
       <c r="N5" t="n">
-        <v>166.4445392940183</v>
+        <v>165.6077166389661</v>
       </c>
       <c r="O5" t="n">
-        <v>12.90133866286822</v>
+        <v>12.86886617534607</v>
       </c>
       <c r="P5" t="n">
-        <v>373.2034795780943</v>
+        <v>373.2868420321931</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24046,28 +24228,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2235650278089235</v>
+        <v>-0.2199192534266153</v>
       </c>
       <c r="J6" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K6" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01754337854113763</v>
+        <v>0.01721059515443957</v>
       </c>
       <c r="M6" t="n">
-        <v>9.703092111719423</v>
+        <v>9.675451175161923</v>
       </c>
       <c r="N6" t="n">
-        <v>144.340278292609</v>
+        <v>143.5465083219582</v>
       </c>
       <c r="O6" t="n">
-        <v>12.01416989611055</v>
+        <v>11.98108961330138</v>
       </c>
       <c r="P6" t="n">
-        <v>373.1406177479029</v>
+        <v>373.1015513325256</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24124,28 +24306,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3146526531136283</v>
+        <v>-0.3046432879970705</v>
       </c>
       <c r="J7" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03067290539862721</v>
+        <v>0.02919773654114255</v>
       </c>
       <c r="M7" t="n">
-        <v>9.804390700336267</v>
+        <v>9.763207720745514</v>
       </c>
       <c r="N7" t="n">
-        <v>159.9180847883075</v>
+        <v>158.9470392308047</v>
       </c>
       <c r="O7" t="n">
-        <v>12.64587224308025</v>
+        <v>12.60742000691675</v>
       </c>
       <c r="P7" t="n">
-        <v>381.6444247812997</v>
+        <v>381.536029151819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24196,28 +24378,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1723300485621296</v>
+        <v>-0.1655164793931168</v>
       </c>
       <c r="J8" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K8" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007171761525301523</v>
+        <v>0.006732436589708235</v>
       </c>
       <c r="M8" t="n">
-        <v>11.31875824792174</v>
+        <v>11.24637808886789</v>
       </c>
       <c r="N8" t="n">
-        <v>207.2231393154363</v>
+        <v>205.4544633052356</v>
       </c>
       <c r="O8" t="n">
-        <v>14.39524710852288</v>
+        <v>14.33368282421638</v>
       </c>
       <c r="P8" t="n">
-        <v>380.1702441181024</v>
+        <v>380.0960482063295</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24274,28 +24456,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1414505266226654</v>
+        <v>-0.1244627602538422</v>
       </c>
       <c r="J9" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K9" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003861473378370284</v>
+        <v>0.003032599918952439</v>
       </c>
       <c r="M9" t="n">
-        <v>12.35309560986096</v>
+        <v>12.32351740333364</v>
       </c>
       <c r="N9" t="n">
-        <v>251.7847223523825</v>
+        <v>250.528366653955</v>
       </c>
       <c r="O9" t="n">
-        <v>15.86772580908753</v>
+        <v>15.82808790264809</v>
       </c>
       <c r="P9" t="n">
-        <v>383.4009768513924</v>
+        <v>383.2121448367923</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24333,7 +24515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J495"/>
+  <dimension ref="A1:J499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48341,6 +48523,210 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-45.76192700483974,170.66695775193423</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-45.76201855873039,170.66777532979873</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-45.76220472238424,170.6685962940082</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-45.76227503620559,170.66950106019272</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-45.76232343480408,170.67039297384878</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-45.76246723144464,170.67122245685275</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-45.762330948058136,170.67210360683956</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-45.76154250183027,170.66628064975248</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-45.76203916311695,170.66688916439347</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-45.76220826763069,170.66770594433353</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-45.76226606541042,170.66858067286506</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-45.7623500391038,170.6694793607823</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-45.762382300832705,170.6703774482654</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-45.7624324904311,170.6712270949425</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-45.76239804006866,170.6720993905391</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-45.76171221521247,170.66615320712586</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-45.7620053336712,170.66690985196317</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-45.762079580523384,170.66775301131594</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-45.76226310307279,170.66858142723206</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-45.762292682217854,170.6694959549549</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-45.76237091692162,170.6703804507106</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-45.76246008942198,170.67122341034715</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-45.76243959217263,170.67209677925052</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-45.761702658386255,170.66616038364384</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-45.762127582845494,170.6668350933382</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-45.76226805947911,170.66768407553624</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-45.76237961839936,170.668551756235</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-45.76244033651038,170.66945323636733</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-45.76243184738728,170.6703643806129</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-45.76242898864113,170.6712275624477</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-45.762325901711655,170.67210392396933</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J499"/>
+  <dimension ref="A1:J500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17539,6 +17539,30 @@
         <v>394.4971428571428</v>
       </c>
       <c r="J499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="n">
+        <v>339.54</v>
+      </c>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="n">
+        <v>362.6145454545455</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17555,7 +17579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23743,6 +23767,16 @@
       </c>
       <c r="B618" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -23919,7 +23953,7 @@
         <v>-0.03450757470380288</v>
       </c>
       <c r="J2" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K2" t="n">
         <v>427</v>
@@ -23994,28 +24028,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1281905040231878</v>
+        <v>-0.1434076124190285</v>
       </c>
       <c r="J3" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K3" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003836102580236811</v>
+        <v>0.004751557160597608</v>
       </c>
       <c r="M3" t="n">
-        <v>11.31319360452141</v>
+        <v>11.374707827331</v>
       </c>
       <c r="N3" t="n">
-        <v>217.0962321777714</v>
+        <v>219.5527538832189</v>
       </c>
       <c r="O3" t="n">
-        <v>14.73418583355631</v>
+        <v>14.81731264039532</v>
       </c>
       <c r="P3" t="n">
-        <v>379.6475656796684</v>
+        <v>379.8147780054449</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24075,7 +24109,7 @@
         <v>-0.09858429971976088</v>
       </c>
       <c r="J4" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K4" t="n">
         <v>464</v>
@@ -24153,7 +24187,7 @@
         <v>-0.1416360366064248</v>
       </c>
       <c r="J5" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K5" t="n">
         <v>456</v>
@@ -24231,7 +24265,7 @@
         <v>-0.2199192534266153</v>
       </c>
       <c r="J6" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K6" t="n">
         <v>436</v>
@@ -24309,7 +24343,7 @@
         <v>-0.3046432879970705</v>
       </c>
       <c r="J7" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K7" t="n">
         <v>442</v>
@@ -24378,28 +24412,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1655164793931168</v>
+        <v>-0.1714308600099023</v>
       </c>
       <c r="J8" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K8" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006732436589708235</v>
+        <v>0.007236331710522403</v>
       </c>
       <c r="M8" t="n">
-        <v>11.24637808886789</v>
+        <v>11.25261074675807</v>
       </c>
       <c r="N8" t="n">
-        <v>205.4544633052356</v>
+        <v>205.378484661962</v>
       </c>
       <c r="O8" t="n">
-        <v>14.33368282421638</v>
+        <v>14.33103222597598</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0960482063295</v>
+        <v>380.1606605418629</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24459,7 +24493,7 @@
         <v>-0.1244627602538422</v>
       </c>
       <c r="J9" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K9" t="n">
         <v>436</v>
@@ -24515,7 +24549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J499"/>
+  <dimension ref="A1:J500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48727,6 +48761,34 @@
         </is>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-45.762222950395376,170.66677677328482</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-45.76259858113722,170.6712049209867</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J500"/>
+  <dimension ref="A1:J506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17563,6 +17563,220 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="C501" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="D501" t="n">
+        <v>373.6366666666667</v>
+      </c>
+      <c r="E501" t="n">
+        <v>370.3266666666667</v>
+      </c>
+      <c r="F501" t="n">
+        <v>365.4066666666667</v>
+      </c>
+      <c r="G501" t="n">
+        <v>379.81</v>
+      </c>
+      <c r="H501" t="n">
+        <v>380.3145454545455</v>
+      </c>
+      <c r="I501" t="n">
+        <v>387.0257142857143</v>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="D502" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="E502" t="n">
+        <v>338.59</v>
+      </c>
+      <c r="F502" t="n">
+        <v>341.73</v>
+      </c>
+      <c r="G502" t="n">
+        <v>344.75</v>
+      </c>
+      <c r="H502" t="n">
+        <v>353.8181818181818</v>
+      </c>
+      <c r="I502" t="n">
+        <v>346.3585714285715</v>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>389.58</v>
+      </c>
+      <c r="C503" t="n">
+        <v>366.42</v>
+      </c>
+      <c r="D503" t="n">
+        <v>371.3744444444445</v>
+      </c>
+      <c r="E503" t="n">
+        <v>366.2244444444444</v>
+      </c>
+      <c r="F503" t="n">
+        <v>371.1044444444445</v>
+      </c>
+      <c r="G503" t="n">
+        <v>366.2666666666667</v>
+      </c>
+      <c r="H503" t="n">
+        <v>372.8454545454546</v>
+      </c>
+      <c r="I503" t="n">
+        <v>375.4085714285715</v>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>347.11</v>
+      </c>
+      <c r="C504" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="D504" t="n">
+        <v>362.3988888888889</v>
+      </c>
+      <c r="E504" t="n">
+        <v>355.9088888888889</v>
+      </c>
+      <c r="F504" t="n">
+        <v>356.0788888888889</v>
+      </c>
+      <c r="G504" t="n">
+        <v>373.5933333333334</v>
+      </c>
+      <c r="H504" t="n">
+        <v>381.9763636363636</v>
+      </c>
+      <c r="I504" t="n">
+        <v>388.9114285714285</v>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="C505" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="D505" t="n">
+        <v>375.0277777777778</v>
+      </c>
+      <c r="E505" t="n">
+        <v>364.4877777777778</v>
+      </c>
+      <c r="F505" t="n">
+        <v>366.3077777777777</v>
+      </c>
+      <c r="G505" t="n">
+        <v>378.3066666666667</v>
+      </c>
+      <c r="H505" t="n">
+        <v>386.7145454545454</v>
+      </c>
+      <c r="I505" t="n">
+        <v>388.7357142857143</v>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="C506" t="n">
+        <v>354.77</v>
+      </c>
+      <c r="D506" t="n">
+        <v>357.6122222222222</v>
+      </c>
+      <c r="E506" t="n">
+        <v>351.1222222222222</v>
+      </c>
+      <c r="F506" t="n">
+        <v>347.2222222222222</v>
+      </c>
+      <c r="G506" t="n">
+        <v>362.2333333333333</v>
+      </c>
+      <c r="H506" t="n">
+        <v>361.3663636363637</v>
+      </c>
+      <c r="I506" t="n">
+        <v>365.99</v>
+      </c>
+      <c r="J506" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17579,7 +17793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23777,6 +23991,66 @@
       </c>
       <c r="B619" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -23950,28 +24224,28 @@
         <v>0.0433</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03450757470380288</v>
+        <v>-0.07313424856888513</v>
       </c>
       <c r="J2" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003006678566327414</v>
+        <v>0.001331960345366756</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0226483463142</v>
+        <v>11.16894778153147</v>
       </c>
       <c r="N2" t="n">
-        <v>198.1672881092711</v>
+        <v>202.8768303465242</v>
       </c>
       <c r="O2" t="n">
-        <v>14.07719034854864</v>
+        <v>14.24348378545517</v>
       </c>
       <c r="P2" t="n">
-        <v>375.7183282623739</v>
+        <v>376.1472447764855</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24028,28 +24302,28 @@
         <v>0.0594</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1434076124190285</v>
+        <v>-0.1839192416146081</v>
       </c>
       <c r="J3" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004751557160597608</v>
+        <v>0.007816160777640691</v>
       </c>
       <c r="M3" t="n">
-        <v>11.374707827331</v>
+        <v>11.45291247654174</v>
       </c>
       <c r="N3" t="n">
-        <v>219.5527538832189</v>
+        <v>221.2632590376593</v>
       </c>
       <c r="O3" t="n">
-        <v>14.81731264039532</v>
+        <v>14.8749204716415</v>
       </c>
       <c r="P3" t="n">
-        <v>379.8147780054449</v>
+        <v>380.2622804997459</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24106,28 +24380,28 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09858429971976088</v>
+        <v>-0.128656408616362</v>
       </c>
       <c r="J4" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002704755653846425</v>
+        <v>0.004623094239774472</v>
       </c>
       <c r="M4" t="n">
-        <v>10.66054303797109</v>
+        <v>10.7033280043509</v>
       </c>
       <c r="N4" t="n">
-        <v>184.4225499998</v>
+        <v>185.4428009569565</v>
       </c>
       <c r="O4" t="n">
-        <v>13.58022643404004</v>
+        <v>13.61773846704939</v>
       </c>
       <c r="P4" t="n">
-        <v>379.3279203535741</v>
+        <v>379.6573539163085</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24184,28 +24458,28 @@
         <v>0.0512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1416360366064248</v>
+        <v>-0.171152105008071</v>
       </c>
       <c r="J5" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006165869916882061</v>
+        <v>0.009030574272996139</v>
       </c>
       <c r="M5" t="n">
-        <v>9.970773981265769</v>
+        <v>10.01986529588306</v>
       </c>
       <c r="N5" t="n">
-        <v>165.6077166389661</v>
+        <v>166.6962063638935</v>
       </c>
       <c r="O5" t="n">
-        <v>12.86886617534607</v>
+        <v>12.91108850422355</v>
       </c>
       <c r="P5" t="n">
-        <v>373.2868420321931</v>
+        <v>373.6077484829928</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24262,28 +24536,28 @@
         <v>0.0509</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2199192534266153</v>
+        <v>-0.2437234947644252</v>
       </c>
       <c r="J6" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01721059515443957</v>
+        <v>0.02119247024799897</v>
       </c>
       <c r="M6" t="n">
-        <v>9.675451175161923</v>
+        <v>9.690896932892066</v>
       </c>
       <c r="N6" t="n">
-        <v>143.5465083219582</v>
+        <v>144.2897327663067</v>
       </c>
       <c r="O6" t="n">
-        <v>11.98108961330138</v>
+        <v>12.0120661322816</v>
       </c>
       <c r="P6" t="n">
-        <v>373.1015513325256</v>
+        <v>373.3604153432452</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24340,28 +24614,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3046432879970705</v>
+        <v>-0.3199631845956847</v>
       </c>
       <c r="J7" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02919773654114255</v>
+        <v>0.03242463239832549</v>
       </c>
       <c r="M7" t="n">
-        <v>9.763207720745514</v>
+        <v>9.773340900183255</v>
       </c>
       <c r="N7" t="n">
-        <v>158.9470392308047</v>
+        <v>159.2018933075369</v>
       </c>
       <c r="O7" t="n">
-        <v>12.60742000691675</v>
+        <v>12.61752326360197</v>
       </c>
       <c r="P7" t="n">
-        <v>381.536029151819</v>
+        <v>381.7036081331403</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24412,28 +24686,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1714308600099023</v>
+        <v>-0.17889732271228</v>
       </c>
       <c r="J8" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007236331710522403</v>
+        <v>0.008004866267762423</v>
       </c>
       <c r="M8" t="n">
-        <v>11.25261074675807</v>
+        <v>11.2399821797159</v>
       </c>
       <c r="N8" t="n">
-        <v>205.378484661962</v>
+        <v>204.5530506203977</v>
       </c>
       <c r="O8" t="n">
-        <v>14.33103222597598</v>
+        <v>14.30220439723883</v>
       </c>
       <c r="P8" t="n">
-        <v>380.1606605418629</v>
+        <v>380.2426440649298</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24490,28 +24764,28 @@
         <v>0.0415</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1244627602538422</v>
+        <v>-0.1365125630904774</v>
       </c>
       <c r="J9" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003032599918952439</v>
+        <v>0.003690569009028977</v>
       </c>
       <c r="M9" t="n">
-        <v>12.32351740333364</v>
+        <v>12.33222747579366</v>
       </c>
       <c r="N9" t="n">
-        <v>250.528366653955</v>
+        <v>250.6292354731012</v>
       </c>
       <c r="O9" t="n">
-        <v>15.82808790264809</v>
+        <v>15.83127396873357</v>
       </c>
       <c r="P9" t="n">
-        <v>383.2121448367923</v>
+        <v>383.3471668542281</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24549,7 +24823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J500"/>
+  <dimension ref="A1:J506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48789,6 +49063,314 @@
         </is>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-45.761820286953366,170.6660720524944</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-45.76197597070125,170.66692780814586</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-45.76211205252096,170.66774113478772</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-45.76223312539662,170.66858906112026</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-45.762375621410314,170.66947195944078</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-45.76237342374142,170.6703797895505</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-45.76244002335133,170.67122608926257</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-45.76239305792515,170.67209970363518</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-45.762198467489135,170.66679174532146</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-45.76236121427665,170.66765000417803</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-45.76251423250996,170.66851747615584</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-45.76258440474995,170.66941155504006</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-45.76268362052763,170.67029797633094</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-45.7626773795482,170.67119440094385</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-45.7627585905887,170.67207673203413</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-45.7615468820463,170.6662773605346</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-45.76200061905372,170.66691273506984</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-45.76213177008264,170.66773392314587</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-45.76226946078078,170.66857980822508</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-45.762325377798824,170.66948649565734</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-45.76249324972134,170.67034818602343</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-45.76250693196938,170.67121715663663</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-45.7624974774886,170.67209314151364</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-45.76188511403835,170.66602337152307</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-45.76207150373211,170.66686938725516</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-45.76221000114889,170.667705310302</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-45.76236083068514,170.66855654059515</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-45.7624578747426,170.66944816227894</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-45.76242842631574,170.67036528290402</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-45.762425136672185,170.6712280767033</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-45.76237610836468,170.67210076880684</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-45.761787554841284,170.6660966321549</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-45.76201195067806,170.66690580549678</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-45.76209992757604,170.66774556944893</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-45.7622848432846,170.66857589102855</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-45.76236767531673,170.66947425836454</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-45.76238672463231,170.67037628151172</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-45.76238269171999,170.67123374329455</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-45.762377687755546,170.67210066955224</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-45.7619695325657,170.66595997843956</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-45.76209697920105,170.66685380831638</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-45.76225172179773,170.6676900510288</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-45.76240322852273,170.6685457438257</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-45.76253597376035,170.66942556695355</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-45.762528935033906,170.67033877416478</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-45.7626097624332,170.67120342822122</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-45.76258213540379,170.6720878212653</t>
+        </is>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -24215,13 +24215,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0349</v>
+        <v>0.0579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0433</v>
+        <v>0.0832</v>
       </c>
       <c r="I2" t="n">
         <v>-0.07313424856888513</v>
@@ -24293,13 +24293,13 @@
         <v>0.1421802542529837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0469</v>
+        <v>0.0481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0594</v>
+        <v>0.0586</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1839192416146083</v>
@@ -24371,13 +24371,13 @@
         <v>0.2850234842162175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0406</v>
+        <v>0.0625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.1253</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1286276450152649</v>
@@ -24449,13 +24449,13 @@
         <v>0.4280927379574724</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0421</v>
+        <v>0.0667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0512</v>
+        <v>0.1283</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1711152204935155</v>
@@ -24527,13 +24527,13 @@
         <v>0.5710581799515413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0382</v>
+        <v>0.0516</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0509</v>
+        <v>0.0825</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2436907878526633</v>
@@ -24605,13 +24605,13 @@
         <v>0.7141643511246402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0643</v>
+        <v>0.0563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0726</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3199743202366165</v>
@@ -24682,9 +24682,15 @@
       <c r="E8" t="n">
         <v>0.8572695527820805</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0688</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.1788546276657447</v>
       </c>
@@ -24755,13 +24761,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0319</v>
+        <v>0.0379</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0415</v>
+        <v>0.046</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1365227527954374</v>

--- a/data/nzd0501/nzd0501.xlsx
+++ b/data/nzd0501/nzd0501.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J506"/>
+  <dimension ref="A1:J507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
         <v>388.51</v>
       </c>
       <c r="C4" t="n">
-        <v>403.52</v>
+        <v>402.14</v>
       </c>
       <c r="D4" t="n">
         <v>386.2</v>
@@ -600,7 +600,7 @@
         <v>387.51</v>
       </c>
       <c r="C5" t="n">
-        <v>399.87</v>
+        <v>399.53</v>
       </c>
       <c r="D5" t="n">
         <v>392.09</v>
@@ -636,7 +636,7 @@
         <v>393.17</v>
       </c>
       <c r="C6" t="n">
-        <v>401.34</v>
+        <v>400.6</v>
       </c>
       <c r="D6" t="n">
         <v>396.2</v>
@@ -672,7 +672,7 @@
         <v>391.81</v>
       </c>
       <c r="C7" t="n">
-        <v>394.7</v>
+        <v>394.35</v>
       </c>
       <c r="D7" t="n">
         <v>393.53</v>
@@ -708,7 +708,7 @@
         <v>394.56</v>
       </c>
       <c r="C8" t="n">
-        <v>397</v>
+        <v>396.75</v>
       </c>
       <c r="D8" t="n">
         <v>396.57</v>
@@ -744,7 +744,7 @@
         <v>394.31</v>
       </c>
       <c r="C9" t="n">
-        <v>395.72</v>
+        <v>395.43</v>
       </c>
       <c r="D9" t="n">
         <v>396.92</v>
@@ -780,7 +780,7 @@
         <v>394.31</v>
       </c>
       <c r="C10" t="n">
-        <v>392.4</v>
+        <v>392.3</v>
       </c>
       <c r="D10" t="n">
         <v>394.06</v>
@@ -852,7 +852,7 @@
         <v>390.67</v>
       </c>
       <c r="C12" t="n">
-        <v>386.74</v>
+        <v>386.83</v>
       </c>
       <c r="D12" t="n">
         <v>386.81</v>
@@ -924,7 +924,7 @@
         <v>380.24</v>
       </c>
       <c r="C14" t="n">
-        <v>374.84</v>
+        <v>375.27</v>
       </c>
       <c r="D14" t="n">
         <v>377.39</v>
@@ -960,7 +960,7 @@
         <v>370.23</v>
       </c>
       <c r="C15" t="n">
-        <v>375.73</v>
+        <v>375.92</v>
       </c>
       <c r="D15" t="n">
         <v>376</v>
@@ -996,7 +996,7 @@
         <v>377.53</v>
       </c>
       <c r="C16" t="n">
-        <v>382.39</v>
+        <v>381.22</v>
       </c>
       <c r="D16" t="n">
         <v>382.5</v>
@@ -1032,7 +1032,7 @@
         <v>382.47</v>
       </c>
       <c r="C17" t="n">
-        <v>388.79</v>
+        <v>387.86</v>
       </c>
       <c r="D17" t="n">
         <v>389.19</v>
@@ -1068,7 +1068,7 @@
         <v>384.69</v>
       </c>
       <c r="C18" t="n">
-        <v>391.11</v>
+        <v>390.76</v>
       </c>
       <c r="D18" t="n">
         <v>389.16</v>
@@ -1104,7 +1104,7 @@
         <v>390.07</v>
       </c>
       <c r="C19" t="n">
-        <v>395.15</v>
+        <v>394.61</v>
       </c>
       <c r="D19" t="n">
         <v>394.68</v>
@@ -1140,7 +1140,7 @@
         <v>390.07</v>
       </c>
       <c r="C20" t="n">
-        <v>394.19</v>
+        <v>393.91</v>
       </c>
       <c r="D20" t="n">
         <v>393.88</v>
@@ -1176,7 +1176,7 @@
         <v>384.89</v>
       </c>
       <c r="C21" t="n">
-        <v>390.2</v>
+        <v>390.04</v>
       </c>
       <c r="D21" t="n">
         <v>391.23</v>
@@ -1212,7 +1212,7 @@
         <v>381.12</v>
       </c>
       <c r="C22" t="n">
-        <v>385.69</v>
+        <v>385.46</v>
       </c>
       <c r="D22" t="n">
         <v>389.12</v>
@@ -1248,7 +1248,7 @@
         <v>380.75</v>
       </c>
       <c r="C23" t="n">
-        <v>386.12</v>
+        <v>385.97</v>
       </c>
       <c r="D23" t="n">
         <v>389.61</v>
@@ -1284,7 +1284,7 @@
         <v>378.57</v>
       </c>
       <c r="C24" t="n">
-        <v>384.08</v>
+        <v>383.96</v>
       </c>
       <c r="D24" t="n">
         <v>388.18</v>
@@ -1320,7 +1320,7 @@
         <v>372.83</v>
       </c>
       <c r="C25" t="n">
-        <v>379.32</v>
+        <v>378.96</v>
       </c>
       <c r="D25" t="n">
         <v>385.63</v>
@@ -1356,7 +1356,7 @@
         <v>365.66</v>
       </c>
       <c r="C26" t="n">
-        <v>370.1</v>
+        <v>369.43</v>
       </c>
       <c r="D26" t="n">
         <v>376.55</v>
@@ -1392,7 +1392,7 @@
         <v>365.64</v>
       </c>
       <c r="C27" t="n">
-        <v>370.16</v>
+        <v>369.44</v>
       </c>
       <c r="D27" t="n">
         <v>373.8</v>
@@ -1428,7 +1428,7 @@
         <v>366.87</v>
       </c>
       <c r="C28" t="n">
-        <v>372.14</v>
+        <v>371.41</v>
       </c>
       <c r="D28" t="n">
         <v>375.92</v>
@@ -1464,7 +1464,7 @@
         <v>371.31</v>
       </c>
       <c r="C29" t="n">
-        <v>376.84</v>
+        <v>376.09</v>
       </c>
       <c r="D29" t="n">
         <v>380.28</v>
@@ -1500,7 +1500,7 @@
         <v>371.21</v>
       </c>
       <c r="C30" t="n">
-        <v>377.57</v>
+        <v>377</v>
       </c>
       <c r="D30" t="n">
         <v>380.43</v>
@@ -1536,7 +1536,7 @@
         <v>372.21</v>
       </c>
       <c r="C31" t="n">
-        <v>378.15</v>
+        <v>377.58</v>
       </c>
       <c r="D31" t="n">
         <v>382.39</v>
@@ -1572,7 +1572,7 @@
         <v>375.07</v>
       </c>
       <c r="C32" t="n">
-        <v>379.44</v>
+        <v>378.88</v>
       </c>
       <c r="D32" t="n">
         <v>383.29</v>
@@ -1608,7 +1608,7 @@
         <v>374.11</v>
       </c>
       <c r="C33" t="n">
-        <v>378.35</v>
+        <v>377.81</v>
       </c>
       <c r="D33" t="n">
         <v>381.94</v>
@@ -1644,7 +1644,7 @@
         <v>373.84</v>
       </c>
       <c r="C34" t="n">
-        <v>378.07</v>
+        <v>377.83</v>
       </c>
       <c r="D34" t="n">
         <v>380.72</v>
@@ -1680,7 +1680,7 @@
         <v>373.54</v>
       </c>
       <c r="C35" t="n">
-        <v>376.57</v>
+        <v>376.26</v>
       </c>
       <c r="D35" t="n">
         <v>381.18</v>
@@ -1716,7 +1716,7 @@
         <v>360.9</v>
       </c>
       <c r="C36" t="n">
-        <v>365.83</v>
+        <v>365.87</v>
       </c>
       <c r="D36" t="n">
         <v>368.89</v>
@@ -1752,7 +1752,7 @@
         <v>361.28</v>
       </c>
       <c r="C37" t="n">
-        <v>364.85</v>
+        <v>365.1</v>
       </c>
       <c r="D37" t="n">
         <v>370.9</v>
@@ -1788,7 +1788,7 @@
         <v>372.25</v>
       </c>
       <c r="C38" t="n">
-        <v>368.36</v>
+        <v>367.7</v>
       </c>
       <c r="D38" t="n">
         <v>376.25</v>
@@ -1824,7 +1824,7 @@
         <v>365.61</v>
       </c>
       <c r="C39" t="n">
-        <v>363.48</v>
+        <v>362.56</v>
       </c>
       <c r="D39" t="n">
         <v>374.55</v>
@@ -1860,7 +1860,7 @@
         <v>360.03</v>
       </c>
       <c r="C40" t="n">
-        <v>358.11</v>
+        <v>357.24</v>
       </c>
       <c r="D40" t="n">
         <v>367.88</v>
@@ -1896,7 +1896,7 @@
         <v>365.57</v>
       </c>
       <c r="C41" t="n">
-        <v>363.04</v>
+        <v>362.7</v>
       </c>
       <c r="D41" t="n">
         <v>370.74</v>
@@ -1932,7 +1932,7 @@
         <v>366.58</v>
       </c>
       <c r="C42" t="n">
-        <v>364.98</v>
+        <v>364.58</v>
       </c>
       <c r="D42" t="n">
         <v>371.15</v>
@@ -1968,7 +1968,7 @@
         <v>365.69</v>
       </c>
       <c r="C43" t="n">
-        <v>366.87</v>
+        <v>367.25</v>
       </c>
       <c r="D43" t="n">
         <v>366.77</v>
@@ -2004,7 +2004,7 @@
         <v>373.15</v>
       </c>
       <c r="C44" t="n">
-        <v>377.35</v>
+        <v>377.66</v>
       </c>
       <c r="D44" t="n">
         <v>374.58</v>
@@ -2040,7 +2040,7 @@
         <v>373.15</v>
       </c>
       <c r="C45" t="n">
-        <v>377.35</v>
+        <v>377.66</v>
       </c>
       <c r="D45" t="n">
         <v>374.58</v>
@@ -2076,7 +2076,7 @@
         <v>375.72</v>
       </c>
       <c r="C46" t="n">
-        <v>377.85</v>
+        <v>377.87</v>
       </c>
       <c r="D46" t="n">
         <v>375.75</v>
@@ -2112,7 +2112,7 @@
         <v>381.52</v>
       </c>
       <c r="C47" t="n">
-        <v>382.94</v>
+        <v>383.09</v>
       </c>
       <c r="D47" t="n">
         <v>378.69</v>
@@ -2148,7 +2148,7 @@
         <v>384.49</v>
       </c>
       <c r="C48" t="n">
-        <v>386.52</v>
+        <v>386.76</v>
       </c>
       <c r="D48" t="n">
         <v>383.77</v>
@@ -2184,7 +2184,7 @@
         <v>384.49</v>
       </c>
       <c r="C49" t="n">
-        <v>384.55</v>
+        <v>384.94</v>
       </c>
       <c r="D49" t="n">
         <v>382.05</v>
@@ -2220,7 +2220,7 @@
         <v>385.03</v>
       </c>
       <c r="C50" t="n">
-        <v>385.05</v>
+        <v>385.39</v>
       </c>
       <c r="D50" t="n">
         <v>382.29</v>
@@ -2256,7 +2256,7 @@
         <v>382.47</v>
       </c>
       <c r="C51" t="n">
-        <v>383.55</v>
+        <v>383.8</v>
       </c>
       <c r="D51" t="n">
         <v>380.73</v>
@@ -2292,7 +2292,7 @@
         <v>383.29</v>
       </c>
       <c r="C52" t="n">
-        <v>384.18</v>
+        <v>384.27</v>
       </c>
       <c r="D52" t="n">
         <v>381.09</v>
@@ -2328,7 +2328,7 @@
         <v>384.32</v>
       </c>
       <c r="C53" t="n">
-        <v>384.67</v>
+        <v>384.78</v>
       </c>
       <c r="D53" t="n">
         <v>382.87</v>
@@ -2364,7 +2364,7 @@
         <v>382.58</v>
       </c>
       <c r="C54" t="n">
-        <v>384.11</v>
+        <v>384.29</v>
       </c>
       <c r="D54" t="n">
         <v>382.59</v>
@@ -2400,7 +2400,7 @@
         <v>381.69</v>
       </c>
       <c r="C55" t="n">
-        <v>383.05</v>
+        <v>383.24</v>
       </c>
       <c r="D55" t="n">
         <v>382.35</v>
@@ -2436,7 +2436,7 @@
         <v>379.47</v>
       </c>
       <c r="C56" t="n">
-        <v>382.84</v>
+        <v>383.12</v>
       </c>
       <c r="D56" t="n">
         <v>381.11</v>
@@ -2472,7 +2472,7 @@
         <v>378.26</v>
       </c>
       <c r="C57" t="n">
-        <v>383.54</v>
+        <v>383.46</v>
       </c>
       <c r="D57" t="n">
         <v>382.85</v>
@@ -2508,7 +2508,7 @@
         <v>379.38</v>
       </c>
       <c r="C58" t="n">
-        <v>384.79</v>
+        <v>384.76</v>
       </c>
       <c r="D58" t="n">
         <v>383.06</v>
@@ -2544,7 +2544,7 @@
         <v>378.86</v>
       </c>
       <c r="C59" t="n">
-        <v>385.24</v>
+        <v>385.5</v>
       </c>
       <c r="D59" t="n">
         <v>383.57</v>
@@ -2580,7 +2580,7 @@
         <v>380.11</v>
       </c>
       <c r="C60" t="n">
-        <v>385.71</v>
+        <v>385.84</v>
       </c>
       <c r="D60" t="n">
         <v>383.35</v>
@@ -2616,7 +2616,7 @@
         <v>378.67</v>
       </c>
       <c r="C61" t="n">
-        <v>385.73</v>
+        <v>385.82</v>
       </c>
       <c r="D61" t="n">
         <v>382.67</v>
@@ -2652,7 +2652,7 @@
         <v>378.71</v>
       </c>
       <c r="C62" t="n">
-        <v>385.34</v>
+        <v>385.37</v>
       </c>
       <c r="D62" t="n">
         <v>382.8</v>
@@ -2688,7 +2688,7 @@
         <v>379.54</v>
       </c>
       <c r="C63" t="n">
-        <v>384.18</v>
+        <v>384.34</v>
       </c>
       <c r="D63" t="n">
         <v>382</v>
@@ -2724,7 +2724,7 @@
         <v>380.98</v>
       </c>
       <c r="C64" t="n">
-        <v>383.2</v>
+        <v>383.17</v>
       </c>
       <c r="D64" t="n">
         <v>381.73</v>
@@ -2760,7 +2760,7 @@
         <v>380.4</v>
       </c>
       <c r="C65" t="n">
-        <v>382.01</v>
+        <v>382.08</v>
       </c>
       <c r="D65" t="n">
         <v>379.09</v>
@@ -2796,7 +2796,7 @@
         <v>379.89</v>
       </c>
       <c r="C66" t="n">
-        <v>381.37</v>
+        <v>381.27</v>
       </c>
       <c r="D66" t="n">
         <v>378.67</v>
@@ -2832,7 +2832,7 @@
         <v>380.24</v>
       </c>
       <c r="C67" t="n">
-        <v>381.16</v>
+        <v>380.91</v>
       </c>
       <c r="D67" t="n">
         <v>378.93</v>
@@ -2868,7 +2868,7 @@
         <v>380.24</v>
       </c>
       <c r="C68" t="n">
-        <v>381.16</v>
+        <v>380.91</v>
       </c>
       <c r="D68" t="n">
         <v>378.55</v>
@@ -2904,7 +2904,7 @@
         <v>380.86</v>
       </c>
       <c r="C69" t="n">
-        <v>381.16</v>
+        <v>380.91</v>
       </c>
       <c r="D69" t="n">
         <v>378.55</v>
@@ -2940,7 +2940,7 @@
         <v>377.58</v>
       </c>
       <c r="C70" t="n">
-        <v>376.64</v>
+        <v>376.53</v>
       </c>
       <c r="D70" t="n">
         <v>375.03</v>
@@ -2976,7 +2976,7 @@
         <v>375.72</v>
       </c>
       <c r="C71" t="n">
-        <v>374.43</v>
+        <v>374.34</v>
       </c>
       <c r="D71" t="n">
         <v>373.74</v>
@@ -3012,7 +3012,7 @@
         <v>375.44</v>
       </c>
       <c r="C72" t="n">
-        <v>374.84</v>
+        <v>374.73</v>
       </c>
       <c r="D72" t="n">
         <v>374.13</v>
@@ -3048,7 +3048,7 @@
         <v>374.68</v>
       </c>
       <c r="C73" t="n">
-        <v>373.25</v>
+        <v>373.05</v>
       </c>
       <c r="D73" t="n">
         <v>373.02</v>
@@ -3084,7 +3084,7 @@
         <v>374.33</v>
       </c>
       <c r="C74" t="n">
-        <v>372.58</v>
+        <v>372.24</v>
       </c>
       <c r="D74" t="n">
         <v>372.39</v>
@@ -3120,7 +3120,7 @@
         <v>368.96</v>
       </c>
       <c r="C75" t="n">
-        <v>364.38</v>
+        <v>364.04</v>
       </c>
       <c r="D75" t="n">
         <v>368.14</v>
@@ -3156,7 +3156,7 @@
         <v>373.79</v>
       </c>
       <c r="C76" t="n">
-        <v>370.43</v>
+        <v>369.13</v>
       </c>
       <c r="D76" t="n">
         <v>367.99</v>
@@ -3192,7 +3192,7 @@
         <v>376.33</v>
       </c>
       <c r="C77" t="n">
-        <v>375.36</v>
+        <v>374.6</v>
       </c>
       <c r="D77" t="n">
         <v>372.21</v>
@@ -3228,7 +3228,7 @@
         <v>385.37</v>
       </c>
       <c r="C78" t="n">
-        <v>384.58</v>
+        <v>383.77</v>
       </c>
       <c r="D78" t="n">
         <v>382.17</v>
@@ -3264,7 +3264,7 @@
         <v>385.44</v>
       </c>
       <c r="C79" t="n">
-        <v>383.02</v>
+        <v>382.1</v>
       </c>
       <c r="D79" t="n">
         <v>381.73</v>
@@ -3300,7 +3300,7 @@
         <v>384.63</v>
       </c>
       <c r="C80" t="n">
-        <v>389.54</v>
+        <v>388.76</v>
       </c>
       <c r="D80" t="n">
         <v>377.49</v>
@@ -3336,7 +3336,7 @@
         <v>384.63</v>
       </c>
       <c r="C81" t="n">
-        <v>384.76</v>
+        <v>383.82</v>
       </c>
       <c r="D81" t="n">
         <v>376.43</v>
@@ -3372,7 +3372,7 @@
         <v>382</v>
       </c>
       <c r="C82" t="n">
-        <v>382.97</v>
+        <v>382</v>
       </c>
       <c r="D82" t="n">
         <v>376.27</v>
@@ -3408,7 +3408,7 @@
         <v>375.86</v>
       </c>
       <c r="C83" t="n">
-        <v>379.87</v>
+        <v>378.89</v>
       </c>
       <c r="D83" t="n">
         <v>374.08</v>
@@ -3444,7 +3444,7 @@
         <v>375.3</v>
       </c>
       <c r="C84" t="n">
-        <v>380.73</v>
+        <v>379.84</v>
       </c>
       <c r="D84" t="n">
         <v>375.1</v>
@@ -3480,7 +3480,7 @@
         <v>371.81</v>
       </c>
       <c r="C85" t="n">
-        <v>378.49</v>
+        <v>377.88</v>
       </c>
       <c r="D85" t="n">
         <v>375.72</v>
@@ -3516,7 +3516,7 @@
         <v>372.71</v>
       </c>
       <c r="C86" t="n">
-        <v>378.78</v>
+        <v>378.39</v>
       </c>
       <c r="D86" t="n">
         <v>376.97</v>
@@ -3552,7 +3552,7 @@
         <v>367.68</v>
       </c>
       <c r="C87" t="n">
-        <v>375.41</v>
+        <v>375.03</v>
       </c>
       <c r="D87" t="n">
         <v>374.93</v>
@@ -3588,7 +3588,7 @@
         <v>372.5</v>
       </c>
       <c r="C88" t="n">
-        <v>381.37</v>
+        <v>381.91</v>
       </c>
       <c r="D88" t="n">
         <v>386.85</v>
@@ -3624,7 +3624,7 @@
         <v>377.8</v>
       </c>
       <c r="C89" t="n">
-        <v>383.84</v>
+        <v>384.45</v>
       </c>
       <c r="D89" t="n">
         <v>389.04</v>
@@ -3660,7 +3660,7 @@
         <v>389.03</v>
       </c>
       <c r="C90" t="n">
-        <v>395.91</v>
+        <v>396.25</v>
       </c>
       <c r="D90" t="n">
         <v>395.82</v>
@@ -3696,7 +3696,7 @@
         <v>395.72</v>
       </c>
       <c r="C91" t="n">
-        <v>405.15</v>
+        <v>405.2</v>
       </c>
       <c r="D91" t="n">
         <v>397.34</v>
@@ -3732,7 +3732,7 @@
         <v>395.72</v>
       </c>
       <c r="C92" t="n">
-        <v>405.15</v>
+        <v>405.2</v>
       </c>
       <c r="D92" t="n">
         <v>397.34</v>
@@ -3768,7 +3768,7 @@
         <v>401.08</v>
       </c>
       <c r="C93" t="n">
-        <v>407.63</v>
+        <v>407.28</v>
       </c>
       <c r="D93" t="n">
         <v>402.38</v>
@@ -3804,7 +3804,7 @@
         <v>401.08</v>
       </c>
       <c r="C94" t="n">
-        <v>407.63</v>
+        <v>407.28</v>
       </c>
       <c r="D94" t="n">
         <v>402.38</v>
@@ -3840,7 +3840,7 @@
         <v>391.74</v>
       </c>
       <c r="C95" t="n">
-        <v>396.71</v>
+        <v>396.7</v>
       </c>
       <c r="D95" t="n">
         <v>396.55</v>
@@ -3876,7 +3876,7 @@
         <v>385.64</v>
       </c>
       <c r="C96" t="n">
-        <v>391.64</v>
+        <v>391.6</v>
       </c>
       <c r="D96" t="n">
         <v>393.64</v>
@@ -3912,7 +3912,7 @@
         <v>384.04</v>
       </c>
       <c r="C97" t="n">
-        <v>388.48</v>
+        <v>388.59</v>
       </c>
       <c r="D97" t="n">
         <v>389.94</v>
@@ -3948,7 +3948,7 @@
         <v>372.88</v>
       </c>
       <c r="C98" t="n">
-        <v>363.1</v>
+        <v>363.17</v>
       </c>
       <c r="D98" t="n">
         <v>368.15</v>
@@ -3984,7 +3984,7 @@
         <v>364.74</v>
       </c>
       <c r="C99" t="n">
-        <v>358.87</v>
+        <v>358.84</v>
       </c>
       <c r="D99" t="n">
         <v>365.01</v>
@@ -4020,7 +4020,7 @@
         <v>368.65</v>
       </c>
       <c r="C100" t="n">
-        <v>360</v>
+        <v>360.25</v>
       </c>
       <c r="D100" t="n">
         <v>365.92</v>
@@ -4056,7 +4056,7 @@
         <v>367.31</v>
       </c>
       <c r="C101" t="n">
-        <v>360.96</v>
+        <v>361.17</v>
       </c>
       <c r="D101" t="n">
         <v>368.6</v>
@@ -4092,7 +4092,7 @@
         <v>371.56</v>
       </c>
       <c r="C102" t="n">
-        <v>366.08</v>
+        <v>366.19</v>
       </c>
       <c r="D102" t="n">
         <v>371.74</v>
@@ -4128,7 +4128,7 @@
         <v>371.56</v>
       </c>
       <c r="C103" t="n">
-        <v>366.08</v>
+        <v>366.19</v>
       </c>
       <c r="D103" t="n">
         <v>366.58</v>
@@ -4164,7 +4164,7 @@
         <v>372.95</v>
       </c>
       <c r="C104" t="n">
-        <v>367.55</v>
+        <v>367.47</v>
       </c>
       <c r="D104" t="n">
         <v>368.14</v>
@@ -4200,7 +4200,7 @@
         <v>372.95</v>
       </c>
       <c r="C105" t="n">
-        <v>366.64</v>
+        <v>366.72</v>
       </c>
       <c r="D105" t="n">
         <v>367.2</v>
@@ -4236,7 +4236,7 @@
         <v>372.95</v>
       </c>
       <c r="C106" t="n">
-        <v>363.93</v>
+        <v>363.83</v>
       </c>
       <c r="D106" t="n">
         <v>367.1</v>
@@ -4272,7 +4272,7 @@
         <v>376.67</v>
       </c>
       <c r="C107" t="n">
-        <v>369.72</v>
+        <v>369.34</v>
       </c>
       <c r="D107" t="n">
         <v>369.63</v>
@@ -4308,7 +4308,7 @@
         <v>376.67</v>
       </c>
       <c r="C108" t="n">
-        <v>369.72</v>
+        <v>369.34</v>
       </c>
       <c r="D108" t="n">
         <v>369.63</v>
@@ -4344,7 +4344,7 @@
         <v>374.23</v>
       </c>
       <c r="C109" t="n">
-        <v>368.98</v>
+        <v>368.63</v>
       </c>
       <c r="D109" t="n">
         <v>366.94</v>
@@ -4380,7 +4380,7 @@
         <v>364.65</v>
       </c>
       <c r="C110" t="n">
-        <v>363.36</v>
+        <v>363.42</v>
       </c>
       <c r="D110" t="n">
         <v>364.57</v>
@@ -4416,7 +4416,7 @@
         <v>367.73</v>
       </c>
       <c r="C111" t="n">
-        <v>373.54</v>
+        <v>373.6</v>
       </c>
       <c r="D111" t="n">
         <v>370.06</v>
@@ -4452,7 +4452,7 @@
         <v>368.14</v>
       </c>
       <c r="C112" t="n">
-        <v>373.99</v>
+        <v>374.65</v>
       </c>
       <c r="D112" t="n">
         <v>368.63</v>
@@ -4488,7 +4488,7 @@
         <v>369.56</v>
       </c>
       <c r="C113" t="n">
-        <v>375.38</v>
+        <v>376.07</v>
       </c>
       <c r="D113" t="n">
         <v>374.96</v>
@@ -4524,7 +4524,7 @@
         <v>365.14</v>
       </c>
       <c r="C114" t="n">
-        <v>371.55</v>
+        <v>372.01</v>
       </c>
       <c r="D114" t="n">
         <v>371.89</v>
@@ -4560,7 +4560,7 @@
         <v>370.35</v>
       </c>
       <c r="C115" t="n">
-        <v>375.73</v>
+        <v>375.74</v>
       </c>
       <c r="D115" t="n">
         <v>376.64</v>
@@ -4596,7 +4596,7 @@
         <v>369.16</v>
       </c>
       <c r="C116" t="n">
-        <v>373.88</v>
+        <v>374.09</v>
       </c>
       <c r="D116" t="n">
         <v>374.68</v>
@@ -4632,7 +4632,7 @@
         <v>367.69</v>
       </c>
       <c r="C117" t="n">
-        <v>372.1</v>
+        <v>372.51</v>
       </c>
       <c r="D117" t="n">
         <v>373.39</v>
@@ -4668,7 +4668,7 @@
         <v>367.86</v>
       </c>
       <c r="C118" t="n">
-        <v>371.7</v>
+        <v>372.11</v>
       </c>
       <c r="D118" t="n">
         <v>374.52</v>
@@ -4704,7 +4704,7 @@
         <v>371.17</v>
       </c>
       <c r="C119" t="n">
-        <v>373.51</v>
+        <v>373.97</v>
       </c>
       <c r="D119" t="n">
         <v>372.75</v>
@@ -4740,7 +4740,7 @@
         <v>376.76</v>
       </c>
       <c r="C120" t="n">
-        <v>379.68</v>
+        <v>379.82</v>
       </c>
       <c r="D120" t="n">
         <v>380.01</v>
@@ -4776,7 +4776,7 @@
         <v>373.61</v>
       </c>
       <c r="C121" t="n">
-        <v>377.21</v>
+        <v>376.87</v>
       </c>
       <c r="D121" t="n">
         <v>378.59</v>
@@ -4812,7 +4812,7 @@
         <v>366.86</v>
       </c>
       <c r="C122" t="n">
-        <v>370.33</v>
+        <v>370.05</v>
       </c>
       <c r="D122" t="n">
         <v>374.54</v>
@@ -4848,7 +4848,7 @@
         <v>368.52</v>
       </c>
       <c r="C123" t="n">
-        <v>372.64</v>
+        <v>372.79</v>
       </c>
       <c r="D123" t="n">
         <v>376.16</v>
@@ -4884,7 +4884,7 @@
         <v>370.37</v>
       </c>
       <c r="C124" t="n">
-        <v>375.18</v>
+        <v>375.21</v>
       </c>
       <c r="D124" t="n">
         <v>377.48</v>
@@ -4920,7 +4920,7 @@
         <v>370.46</v>
       </c>
       <c r="C125" t="n">
-        <v>375.02</v>
+        <v>375.14</v>
       </c>
       <c r="D125" t="n">
         <v>376.01</v>
@@ -4956,7 +4956,7 @@
         <v>371.14</v>
       </c>
       <c r="C126" t="n">
-        <v>377.52</v>
+        <v>377.6</v>
       </c>
       <c r="D126" t="n">
         <v>376.77</v>
@@ -4992,7 +4992,7 @@
         <v>370.08</v>
       </c>
       <c r="C127" t="n">
-        <v>376.54</v>
+        <v>376.63</v>
       </c>
       <c r="D127" t="n">
         <v>376.32</v>
@@ -5028,7 +5028,7 @@
         <v>371.33</v>
       </c>
       <c r="C128" t="n">
-        <v>377.05</v>
+        <v>377.24</v>
       </c>
       <c r="D128" t="n">
         <v>376.24</v>
@@ -5064,7 +5064,7 @@
         <v>373.62</v>
       </c>
       <c r="C129" t="n">
-        <v>379.49</v>
+        <v>379.68</v>
       </c>
       <c r="D129" t="n">
         <v>371</v>
@@ -5100,7 +5100,7 @@
         <v>376.24</v>
       </c>
       <c r="C130" t="n">
-        <v>380.62</v>
+        <v>381.12</v>
       </c>
       <c r="D130" t="n">
         <v>371.98</v>
@@ -5136,7 +5136,7 @@
         <v>377.65</v>
       </c>
       <c r="C131" t="n">
-        <v>382.32</v>
+        <v>382.8</v>
       </c>
       <c r="D131" t="n">
         <v>374.04</v>
@@ -5172,7 +5172,7 @@
         <v>375.84</v>
       </c>
       <c r="C132" t="n">
-        <v>379.71</v>
+        <v>380.15</v>
       </c>
       <c r="D132" t="n">
         <v>374.04</v>
@@ -5208,7 +5208,7 @@
         <v>377.43</v>
       </c>
       <c r="C133" t="n">
-        <v>379.94</v>
+        <v>380.02</v>
       </c>
       <c r="D133" t="n">
         <v>375.21</v>
@@ -5244,7 +5244,7 @@
         <v>380.51</v>
       </c>
       <c r="C134" t="n">
-        <v>383.03</v>
+        <v>382.93</v>
       </c>
       <c r="D134" t="n">
         <v>378.79</v>
@@ -5280,7 +5280,7 @@
         <v>379.66</v>
       </c>
       <c r="C135" t="n">
-        <v>380.34</v>
+        <v>380.39</v>
       </c>
       <c r="D135" t="n">
         <v>378.44</v>
@@ -5316,7 +5316,7 @@
         <v>379.36</v>
       </c>
       <c r="C136" t="n">
-        <v>381.26</v>
+        <v>381.18</v>
       </c>
       <c r="D136" t="n">
         <v>378.17</v>
@@ -5352,7 +5352,7 @@
         <v>380.88</v>
       </c>
       <c r="C137" t="n">
-        <v>381.26</v>
+        <v>381.18</v>
       </c>
       <c r="D137" t="n">
         <v>378.17</v>
@@ -5388,7 +5388,7 @@
         <v>384.16</v>
       </c>
       <c r="C138" t="n">
-        <v>384.36</v>
+        <v>384.2</v>
       </c>
       <c r="D138" t="n">
         <v>380.96</v>
@@ -5424,7 +5424,7 @@
         <v>385.33</v>
       </c>
       <c r="C139" t="n">
-        <v>385.58</v>
+        <v>385.34</v>
       </c>
       <c r="D139" t="n">
         <v>382.04</v>
@@ -5460,7 +5460,7 @@
         <v>384.12</v>
       </c>
       <c r="C140" t="n">
-        <v>384.76</v>
+        <v>384.32</v>
       </c>
       <c r="D140" t="n">
         <v>383.02</v>
@@ -5496,7 +5496,7 @@
         <v>381.66</v>
       </c>
       <c r="C141" t="n">
-        <v>383.08</v>
+        <v>382.47</v>
       </c>
       <c r="D141" t="n">
         <v>386.93</v>
@@ -5532,7 +5532,7 @@
         <v>381.66</v>
       </c>
       <c r="C142" t="n">
-        <v>385.46</v>
+        <v>384.75</v>
       </c>
       <c r="D142" t="n">
         <v>386.93</v>
@@ -5568,7 +5568,7 @@
         <v>380.59</v>
       </c>
       <c r="C143" t="n">
-        <v>385.77</v>
+        <v>385.17</v>
       </c>
       <c r="D143" t="n">
         <v>387.33</v>
@@ -5604,7 +5604,7 @@
         <v>366.24</v>
       </c>
       <c r="C144" t="n">
-        <v>376.77</v>
+        <v>376.02</v>
       </c>
       <c r="D144" t="n">
         <v>373.7</v>
@@ -5640,7 +5640,7 @@
         <v>369.15</v>
       </c>
       <c r="C145" t="n">
-        <v>375.31</v>
+        <v>374.46</v>
       </c>
       <c r="D145" t="n">
         <v>373.83</v>
@@ -5676,7 +5676,7 @@
         <v>375.19</v>
       </c>
       <c r="C146" t="n">
-        <v>373.76</v>
+        <v>372.34</v>
       </c>
       <c r="D146" t="n">
         <v>373.55</v>
@@ -5712,7 +5712,7 @@
         <v>373.56</v>
       </c>
       <c r="C147" t="n">
-        <v>373.18</v>
+        <v>372.29</v>
       </c>
       <c r="D147" t="n">
         <v>375.58</v>
@@ -5748,7 +5748,7 @@
         <v>378.63</v>
       </c>
       <c r="C148" t="n">
-        <v>379.06</v>
+        <v>378.85</v>
       </c>
       <c r="D148" t="n">
         <v>381.41</v>
@@ -5784,7 +5784,7 @@
         <v>379.19</v>
       </c>
       <c r="C149" t="n">
-        <v>379.77</v>
+        <v>380.3</v>
       </c>
       <c r="D149" t="n">
         <v>383.64</v>
@@ -5820,7 +5820,7 @@
         <v>387.66</v>
       </c>
       <c r="C150" t="n">
-        <v>383.93</v>
+        <v>384.39</v>
       </c>
       <c r="D150" t="n">
         <v>384.61</v>
@@ -5856,7 +5856,7 @@
         <v>388.45</v>
       </c>
       <c r="C151" t="n">
-        <v>384.55</v>
+        <v>384.41</v>
       </c>
       <c r="D151" t="n">
         <v>387.37</v>
@@ -5892,7 +5892,7 @@
         <v>388.45</v>
       </c>
       <c r="C152" t="n">
-        <v>384.55</v>
+        <v>384.41</v>
       </c>
       <c r="D152" t="n">
         <v>387.37</v>
@@ -5928,7 +5928,7 @@
         <v>389.65</v>
       </c>
       <c r="C153" t="n">
-        <v>386.74</v>
+        <v>386.59</v>
       </c>
       <c r="D153" t="n">
         <v>389.53</v>
@@ -6000,7 +6000,7 @@
         <v>385.28</v>
       </c>
       <c r="C155" t="n">
-        <v>383.93</v>
+        <v>383.79</v>
       </c>
       <c r="D155" t="n">
         <v>385.5</v>
@@ -6036,7 +6036,7 @@
         <v>386.11</v>
       </c>
       <c r="C156" t="n">
-        <v>385.38</v>
+        <v>385.1</v>
       </c>
       <c r="D156" t="n">
         <v>386.74</v>
@@ -6072,7 +6072,7 @@
         <v>384.55</v>
       </c>
       <c r="C157" t="n">
-        <v>386.05</v>
+        <v>385.86</v>
       </c>
       <c r="D157" t="n">
         <v>386.5</v>
@@ -6108,7 +6108,7 @@
         <v>384.77</v>
       </c>
       <c r="C158" t="n">
-        <v>385.76</v>
+        <v>385.16</v>
       </c>
       <c r="D158" t="n">
         <v>386.21</v>
@@ -6144,7 +6144,7 @@
         <v>384.13</v>
       </c>
       <c r="C159" t="n">
-        <v>384.94</v>
+        <v>384.25</v>
       </c>
       <c r="D159" t="n">
         <v>385.15</v>
@@ -6180,7 +6180,7 @@
         <v>382.73</v>
       </c>
       <c r="C160" t="n">
-        <v>383.92</v>
+        <v>383.39</v>
       </c>
       <c r="D160" t="n">
         <v>385.14</v>
@@ -6216,7 +6216,7 @@
         <v>381.51</v>
       </c>
       <c r="C161" t="n">
-        <v>381.5</v>
+        <v>380.91</v>
       </c>
       <c r="D161" t="n">
         <v>384.58</v>
@@ -6252,7 +6252,7 @@
         <v>380.86</v>
       </c>
       <c r="C162" t="n">
-        <v>381.13</v>
+        <v>380.55</v>
       </c>
       <c r="D162" t="n">
         <v>384.4</v>
@@ -6288,7 +6288,7 @@
         <v>379.34</v>
       </c>
       <c r="C163" t="n">
-        <v>381.61</v>
+        <v>380.98</v>
       </c>
       <c r="D163" t="n">
         <v>384.86</v>
@@ -6324,7 +6324,7 @@
         <v>380.13</v>
       </c>
       <c r="C164" t="n">
-        <v>382.11</v>
+        <v>381.4</v>
       </c>
       <c r="D164" t="n">
         <v>385.47</v>
@@ -6360,7 +6360,7 @@
         <v>377.44</v>
       </c>
       <c r="C165" t="n">
-        <v>380.71</v>
+        <v>380.08</v>
       </c>
       <c r="D165" t="n">
         <v>384.11</v>
@@ -6396,7 +6396,7 @@
         <v>376.06</v>
       </c>
       <c r="C166" t="n">
-        <v>380.3</v>
+        <v>379.6</v>
       </c>
       <c r="D166" t="n">
         <v>383.66</v>
@@ -6432,7 +6432,7 @@
         <v>376.19</v>
       </c>
       <c r="C167" t="n">
-        <v>380.76</v>
+        <v>379.97</v>
       </c>
       <c r="D167" t="n">
         <v>385.1</v>
@@ -6468,7 +6468,7 @@
         <v>374.84</v>
       </c>
       <c r="C168" t="n">
-        <v>380.86</v>
+        <v>380.3</v>
       </c>
       <c r="D168" t="n">
         <v>384.77</v>
@@ -6504,7 +6504,7 @@
         <v>375.39</v>
       </c>
       <c r="C169" t="n">
-        <v>381.42</v>
+        <v>380.99</v>
       </c>
       <c r="D169" t="n">
         <v>384.65</v>
@@ -6540,7 +6540,7 @@
         <v>375.39</v>
       </c>
       <c r="C170" t="n">
-        <v>382.25</v>
+        <v>382.05</v>
       </c>
       <c r="D170" t="n">
         <v>385.58</v>
@@ -6576,7 +6576,7 @@
         <v>376.01</v>
       </c>
       <c r="C171" t="n">
-        <v>381.8</v>
+        <v>381.7</v>
       </c>
       <c r="D171" t="n">
         <v>385.36</v>
@@ -6612,7 +6612,7 @@
         <v>377.86</v>
       </c>
       <c r="C172" t="n">
-        <v>383.88</v>
+        <v>383.74</v>
       </c>
       <c r="D172" t="n">
         <v>385.4</v>
@@ -6648,7 +6648,7 @@
         <v>378.28</v>
       </c>
       <c r="C173" t="n">
-        <v>384.62</v>
+        <v>384.43</v>
       </c>
       <c r="D173" t="n">
         <v>385.87</v>
@@ -6684,7 +6684,7 @@
         <v>377.48</v>
       </c>
       <c r="C174" t="n">
-        <v>383.97</v>
+        <v>383.82</v>
       </c>
       <c r="D174" t="n">
         <v>385.19</v>
@@ -6720,7 +6720,7 @@
         <v>375.65</v>
       </c>
       <c r="C175" t="n">
-        <v>380.8</v>
+        <v>380.83</v>
       </c>
       <c r="D175" t="n">
         <v>381.87</v>
@@ -6756,7 +6756,7 @@
         <v>375.64</v>
       </c>
       <c r="C176" t="n">
-        <v>379.05</v>
+        <v>378.96</v>
       </c>
       <c r="D176" t="n">
         <v>380.93</v>
@@ -6792,7 +6792,7 @@
         <v>374.47</v>
       </c>
       <c r="C177" t="n">
-        <v>378.29</v>
+        <v>378.33</v>
       </c>
       <c r="D177" t="n">
         <v>379.95</v>
@@ -6828,7 +6828,7 @@
         <v>374.47</v>
       </c>
       <c r="C178" t="n">
-        <v>377.27</v>
+        <v>377.18</v>
       </c>
       <c r="D178" t="n">
         <v>380</v>
@@ -6864,7 +6864,7 @@
         <v>373.66</v>
       </c>
       <c r="C179" t="n">
-        <v>376.96</v>
+        <v>376.78</v>
       </c>
       <c r="D179" t="n">
         <v>379.98</v>
@@ -6900,7 +6900,7 @@
         <v>373.66</v>
       </c>
       <c r="C180" t="n">
-        <v>376.96</v>
+        <v>376.78</v>
       </c>
       <c r="D180" t="n">
         <v>379.89</v>
@@ -6936,7 +6936,7 @@
         <v>370.88</v>
       </c>
       <c r="C181" t="n">
-        <v>374.03</v>
+        <v>373.81</v>
       </c>
       <c r="D181" t="n">
         <v>377.37</v>
@@ -6972,7 +6972,7 @@
         <v>370.17</v>
       </c>
       <c r="C182" t="n">
-        <v>372.13</v>
+        <v>371.9</v>
       </c>
       <c r="D182" t="n">
         <v>376.11</v>
@@ -7008,7 +7008,7 @@
         <v>368.23</v>
       </c>
       <c r="C183" t="n">
-        <v>368.76</v>
+        <v>368.63</v>
       </c>
       <c r="D183" t="n">
         <v>372.9</v>
@@ -7044,7 +7044,7 @@
         <v>366.86</v>
       </c>
       <c r="C184" t="n">
-        <v>361.98</v>
+        <v>361.68</v>
       </c>
       <c r="D184" t="n">
         <v>367.96</v>
@@ -7080,7 +7080,7 @@
         <v>365.91</v>
       </c>
       <c r="C185" t="n">
-        <v>361.36</v>
+        <v>361</v>
       </c>
       <c r="D185" t="n">
         <v>367.58</v>
@@ -7116,7 +7116,7 @@
         <v>365.61</v>
       </c>
       <c r="C186" t="n">
-        <v>361.78</v>
+        <v>361.47</v>
       </c>
       <c r="D186" t="n">
         <v>367.76</v>
@@ -7152,7 +7152,7 @@
         <v>365.61</v>
       </c>
       <c r="C187" t="n">
-        <v>362.31</v>
+        <v>362.07</v>
       </c>
       <c r="D187" t="n">
         <v>367.67</v>
@@ -7188,7 +7188,7 @@
         <v>365.2</v>
       </c>
       <c r="C188" t="n">
-        <v>361.91</v>
+        <v>361.59</v>
       </c>
       <c r="D188" t="n">
         <v>367.88</v>
@@ -7224,7 +7224,7 @@
         <v>365.93</v>
       </c>
       <c r="C189" t="n">
-        <v>363.39</v>
+        <v>362.98</v>
       </c>
       <c r="D189" t="n">
         <v>368.6</v>
@@ -7260,7 +7260,7 @@
         <v>366.11</v>
       </c>
       <c r="C190" t="n">
-        <v>364.14</v>
+        <v>363.82</v>
       </c>
       <c r="D190" t="n">
         <v>369.29</v>
@@ -7296,7 +7296,7 @@
         <v>364.81</v>
       </c>
       <c r="C191" t="n">
-        <v>363.18</v>
+        <v>362.64</v>
       </c>
       <c r="D191" t="n">
         <v>368.6</v>
@@ -7332,7 +7332,7 @@
         <v>361.78</v>
       </c>
       <c r="C192" t="n">
-        <v>361.24</v>
+        <v>360.82</v>
       </c>
       <c r="D192" t="n">
         <v>366.51</v>
@@ -7368,7 +7368,7 @@
         <v>361.13</v>
       </c>
       <c r="C193" t="n">
-        <v>360.33</v>
+        <v>359.86</v>
       </c>
       <c r="D193" t="n">
         <v>365.96</v>
@@ -7404,7 +7404,7 @@
         <v>360.82</v>
       </c>
       <c r="C194" t="n">
-        <v>361.04</v>
+        <v>360.49</v>
       </c>
       <c r="D194" t="n">
         <v>366.89</v>
@@ -7440,7 +7440,7 @@
         <v>360.05</v>
       </c>
       <c r="C195" t="n">
-        <v>361.68</v>
+        <v>361.38</v>
       </c>
       <c r="D195" t="n">
         <v>365.66</v>
@@ -7476,7 +7476,7 @@
         <v>360.22</v>
       </c>
       <c r="C196" t="n">
-        <v>362.31</v>
+        <v>361.95</v>
       </c>
       <c r="D196" t="n">
         <v>366.46</v>
@@ -7512,7 +7512,7 @@
         <v>360.68</v>
       </c>
       <c r="C197" t="n">
-        <v>362.57</v>
+        <v>362.39</v>
       </c>
       <c r="D197" t="n">
         <v>365.93</v>
@@ -7548,7 +7548,7 @@
         <v>361</v>
       </c>
       <c r="C198" t="n">
-        <v>363.1</v>
+        <v>362.99</v>
       </c>
       <c r="D198" t="n">
         <v>365.34</v>
@@ -7584,7 +7584,7 @@
         <v>365.44</v>
       </c>
       <c r="C199" t="n">
-        <v>374.46</v>
+        <v>374.81</v>
       </c>
       <c r="D199" t="n">
         <v>374.03</v>
@@ -7620,7 +7620,7 @@
         <v>364.49</v>
       </c>
       <c r="C200" t="n">
-        <v>373.14</v>
+        <v>373.67</v>
       </c>
       <c r="D200" t="n">
         <v>370.92</v>
@@ -7656,7 +7656,7 @@
         <v>364.64</v>
       </c>
       <c r="C201" t="n">
-        <v>373.06</v>
+        <v>373.65</v>
       </c>
       <c r="D201" t="n">
         <v>369.99</v>
@@ -7692,7 +7692,7 @@
         <v>365.73</v>
       </c>
       <c r="C202" t="n">
-        <v>372.97</v>
+        <v>373.48</v>
       </c>
       <c r="D202" t="n">
         <v>371.17</v>
@@ -7728,7 +7728,7 @@
         <v>366.48</v>
       </c>
       <c r="C203" t="n">
-        <v>374.43</v>
+        <v>375.06</v>
       </c>
       <c r="D203" t="n">
         <v>371.6</v>
@@ -7764,7 +7764,7 @@
         <v>369.33</v>
       </c>
       <c r="C204" t="n">
-        <v>374.21</v>
+        <v>374.72</v>
       </c>
       <c r="D204" t="n">
         <v>371.98</v>
@@ -7800,7 +7800,7 @@
         <v>370.32</v>
       </c>
       <c r="C205" t="n">
-        <v>374.66</v>
+        <v>375.02</v>
       </c>
       <c r="D205" t="n">
         <v>372.22</v>
@@ -7836,7 +7836,7 @@
         <v>366.52</v>
       </c>
       <c r="C206" t="n">
-        <v>374.66</v>
+        <v>375.02</v>
       </c>
       <c r="D206" t="n">
         <v>369.18</v>
@@ -7872,7 +7872,7 @@
         <v>366.73</v>
       </c>
       <c r="C207" t="n">
-        <v>375</v>
+        <v>375.28</v>
       </c>
       <c r="D207" t="n">
         <v>369.74</v>
@@ -7908,7 +7908,7 @@
         <v>365.93</v>
       </c>
       <c r="C208" t="n">
-        <v>372.44</v>
+        <v>372.51</v>
       </c>
       <c r="D208" t="n">
         <v>367.45</v>
@@ -7944,7 +7944,7 @@
         <v>367.24</v>
       </c>
       <c r="C209" t="n">
-        <v>372.53</v>
+        <v>372.83</v>
       </c>
       <c r="D209" t="n">
         <v>367.71</v>
@@ -7980,7 +7980,7 @@
         <v>366.83</v>
       </c>
       <c r="C210" t="n">
-        <v>372.04</v>
+        <v>372.19</v>
       </c>
       <c r="D210" t="n">
         <v>366.9</v>
@@ -8016,7 +8016,7 @@
         <v>366.83</v>
       </c>
       <c r="C211" t="n">
-        <v>372.27</v>
+        <v>372.56</v>
       </c>
       <c r="D211" t="n">
         <v>366.93</v>
@@ -8052,7 +8052,7 @@
         <v>366.83</v>
       </c>
       <c r="C212" t="n">
-        <v>371.73</v>
+        <v>372.11</v>
       </c>
       <c r="D212" t="n">
         <v>366.42</v>
@@ -8088,7 +8088,7 @@
         <v>367.8</v>
       </c>
       <c r="C213" t="n">
-        <v>371.93</v>
+        <v>372.27</v>
       </c>
       <c r="D213" t="n">
         <v>366.82</v>
@@ -8124,7 +8124,7 @@
         <v>368.45</v>
       </c>
       <c r="C214" t="n">
-        <v>371.87</v>
+        <v>372.07</v>
       </c>
       <c r="D214" t="n">
         <v>367.23</v>
@@ -8160,7 +8160,7 @@
         <v>368.45</v>
       </c>
       <c r="C215" t="n">
-        <v>371.55</v>
+        <v>371.67</v>
       </c>
       <c r="D215" t="n">
         <v>367.96</v>
@@ -8196,7 +8196,7 @@
         <v>370.32</v>
       </c>
       <c r="C216" t="n">
-        <v>372.38</v>
+        <v>372.53</v>
       </c>
       <c r="D216" t="n">
         <v>368.81</v>
@@ -8232,7 +8232,7 @@
         <v>371.44</v>
       </c>
       <c r="C217" t="n">
-        <v>373.16</v>
+        <v>373.27</v>
       </c>
       <c r="D217" t="n">
         <v>369.49</v>
@@ -8268,7 +8268,7 @@
         <v>370.53</v>
       </c>
       <c r="C218" t="n">
-        <v>372.02</v>
+        <v>372.14</v>
       </c>
       <c r="D218" t="n">
         <v>369.15</v>
@@ -8304,7 +8304,7 @@
         <v>370.53</v>
       </c>
       <c r="C219" t="n">
-        <v>371.97</v>
+        <v>372.13</v>
       </c>
       <c r="D219" t="n">
         <v>368.99</v>
@@ -8340,7 +8340,7 @@
         <v>369.95</v>
       </c>
       <c r="C220" t="n">
-        <v>371.67</v>
+        <v>371.83</v>
       </c>
       <c r="D220" t="n">
         <v>368.62</v>
@@ -8376,7 +8376,7 @@
         <v>370.56</v>
       </c>
       <c r="C221" t="n">
-        <v>372.38</v>
+        <v>372.53</v>
       </c>
       <c r="D221" t="n">
         <v>369.31</v>
@@ -8412,7 +8412,7 @@
         <v>370.55</v>
       </c>
       <c r="C222" t="n">
-        <v>372.8</v>
+        <v>372.94</v>
       </c>
       <c r="D222" t="n">
         <v>369.95</v>
@@ -8448,7 +8448,7 @@
         <v>370.55</v>
       </c>
       <c r="C223" t="n">
-        <v>372.8</v>
+        <v>372.94</v>
       </c>
       <c r="D223" t="n">
         <v>369.95</v>
@@ -8484,7 +8484,7 @@
         <v>370.43</v>
       </c>
       <c r="C224" t="n">
-        <v>372.72</v>
+        <v>372.83</v>
       </c>
       <c r="D224" t="n">
         <v>370.27</v>
@@ -8520,7 +8520,7 @@
         <v>369.83</v>
       </c>
       <c r="C225" t="n">
-        <v>372.42</v>
+        <v>372.65</v>
       </c>
       <c r="D225" t="n">
         <v>369.66</v>
@@ -8556,7 +8556,7 @@
         <v>372.88</v>
       </c>
       <c r="C226" t="n">
-        <v>373.05</v>
+        <v>373.26</v>
       </c>
       <c r="D226" t="n">
         <v>372.35</v>
@@ -8592,7 +8592,7 @@
         <v>373.46</v>
       </c>
       <c r="C227" t="n">
-        <v>373.26</v>
+        <v>373.19</v>
       </c>
       <c r="D227" t="n">
         <v>374.37</v>
@@ -8628,7 +8628,7 @@
         <v>372.06</v>
       </c>
       <c r="C228" t="n">
-        <v>373.72</v>
+        <v>373.88</v>
       </c>
       <c r="D228" t="n">
         <v>374.06</v>
@@ -8664,7 +8664,7 @@
         <v>372.94</v>
       </c>
       <c r="C229" t="n">
-        <v>375.46</v>
+        <v>375.54</v>
       </c>
       <c r="D229" t="n">
         <v>375.56</v>
@@ -8700,7 +8700,7 @@
         <v>374.75</v>
       </c>
       <c r="C230" t="n">
-        <v>377.25</v>
+        <v>377.33</v>
       </c>
       <c r="D230" t="n">
         <v>377.92</v>
@@ -8736,7 +8736,7 @@
         <v>375.1</v>
       </c>
       <c r="C231" t="n">
-        <v>377.58</v>
+        <v>377.76</v>
       </c>
       <c r="D231" t="n">
         <v>378.01</v>
@@ -8772,7 +8772,7 @@
         <v>376.55</v>
       </c>
       <c r="C232" t="n">
-        <v>379.19</v>
+        <v>379.14</v>
       </c>
       <c r="D232" t="n">
         <v>379.94</v>
@@ -8808,7 +8808,7 @@
         <v>374.46</v>
       </c>
       <c r="C233" t="n">
-        <v>377.84</v>
+        <v>377.72</v>
       </c>
       <c r="D233" t="n">
         <v>378.75</v>
@@ -8844,7 +8844,7 @@
         <v>376.28</v>
       </c>
       <c r="C234" t="n">
-        <v>380.26</v>
+        <v>380.15</v>
       </c>
       <c r="D234" t="n">
         <v>380.71</v>
@@ -8880,7 +8880,7 @@
         <v>376.66</v>
       </c>
       <c r="C235" t="n">
-        <v>381.17</v>
+        <v>381.04</v>
       </c>
       <c r="D235" t="n">
         <v>381.26</v>
@@ -8916,7 +8916,7 @@
         <v>376.14</v>
       </c>
       <c r="C236" t="n">
-        <v>380.94</v>
+        <v>380.79</v>
       </c>
       <c r="D236" t="n">
         <v>381.52</v>
@@ -8952,7 +8952,7 @@
         <v>376.07</v>
       </c>
       <c r="C237" t="n">
-        <v>380.54</v>
+        <v>380.49</v>
       </c>
       <c r="D237" t="n">
         <v>381.5</v>
@@ -8988,7 +8988,7 @@
         <v>377.39</v>
       </c>
       <c r="C238" t="n">
-        <v>381.99</v>
+        <v>381.93</v>
       </c>
       <c r="D238" t="n">
         <v>381.99</v>
@@ -9024,7 +9024,7 @@
         <v>377.39</v>
       </c>
       <c r="C239" t="n">
-        <v>381.53</v>
+        <v>381.34</v>
       </c>
       <c r="D239" t="n">
         <v>381.29</v>
@@ -9060,7 +9060,7 @@
         <v>378.33</v>
       </c>
       <c r="C240" t="n">
-        <v>382.73</v>
+        <v>382.52</v>
       </c>
       <c r="D240" t="n">
         <v>382.51</v>
@@ -9096,7 +9096,7 @@
         <v>378.33</v>
       </c>
       <c r="C241" t="n">
-        <v>382.73</v>
+        <v>382.52</v>
       </c>
       <c r="D241" t="n">
         <v>382.51</v>
@@ -9132,7 +9132,7 @@
         <v>378.33</v>
       </c>
       <c r="C242" t="n">
-        <v>380.59</v>
+        <v>380.43</v>
       </c>
       <c r="D242" t="n">
         <v>380.81</v>
@@ -9168,7 +9168,7 @@
         <v>378.2</v>
       </c>
       <c r="C243" t="n">
-        <v>380.62</v>
+        <v>380.46</v>
       </c>
       <c r="D243" t="n">
         <v>380.73</v>
@@ -9204,7 +9204,7 @@
         <v>378.2</v>
       </c>
       <c r="C244" t="n">
-        <v>380.62</v>
+        <v>380.46</v>
       </c>
       <c r="D244" t="n">
         <v>381.07</v>
@@ -9240,7 +9240,7 @@
         <v>378.6</v>
       </c>
       <c r="C245" t="n">
-        <v>380.56</v>
+        <v>380.42</v>
       </c>
       <c r="D245" t="n">
         <v>381.03</v>
@@ -9276,7 +9276,7 @@
         <v>377.19</v>
       </c>
       <c r="C246" t="n">
-        <v>379.53</v>
+        <v>379.34</v>
       </c>
       <c r="D246" t="n">
         <v>380.73</v>
@@ -9312,7 +9312,7 @@
         <v>376.6</v>
       </c>
       <c r="C247" t="n">
-        <v>378.75</v>
+        <v>378.58</v>
       </c>
       <c r="D247" t="n">
         <v>380.24</v>
@@ -9348,7 +9348,7 @@
         <v>376.56</v>
       </c>
       <c r="C248" t="n">
-        <v>375.43</v>
+        <v>375.11</v>
       </c>
       <c r="D248" t="n">
         <v>377.27</v>
@@ -9384,7 +9384,7 @@
         <v>377.13</v>
       </c>
       <c r="C249" t="n">
-        <v>375.07</v>
+        <v>374.71</v>
       </c>
       <c r="D249" t="n">
         <v>377.24</v>
@@ -9420,7 +9420,7 @@
         <v>378.62</v>
       </c>
       <c r="C250" t="n">
-        <v>375.47</v>
+        <v>375.23</v>
       </c>
       <c r="D250" t="n">
         <v>379.04</v>
@@ -9456,7 +9456,7 @@
         <v>377.78</v>
       </c>
       <c r="C251" t="n">
-        <v>375.16</v>
+        <v>374.92</v>
       </c>
       <c r="D251" t="n">
         <v>378.77</v>
@@ -9492,7 +9492,7 @@
         <v>378.28</v>
       </c>
       <c r="C252" t="n">
-        <v>376.08</v>
+        <v>375.93</v>
       </c>
       <c r="D252" t="n">
         <v>379.32</v>
@@ -9528,7 +9528,7 @@
         <v>378.41</v>
       </c>
       <c r="C253" t="n">
-        <v>378.71</v>
+        <v>378.4</v>
       </c>
       <c r="D253" t="n">
         <v>381.56</v>
@@ -9564,7 +9564,7 @@
         <v>379.18</v>
       </c>
       <c r="C254" t="n">
-        <v>379.37</v>
+        <v>379.02</v>
       </c>
       <c r="D254" t="n">
         <v>382.02</v>
@@ -9600,7 +9600,7 @@
         <v>380.63</v>
       </c>
       <c r="C255" t="n">
-        <v>381.15</v>
+        <v>380.72</v>
       </c>
       <c r="D255" t="n">
         <v>383.02</v>
@@ -9636,7 +9636,7 @@
         <v>381.47</v>
       </c>
       <c r="C256" t="n">
-        <v>381.84</v>
+        <v>381.43</v>
       </c>
       <c r="D256" t="n">
         <v>382.75</v>
@@ -9672,7 +9672,7 @@
         <v>381.15</v>
       </c>
       <c r="C257" t="n">
-        <v>381.51</v>
+        <v>381.21</v>
       </c>
       <c r="D257" t="n">
         <v>382.46</v>
@@ -9708,7 +9708,7 @@
         <v>382.21</v>
       </c>
       <c r="C258" t="n">
-        <v>382.99</v>
+        <v>382.81</v>
       </c>
       <c r="D258" t="n">
         <v>384.84</v>
@@ -9744,7 +9744,7 @@
         <v>381.69</v>
       </c>
       <c r="C259" t="n">
-        <v>382.89</v>
+        <v>382.76</v>
       </c>
       <c r="D259" t="n">
         <v>384.49</v>
@@ -9780,7 +9780,7 @@
         <v>383.45</v>
       </c>
       <c r="C260" t="n">
-        <v>384</v>
+        <v>383.66</v>
       </c>
       <c r="D260" t="n">
         <v>385.72</v>
@@ -9816,7 +9816,7 @@
         <v>382.94</v>
       </c>
       <c r="C261" t="n">
-        <v>383.19</v>
+        <v>383.05</v>
       </c>
       <c r="D261" t="n">
         <v>384.8</v>
@@ -9852,7 +9852,7 @@
         <v>382.46</v>
       </c>
       <c r="C262" t="n">
-        <v>383.96</v>
+        <v>383.9</v>
       </c>
       <c r="D262" t="n">
         <v>385.12</v>
@@ -9888,7 +9888,7 @@
         <v>381.58</v>
       </c>
       <c r="C263" t="n">
-        <v>383.14</v>
+        <v>383.17</v>
       </c>
       <c r="D263" t="n">
         <v>384.41</v>
@@ -9924,7 +9924,7 @@
         <v>379.73</v>
       </c>
       <c r="C264" t="n">
-        <v>381.32</v>
+        <v>381.25</v>
       </c>
       <c r="D264" t="n">
         <v>382.9</v>
@@ -9960,7 +9960,7 @@
         <v>378.77</v>
       </c>
       <c r="C265" t="n">
-        <v>380.91</v>
+        <v>381.05</v>
       </c>
       <c r="D265" t="n">
         <v>381.84</v>
@@ -9996,7 +9996,7 @@
         <v>377.9</v>
       </c>
       <c r="C266" t="n">
-        <v>380.82</v>
+        <v>381.1</v>
       </c>
       <c r="D266" t="n">
         <v>381.73</v>
@@ -10032,7 +10032,7 @@
         <v>374.61</v>
       </c>
       <c r="C267" t="n">
-        <v>378.07</v>
+        <v>378.33</v>
       </c>
       <c r="D267" t="n">
         <v>379.97</v>
@@ -10068,7 +10068,7 @@
         <v>374.36</v>
       </c>
       <c r="C268" t="n">
-        <v>376.76</v>
+        <v>376.83</v>
       </c>
       <c r="D268" t="n">
         <v>379.49</v>
@@ -10104,7 +10104,7 @@
         <v>373.19</v>
       </c>
       <c r="C269" t="n">
-        <v>375.08</v>
+        <v>375.23</v>
       </c>
       <c r="D269" t="n">
         <v>376.26</v>
@@ -10140,7 +10140,7 @@
         <v>375.45</v>
       </c>
       <c r="C270" t="n">
-        <v>377.33</v>
+        <v>377.44</v>
       </c>
       <c r="D270" t="n">
         <v>377.07</v>
@@ -10176,7 +10176,7 @@
         <v>374.91</v>
       </c>
       <c r="C271" t="n">
-        <v>376.84</v>
+        <v>377.07</v>
       </c>
       <c r="D271" t="n">
         <v>375.14</v>
@@ -10212,7 +10212,7 @@
         <v>381.47</v>
       </c>
       <c r="C272" t="n">
-        <v>383.56</v>
+        <v>383.81</v>
       </c>
       <c r="D272" t="n">
         <v>378.42</v>
@@ -10248,7 +10248,7 @@
         <v>380.62</v>
       </c>
       <c r="C273" t="n">
-        <v>383.53</v>
+        <v>383.59</v>
       </c>
       <c r="D273" t="n">
         <v>379.36</v>
@@ -10284,7 +10284,7 @@
         <v>385.59</v>
       </c>
       <c r="C274" t="n">
-        <v>391.78</v>
+        <v>391.55</v>
       </c>
       <c r="D274" t="n">
         <v>389.16</v>
@@ -10320,7 +10320,7 @@
         <v>383.6</v>
       </c>
       <c r="C275" t="n">
-        <v>387.74</v>
+        <v>387.29</v>
       </c>
       <c r="D275" t="n">
         <v>386.07</v>
@@ -10356,7 +10356,7 @@
         <v>383.14</v>
       </c>
       <c r="C276" t="n">
-        <v>387.09</v>
+        <v>386.87</v>
       </c>
       <c r="D276" t="n">
         <v>384.82</v>
@@ -10392,7 +10392,7 @@
         <v>382.43</v>
       </c>
       <c r="C277" t="n">
-        <v>386.79</v>
+        <v>386.47</v>
       </c>
       <c r="D277" t="n">
         <v>384.8</v>
@@ -10428,7 +10428,7 @@
         <v>382.66</v>
       </c>
       <c r="C278" t="n">
-        <v>388.2</v>
+        <v>388.01</v>
       </c>
       <c r="D278" t="n">
         <v>385.79</v>
@@ -10464,7 +10464,7 @@
         <v>383.38</v>
       </c>
       <c r="C279" t="n">
-        <v>387.66</v>
+        <v>387.34</v>
       </c>
       <c r="D279" t="n">
         <v>385.53</v>
@@ -10500,7 +10500,7 @@
         <v>383.23</v>
       </c>
       <c r="C280" t="n">
-        <v>387.77</v>
+        <v>387.39</v>
       </c>
       <c r="D280" t="n">
         <v>385.59</v>
@@ -10536,7 +10536,7 @@
         <v>382.78</v>
       </c>
       <c r="C281" t="n">
-        <v>388.16</v>
+        <v>387.85</v>
       </c>
       <c r="D281" t="n">
         <v>385.66</v>
@@ -10572,7 +10572,7 @@
         <v>381.09</v>
       </c>
       <c r="C282" t="n">
-        <v>386.61</v>
+        <v>386.22</v>
       </c>
       <c r="D282" t="n">
         <v>384.23</v>
@@ -10608,7 +10608,7 @@
         <v>382.69</v>
       </c>
       <c r="C283" t="n">
-        <v>387.5</v>
+        <v>386.9</v>
       </c>
       <c r="D283" t="n">
         <v>386.38</v>
@@ -10644,7 +10644,7 @@
         <v>382.47</v>
       </c>
       <c r="C284" t="n">
-        <v>386.49</v>
+        <v>386.04</v>
       </c>
       <c r="D284" t="n">
         <v>385.92</v>
@@ -10680,7 +10680,7 @@
         <v>383.82</v>
       </c>
       <c r="C285" t="n">
-        <v>387.07</v>
+        <v>386.55</v>
       </c>
       <c r="D285" t="n">
         <v>386.42</v>
@@ -10716,7 +10716,7 @@
         <v>384.71</v>
       </c>
       <c r="C286" t="n">
-        <v>388.01</v>
+        <v>387.45</v>
       </c>
       <c r="D286" t="n">
         <v>387.78</v>
@@ -10752,7 +10752,7 @@
         <v>384.2</v>
       </c>
       <c r="C287" t="n">
-        <v>387.5</v>
+        <v>387.06</v>
       </c>
       <c r="D287" t="n">
         <v>387.4</v>
@@ -10788,7 +10788,7 @@
         <v>384.2</v>
       </c>
       <c r="C288" t="n">
-        <v>386.97</v>
+        <v>386.49</v>
       </c>
       <c r="D288" t="n">
         <v>386.63</v>
@@ -10824,7 +10824,7 @@
         <v>384.36</v>
       </c>
       <c r="C289" t="n">
-        <v>386.87</v>
+        <v>386.36</v>
       </c>
       <c r="D289" t="n">
         <v>386.32</v>
@@ -10860,7 +10860,7 @@
         <v>383.73</v>
       </c>
       <c r="C290" t="n">
-        <v>386.25</v>
+        <v>385.73</v>
       </c>
       <c r="D290" t="n">
         <v>386.06</v>
@@ -10896,7 +10896,7 @@
         <v>383.38</v>
       </c>
       <c r="C291" t="n">
-        <v>386.09</v>
+        <v>385.63</v>
       </c>
       <c r="D291" t="n">
         <v>385.92</v>
@@ -10932,7 +10932,7 @@
         <v>382.69</v>
       </c>
       <c r="C292" t="n">
-        <v>385.98</v>
+        <v>385.64</v>
       </c>
       <c r="D292" t="n">
         <v>385.76</v>
@@ -10968,7 +10968,7 @@
         <v>383.58</v>
       </c>
       <c r="C293" t="n">
-        <v>387.07</v>
+        <v>386.89</v>
       </c>
       <c r="D293" t="n">
         <v>386.8</v>
@@ -11004,7 +11004,7 @@
         <v>384.04</v>
       </c>
       <c r="C294" t="n">
-        <v>386.41</v>
+        <v>386.05</v>
       </c>
       <c r="D294" t="n">
         <v>387.01</v>
@@ -11040,7 +11040,7 @@
         <v>382.18</v>
       </c>
       <c r="C295" t="n">
-        <v>385</v>
+        <v>384.9</v>
       </c>
       <c r="D295" t="n">
         <v>385.27</v>
@@ -11076,7 +11076,7 @@
         <v>382.86</v>
       </c>
       <c r="C296" t="n">
-        <v>385.81</v>
+        <v>385.5</v>
       </c>
       <c r="D296" t="n">
         <v>385.9</v>
@@ -11112,7 +11112,7 @@
         <v>379.38</v>
       </c>
       <c r="C297" t="n">
-        <v>384.44</v>
+        <v>384.45</v>
       </c>
       <c r="D297" t="n">
         <v>383.25</v>
@@ -11148,7 +11148,7 @@
         <v>381.43</v>
       </c>
       <c r="C298" t="n">
-        <v>386.2</v>
+        <v>385.97</v>
       </c>
       <c r="D298" t="n">
         <v>385.3</v>
@@ -11184,7 +11184,7 @@
         <v>380.19</v>
       </c>
       <c r="C299" t="n">
-        <v>385.59</v>
+        <v>385.54</v>
       </c>
       <c r="D299" t="n">
         <v>384.89</v>
@@ -11220,7 +11220,7 @@
         <v>379.52</v>
       </c>
       <c r="C300" t="n">
-        <v>384.85</v>
+        <v>384.67</v>
       </c>
       <c r="D300" t="n">
         <v>384.25</v>
@@ -11256,7 +11256,7 @@
         <v>379.72</v>
       </c>
       <c r="C301" t="n">
-        <v>384.78</v>
+        <v>384.7</v>
       </c>
       <c r="D301" t="n">
         <v>384.39</v>
@@ -11292,7 +11292,7 @@
         <v>380.03</v>
       </c>
       <c r="C302" t="n">
-        <v>385.66</v>
+        <v>385.58</v>
       </c>
       <c r="D302" t="n">
         <v>384.71</v>
@@ -11328,7 +11328,7 @@
         <v>383.14</v>
       </c>
       <c r="C303" t="n">
-        <v>387.63</v>
+        <v>387.52</v>
       </c>
       <c r="D303" t="n">
         <v>385.69</v>
@@ -11364,7 +11364,7 @@
         <v>383.92</v>
       </c>
       <c r="C304" t="n">
-        <v>388.57</v>
+        <v>388.38</v>
       </c>
       <c r="D304" t="n">
         <v>386.15</v>
@@ -11400,7 +11400,7 @@
         <v>383.26</v>
       </c>
       <c r="C305" t="n">
-        <v>388.22</v>
+        <v>387.81</v>
       </c>
       <c r="D305" t="n">
         <v>385.25</v>
@@ -11436,7 +11436,7 @@
         <v>383.98</v>
       </c>
       <c r="C306" t="n">
-        <v>388.81</v>
+        <v>388.3</v>
       </c>
       <c r="D306" t="n">
         <v>387.21</v>
@@ -11472,7 +11472,7 @@
         <v>383.62</v>
       </c>
       <c r="C307" t="n">
-        <v>388.7</v>
+        <v>388.39</v>
       </c>
       <c r="D307" t="n">
         <v>387.29</v>
@@ -11508,7 +11508,7 @@
         <v>383.57</v>
       </c>
       <c r="C308" t="n">
-        <v>389.03</v>
+        <v>388.73</v>
       </c>
       <c r="D308" t="n">
         <v>386.82</v>
@@ -11544,7 +11544,7 @@
         <v>384.74</v>
       </c>
       <c r="C309" t="n">
-        <v>390.07</v>
+        <v>389.8</v>
       </c>
       <c r="D309" t="n">
         <v>387.66</v>
@@ -11580,7 +11580,7 @@
         <v>385.04</v>
       </c>
       <c r="C310" t="n">
-        <v>392.49</v>
+        <v>392.26</v>
       </c>
       <c r="D310" t="n">
         <v>390.07</v>
@@ -11616,7 +11616,7 @@
         <v>384.81</v>
       </c>
       <c r="C311" t="n">
-        <v>390.77</v>
+        <v>390.4</v>
       </c>
       <c r="D311" t="n">
         <v>390.13</v>
@@ -11652,7 +11652,7 @@
         <v>384.17</v>
       </c>
       <c r="C312" t="n">
-        <v>389.82</v>
+        <v>389.31</v>
       </c>
       <c r="D312" t="n">
         <v>389.56</v>
@@ -11688,7 +11688,7 @@
         <v>384.43</v>
       </c>
       <c r="C313" t="n">
-        <v>389.9</v>
+        <v>389.29</v>
       </c>
       <c r="D313" t="n">
         <v>390.68</v>
@@ -11724,7 +11724,7 @@
         <v>383.05</v>
       </c>
       <c r="C314" t="n">
-        <v>388.68</v>
+        <v>388.16</v>
       </c>
       <c r="D314" t="n">
         <v>389.59</v>
@@ -11760,7 +11760,7 @@
         <v>381.79</v>
       </c>
       <c r="C315" t="n">
-        <v>388</v>
+        <v>387.52</v>
       </c>
       <c r="D315" t="n">
         <v>388.79</v>
@@ -11796,7 +11796,7 @@
         <v>380.14</v>
       </c>
       <c r="C316" t="n">
-        <v>386.44</v>
+        <v>385.97</v>
       </c>
       <c r="D316" t="n">
         <v>387.66</v>
@@ -11832,7 +11832,7 @@
         <v>379.49</v>
       </c>
       <c r="C317" t="n">
-        <v>386.06</v>
+        <v>385.66</v>
       </c>
       <c r="D317" t="n">
         <v>387.27</v>
@@ -11868,7 +11868,7 @@
         <v>377.53</v>
       </c>
       <c r="C318" t="n">
-        <v>385</v>
+        <v>384.87</v>
       </c>
       <c r="D318" t="n">
         <v>385.23</v>
@@ -11904,7 +11904,7 @@
         <v>377.44</v>
       </c>
       <c r="C319" t="n">
-        <v>384.35</v>
+        <v>384.1</v>
       </c>
       <c r="D319" t="n">
         <v>384.49</v>
@@ -11940,7 +11940,7 @@
         <v>377.77</v>
       </c>
       <c r="C320" t="n">
-        <v>384.56</v>
+        <v>384.13</v>
       </c>
       <c r="D320" t="n">
         <v>384.52</v>
@@ -11976,7 +11976,7 @@
         <v>378.12</v>
       </c>
       <c r="C321" t="n">
-        <v>384.47</v>
+        <v>384.16</v>
       </c>
       <c r="D321" t="n">
         <v>384.48</v>
@@ -12012,7 +12012,7 @@
         <v>377.67</v>
       </c>
       <c r="C322" t="n">
-        <v>384.38</v>
+        <v>384.15</v>
       </c>
       <c r="D322" t="n">
         <v>384.24</v>
@@ -12048,7 +12048,7 @@
         <v>375.99</v>
       </c>
       <c r="C323" t="n">
-        <v>382.66</v>
+        <v>382.47</v>
       </c>
       <c r="D323" t="n">
         <v>383.46</v>
@@ -12084,7 +12084,7 @@
         <v>375.61</v>
       </c>
       <c r="C324" t="n">
-        <v>380.06</v>
+        <v>379.8</v>
       </c>
       <c r="D324" t="n">
         <v>380.44</v>
@@ -12120,7 +12120,7 @@
         <v>375.71</v>
       </c>
       <c r="C325" t="n">
-        <v>381.05</v>
+        <v>380.81</v>
       </c>
       <c r="D325" t="n">
         <v>380.66</v>
@@ -12156,7 +12156,7 @@
         <v>376.79</v>
       </c>
       <c r="C326" t="n">
-        <v>382.17</v>
+        <v>381.97</v>
       </c>
       <c r="D326" t="n">
         <v>382</v>
@@ -12192,7 +12192,7 @@
         <v>376.76</v>
       </c>
       <c r="C327" t="n">
-        <v>381.63</v>
+        <v>381.32</v>
       </c>
       <c r="D327" t="n">
         <v>381.68</v>
@@ -12228,7 +12228,7 @@
         <v>377.33</v>
       </c>
       <c r="C328" t="n">
-        <v>382.95</v>
+        <v>382.75</v>
       </c>
       <c r="D328" t="n">
         <v>382.09</v>
@@ -12264,7 +12264,7 @@
         <v>380.63</v>
       </c>
       <c r="C329" t="n">
-        <v>384.79</v>
+        <v>384.41</v>
       </c>
       <c r="D329" t="n">
         <v>383.82</v>
@@ -12300,7 +12300,7 @@
         <v>385.13</v>
       </c>
       <c r="C330" t="n">
-        <v>387.77</v>
+        <v>387.59</v>
       </c>
       <c r="D330" t="n">
         <v>386.65</v>
@@ -12336,7 +12336,7 @@
         <v>384.67</v>
       </c>
       <c r="C331" t="n">
-        <v>387.87</v>
+        <v>387.42</v>
       </c>
       <c r="D331" t="n">
         <v>386.61</v>
@@ -12372,7 +12372,7 @@
         <v>385.75</v>
       </c>
       <c r="C332" t="n">
-        <v>388.48</v>
+        <v>388.19</v>
       </c>
       <c r="D332" t="n">
         <v>386.9</v>
@@ -12408,7 +12408,7 @@
         <v>386.65</v>
       </c>
       <c r="C333" t="n">
-        <v>388.77</v>
+        <v>388.6</v>
       </c>
       <c r="D333" t="n">
         <v>387.04</v>
@@ -12444,7 +12444,7 @@
         <v>388.32</v>
       </c>
       <c r="C334" t="n">
-        <v>390.03</v>
+        <v>389.66</v>
       </c>
       <c r="D334" t="n">
         <v>388.25</v>
@@ -12480,7 +12480,7 @@
         <v>387.66</v>
       </c>
       <c r="C335" t="n">
-        <v>389.67</v>
+        <v>389.26</v>
       </c>
       <c r="D335" t="n">
         <v>387.85</v>
@@ -12516,7 +12516,7 @@
         <v>386.98</v>
       </c>
       <c r="C336" t="n">
-        <v>389.48</v>
+        <v>389.15</v>
       </c>
       <c r="D336" t="n">
         <v>387.71</v>
@@ -12552,7 +12552,7 @@
         <v>387.96</v>
       </c>
       <c r="C337" t="n">
-        <v>389.48</v>
+        <v>389.08</v>
       </c>
       <c r="D337" t="n">
         <v>387.86</v>
@@ -12588,7 +12588,7 @@
         <v>388.67</v>
       </c>
       <c r="C338" t="n">
-        <v>390.17</v>
+        <v>389.84</v>
       </c>
       <c r="D338" t="n">
         <v>388.33</v>
@@ -12624,7 +12624,7 @@
         <v>388.6</v>
       </c>
       <c r="C339" t="n">
-        <v>390.28</v>
+        <v>389.98</v>
       </c>
       <c r="D339" t="n">
         <v>388</v>
@@ -12660,7 +12660,7 @@
         <v>389.94</v>
       </c>
       <c r="C340" t="n">
-        <v>391.17</v>
+        <v>390.85</v>
       </c>
       <c r="D340" t="n">
         <v>388.87</v>
@@ -12696,7 +12696,7 @@
         <v>390.43</v>
       </c>
       <c r="C341" t="n">
-        <v>392.22</v>
+        <v>392</v>
       </c>
       <c r="D341" t="n">
         <v>389.29</v>
@@ -12732,7 +12732,7 @@
         <v>390.81</v>
       </c>
       <c r="C342" t="n">
-        <v>392.99</v>
+        <v>392.84</v>
       </c>
       <c r="D342" t="n">
         <v>389.76</v>
@@ -12768,7 +12768,7 @@
         <v>390.07</v>
       </c>
       <c r="C343" t="n">
-        <v>391.48</v>
+        <v>391.25</v>
       </c>
       <c r="D343" t="n">
         <v>389.95</v>
@@ -12840,7 +12840,7 @@
         <v>389.81</v>
       </c>
       <c r="C345" t="n">
-        <v>390.93</v>
+        <v>390.84</v>
       </c>
       <c r="D345" t="n">
         <v>389.06</v>
@@ -12876,7 +12876,7 @@
         <v>389.81</v>
       </c>
       <c r="C346" t="n">
-        <v>390.25</v>
+        <v>390.24</v>
       </c>
       <c r="D346" t="n">
         <v>388.19</v>
@@ -12912,7 +12912,7 @@
         <v>389.1</v>
       </c>
       <c r="C347" t="n">
-        <v>390.06</v>
+        <v>390.11</v>
       </c>
       <c r="D347" t="n">
         <v>387.94</v>
@@ -12948,7 +12948,7 @@
         <v>388.35</v>
       </c>
       <c r="C348" t="n">
-        <v>389.49</v>
+        <v>389.45</v>
       </c>
       <c r="D348" t="n">
         <v>387.73</v>
@@ -12984,7 +12984,7 @@
         <v>387.03</v>
       </c>
       <c r="C349" t="n">
-        <v>389.04</v>
+        <v>389.06</v>
       </c>
       <c r="D349" t="n">
         <v>387.01</v>
@@ -13020,7 +13020,7 @@
         <v>386.61</v>
       </c>
       <c r="C350" t="n">
-        <v>389.04</v>
+        <v>389.03</v>
       </c>
       <c r="D350" t="n">
         <v>386.86</v>
@@ -13092,7 +13092,7 @@
         <v>387.29</v>
       </c>
       <c r="C352" t="n">
-        <v>389.61</v>
+        <v>389.6</v>
       </c>
       <c r="D352" t="n">
         <v>386.97</v>
@@ -13128,7 +13128,7 @@
         <v>386.59</v>
       </c>
       <c r="C353" t="n">
-        <v>388.8</v>
+        <v>388.81</v>
       </c>
       <c r="D353" t="n">
         <v>386.52</v>
@@ -13164,7 +13164,7 @@
         <v>385.5</v>
       </c>
       <c r="C354" t="n">
-        <v>387.95</v>
+        <v>387.99</v>
       </c>
       <c r="D354" t="n">
         <v>384.18</v>
@@ -13200,7 +13200,7 @@
         <v>385.92</v>
       </c>
       <c r="C355" t="n">
-        <v>388.37</v>
+        <v>388.41</v>
       </c>
       <c r="D355" t="n">
         <v>384.25</v>
@@ -13236,7 +13236,7 @@
         <v>385.98</v>
       </c>
       <c r="C356" t="n">
-        <v>388.22</v>
+        <v>388.26</v>
       </c>
       <c r="D356" t="n">
         <v>384.14</v>
@@ -13272,7 +13272,7 @@
         <v>384.42</v>
       </c>
       <c r="C357" t="n">
-        <v>388.15</v>
+        <v>388.06</v>
       </c>
       <c r="D357" t="n">
         <v>381.52</v>
@@ -13308,7 +13308,7 @@
         <v>386.88</v>
       </c>
       <c r="C358" t="n">
-        <v>388.98</v>
+        <v>388.89</v>
       </c>
       <c r="D358" t="n">
         <v>382.54</v>
@@ -13344,7 +13344,7 @@
         <v>389.68</v>
       </c>
       <c r="C359" t="n">
-        <v>390.45</v>
+        <v>390.42</v>
       </c>
       <c r="D359" t="n">
         <v>384.76</v>
@@ -13380,7 +13380,7 @@
         <v>388.79</v>
       </c>
       <c r="C360" t="n">
-        <v>389.97</v>
+        <v>389.93</v>
       </c>
       <c r="D360" t="n">
         <v>384.92</v>
@@ -13416,7 +13416,7 @@
         <v>391.08</v>
       </c>
       <c r="C361" t="n">
-        <v>391.93</v>
+        <v>392.05</v>
       </c>
       <c r="D361" t="n">
         <v>386.54</v>
@@ -13452,7 +13452,7 @@
         <v>392.63</v>
       </c>
       <c r="C362" t="n">
-        <v>394.33</v>
+        <v>394.42</v>
       </c>
       <c r="D362" t="n">
         <v>387.3</v>
@@ -13488,7 +13488,7 @@
         <v>392.63</v>
       </c>
       <c r="C363" t="n">
-        <v>394.33</v>
+        <v>394.42</v>
       </c>
       <c r="D363" t="n">
         <v>387.3</v>
@@ -13524,7 +13524,7 @@
         <v>392.65</v>
       </c>
       <c r="C364" t="n">
-        <v>394.07</v>
+        <v>394.02</v>
       </c>
       <c r="D364" t="n">
         <v>391.82</v>
@@ -13560,7 +13560,7 @@
         <v>391.26</v>
       </c>
       <c r="C365" t="n">
-        <v>393.86</v>
+        <v>393.93</v>
       </c>
       <c r="D365" t="n">
         <v>391.21</v>
@@ -13596,7 +13596,7 @@
         <v>393.03</v>
       </c>
       <c r="C366" t="n">
-        <v>394.86</v>
+        <v>394.73</v>
       </c>
       <c r="D366" t="n">
         <v>393.68</v>
@@ -13632,7 +13632,7 @@
         <v>393.03</v>
       </c>
       <c r="C367" t="n">
-        <v>394.86</v>
+        <v>394.73</v>
       </c>
       <c r="D367" t="n">
         <v>392.54</v>
@@ -13668,7 +13668,7 @@
         <v>392.71</v>
       </c>
       <c r="C368" t="n">
-        <v>394.46</v>
+        <v>394.26</v>
       </c>
       <c r="D368" t="n">
         <v>392.19</v>
@@ -13704,7 +13704,7 @@
         <v>392.71</v>
       </c>
       <c r="C369" t="n">
-        <v>391.72</v>
+        <v>391.59</v>
       </c>
       <c r="D369" t="n">
         <v>390.64</v>
@@ -13740,7 +13740,7 @@
         <v>390.21</v>
       </c>
       <c r="C370" t="n">
-        <v>390.56</v>
+        <v>390.44</v>
       </c>
       <c r="D370" t="n">
         <v>389.63</v>
@@ -13776,7 +13776,7 @@
         <v>388.2</v>
       </c>
       <c r="C371" t="n">
-        <v>388.28</v>
+        <v>388.09</v>
       </c>
       <c r="D371" t="n">
         <v>388.44</v>
@@ -13812,7 +13812,7 @@
         <v>387.18</v>
       </c>
       <c r="C372" t="n">
-        <v>387.27</v>
+        <v>387.15</v>
       </c>
       <c r="D372" t="n">
         <v>387.45</v>
@@ -13848,7 +13848,7 @@
         <v>386.39</v>
       </c>
       <c r="C373" t="n">
-        <v>387.07</v>
+        <v>387.02</v>
       </c>
       <c r="D373" t="n">
         <v>387.26</v>
@@ -13884,7 +13884,7 @@
         <v>384.89</v>
       </c>
       <c r="C374" t="n">
-        <v>386.19</v>
+        <v>386.08</v>
       </c>
       <c r="D374" t="n">
         <v>386.51</v>
@@ -13920,7 +13920,7 @@
         <v>384.49</v>
       </c>
       <c r="C375" t="n">
-        <v>386.34</v>
+        <v>386.36</v>
       </c>
       <c r="D375" t="n">
         <v>386.71</v>
@@ -13956,7 +13956,7 @@
         <v>378.53</v>
       </c>
       <c r="C376" t="n">
-        <v>381.09</v>
+        <v>381.07</v>
       </c>
       <c r="D376" t="n">
         <v>383.17</v>
@@ -13992,7 +13992,7 @@
         <v>378.07</v>
       </c>
       <c r="C377" t="n">
-        <v>380.96</v>
+        <v>381.11</v>
       </c>
       <c r="D377" t="n">
         <v>381.98</v>
@@ -14028,7 +14028,7 @@
         <v>377.22</v>
       </c>
       <c r="C378" t="n">
-        <v>378.96</v>
+        <v>379.03</v>
       </c>
       <c r="D378" t="n">
         <v>379.94</v>
@@ -14064,7 +14064,7 @@
         <v>378.29</v>
       </c>
       <c r="C379" t="n">
-        <v>379.13</v>
+        <v>379.05</v>
       </c>
       <c r="D379" t="n">
         <v>380.25</v>
@@ -14100,7 +14100,7 @@
         <v>379.6</v>
       </c>
       <c r="C380" t="n">
-        <v>380.48</v>
+        <v>380.42</v>
       </c>
       <c r="D380" t="n">
         <v>381.64</v>
@@ -14136,7 +14136,7 @@
         <v>384.19</v>
       </c>
       <c r="C381" t="n">
-        <v>386.81</v>
+        <v>386.86</v>
       </c>
       <c r="D381" t="n">
         <v>385.7</v>
@@ -14172,7 +14172,7 @@
         <v>386.75</v>
       </c>
       <c r="C382" t="n">
-        <v>389.67</v>
+        <v>389.6</v>
       </c>
       <c r="D382" t="n">
         <v>388.79</v>
@@ -14208,7 +14208,7 @@
         <v>388.47</v>
       </c>
       <c r="C383" t="n">
-        <v>391.21</v>
+        <v>391.03</v>
       </c>
       <c r="D383" t="n">
         <v>390.3</v>
@@ -14244,7 +14244,7 @@
         <v>389.18</v>
       </c>
       <c r="C384" t="n">
-        <v>392.07</v>
+        <v>391.96</v>
       </c>
       <c r="D384" t="n">
         <v>390.34</v>
@@ -14280,7 +14280,7 @@
         <v>391.41</v>
       </c>
       <c r="C385" t="n">
-        <v>393.28</v>
+        <v>392.85</v>
       </c>
       <c r="D385" t="n">
         <v>391.31</v>
@@ -14316,7 +14316,7 @@
         <v>389.18</v>
       </c>
       <c r="C386" t="n">
-        <v>391.85</v>
+        <v>391.53</v>
       </c>
       <c r="D386" t="n">
         <v>390.46</v>
@@ -14352,7 +14352,7 @@
         <v>387.12</v>
       </c>
       <c r="C387" t="n">
-        <v>390.11</v>
+        <v>389.67</v>
       </c>
       <c r="D387" t="n">
         <v>389.06</v>
@@ -14388,7 +14388,7 @@
         <v>387.02</v>
       </c>
       <c r="C388" t="n">
-        <v>390.59</v>
+        <v>390.19</v>
       </c>
       <c r="D388" t="n">
         <v>389.36</v>
@@ -14424,7 +14424,7 @@
         <v>386.63</v>
       </c>
       <c r="C389" t="n">
-        <v>390.34</v>
+        <v>389.97</v>
       </c>
       <c r="D389" t="n">
         <v>388.96</v>
@@ -14460,7 +14460,7 @@
         <v>386.63</v>
       </c>
       <c r="C390" t="n">
-        <v>388.74</v>
+        <v>388.46</v>
       </c>
       <c r="D390" t="n">
         <v>387.41</v>
@@ -14496,7 +14496,7 @@
         <v>387.68</v>
       </c>
       <c r="C391" t="n">
-        <v>388.74</v>
+        <v>388.46</v>
       </c>
       <c r="D391" t="n">
         <v>387.41</v>
@@ -14532,7 +14532,7 @@
         <v>388.25</v>
       </c>
       <c r="C392" t="n">
-        <v>389.2</v>
+        <v>388.89</v>
       </c>
       <c r="D392" t="n">
         <v>388.3</v>
@@ -14568,7 +14568,7 @@
         <v>387.1</v>
       </c>
       <c r="C393" t="n">
-        <v>388.16</v>
+        <v>387.89</v>
       </c>
       <c r="D393" t="n">
         <v>387.7</v>
@@ -14604,7 +14604,7 @@
         <v>386.16</v>
       </c>
       <c r="C394" t="n">
-        <v>387.14</v>
+        <v>386.71</v>
       </c>
       <c r="D394" t="n">
         <v>387.17</v>
@@ -14640,7 +14640,7 @@
         <v>386.72</v>
       </c>
       <c r="C395" t="n">
-        <v>386.99</v>
+        <v>386.66</v>
       </c>
       <c r="D395" t="n">
         <v>387.09</v>
@@ -14676,7 +14676,7 @@
         <v>386.85</v>
       </c>
       <c r="C396" t="n">
-        <v>386.83</v>
+        <v>386.58</v>
       </c>
       <c r="D396" t="n">
         <v>387.19</v>
@@ -14712,7 +14712,7 @@
         <v>384.72</v>
       </c>
       <c r="C397" t="n">
-        <v>385.79</v>
+        <v>385.58</v>
       </c>
       <c r="D397" t="n">
         <v>386.62</v>
@@ -14748,7 +14748,7 @@
         <v>384.13</v>
       </c>
       <c r="C398" t="n">
-        <v>385.3</v>
+        <v>385.14</v>
       </c>
       <c r="D398" t="n">
         <v>386.47</v>
@@ -14784,7 +14784,7 @@
         <v>384.13</v>
       </c>
       <c r="C399" t="n">
-        <v>384.97</v>
+        <v>384.77</v>
       </c>
       <c r="D399" t="n">
         <v>386.37</v>
@@ -14820,7 +14820,7 @@
         <v>382.48</v>
       </c>
       <c r="C400" t="n">
-        <v>383.22</v>
+        <v>383</v>
       </c>
       <c r="D400" t="n">
         <v>385.38</v>
@@ -14856,7 +14856,7 @@
         <v>377.26</v>
       </c>
       <c r="C401" t="n">
-        <v>378.6</v>
+        <v>378.44</v>
       </c>
       <c r="D401" t="n">
         <v>380.96</v>
@@ -14892,7 +14892,7 @@
         <v>375.08</v>
       </c>
       <c r="C402" t="n">
-        <v>376.57</v>
+        <v>376.37</v>
       </c>
       <c r="D402" t="n">
         <v>379.99</v>
@@ -14928,7 +14928,7 @@
         <v>375.1</v>
       </c>
       <c r="C403" t="n">
-        <v>377.07</v>
+        <v>376.79</v>
       </c>
       <c r="D403" t="n">
         <v>380.6</v>
@@ -14964,7 +14964,7 @@
         <v>374.38</v>
       </c>
       <c r="C404" t="n">
-        <v>376.78</v>
+        <v>376.56</v>
       </c>
       <c r="D404" t="n">
         <v>380.47</v>
@@ -15000,7 +15000,7 @@
         <v>374.49</v>
       </c>
       <c r="C405" t="n">
-        <v>377.03</v>
+        <v>376.97</v>
       </c>
       <c r="D405" t="n">
         <v>380.43</v>
@@ -15036,7 +15036,7 @@
         <v>374.13</v>
       </c>
       <c r="C406" t="n">
-        <v>377.13</v>
+        <v>377.14</v>
       </c>
       <c r="D406" t="n">
         <v>380.28</v>
@@ -15072,7 +15072,7 @@
         <v>374.13</v>
       </c>
       <c r="C407" t="n">
-        <v>377.07</v>
+        <v>377.05</v>
       </c>
       <c r="D407" t="n">
         <v>380.46</v>
@@ -15108,7 +15108,7 @@
         <v>374.57</v>
       </c>
       <c r="C408" t="n">
-        <v>377.28</v>
+        <v>377.35</v>
       </c>
       <c r="D408" t="n">
         <v>380.1</v>
@@ -15144,7 +15144,7 @@
         <v>373.58</v>
       </c>
       <c r="C409" t="n">
-        <v>378.05</v>
+        <v>378.13</v>
       </c>
       <c r="D409" t="n">
         <v>379.38</v>
@@ -15180,7 +15180,7 @@
         <v>369.25</v>
       </c>
       <c r="C410" t="n">
-        <v>376.5</v>
+        <v>376.6</v>
       </c>
       <c r="D410" t="n">
         <v>378.1</v>
@@ -15216,7 +15216,7 @@
         <v>370.09</v>
       </c>
       <c r="C411" t="n">
-        <v>376.9</v>
+        <v>377.05</v>
       </c>
       <c r="D411" t="n">
         <v>378.41</v>
@@ -15252,7 +15252,7 @@
         <v>367.07</v>
       </c>
       <c r="C412" t="n">
-        <v>377.39</v>
+        <v>377.58</v>
       </c>
       <c r="D412" t="n">
         <v>377.87</v>
@@ -15288,7 +15288,7 @@
         <v>365.61</v>
       </c>
       <c r="C413" t="n">
-        <v>376.76</v>
+        <v>376.92</v>
       </c>
       <c r="D413" t="n">
         <v>376.52</v>
@@ -15324,7 +15324,7 @@
         <v>368.06</v>
       </c>
       <c r="C414" t="n">
-        <v>379.83</v>
+        <v>380.14</v>
       </c>
       <c r="D414" t="n">
         <v>378.02</v>
@@ -15360,7 +15360,7 @@
         <v>367.56</v>
       </c>
       <c r="C415" t="n">
-        <v>378.92</v>
+        <v>379.25</v>
       </c>
       <c r="D415" t="n">
         <v>377.38</v>
@@ -15396,7 +15396,7 @@
         <v>367.71</v>
       </c>
       <c r="C416" t="n">
-        <v>377.85</v>
+        <v>378.13</v>
       </c>
       <c r="D416" t="n">
         <v>377.11</v>
@@ -15432,7 +15432,7 @@
         <v>366.9</v>
       </c>
       <c r="C417" t="n">
-        <v>376.46</v>
+        <v>376.66</v>
       </c>
       <c r="D417" t="n">
         <v>376.64</v>
@@ -15468,7 +15468,7 @@
         <v>365.48</v>
       </c>
       <c r="C418" t="n">
-        <v>374.74</v>
+        <v>375.04</v>
       </c>
       <c r="D418" t="n">
         <v>374.67</v>
@@ -15504,7 +15504,7 @@
         <v>365.48</v>
       </c>
       <c r="C419" t="n">
-        <v>374.64</v>
+        <v>374.95</v>
       </c>
       <c r="D419" t="n">
         <v>374.38</v>
@@ -15540,7 +15540,7 @@
         <v>365.24</v>
       </c>
       <c r="C420" t="n">
-        <v>373.01</v>
+        <v>373.06</v>
       </c>
       <c r="D420" t="n">
         <v>372.82</v>
@@ -15576,7 +15576,7 @@
         <v>364.79</v>
       </c>
       <c r="C421" t="n">
-        <v>371.85</v>
+        <v>371.8</v>
       </c>
       <c r="D421" t="n">
         <v>372.57</v>
@@ -15612,7 +15612,7 @@
         <v>365.22</v>
       </c>
       <c r="C422" t="n">
-        <v>372</v>
+        <v>372.03</v>
       </c>
       <c r="D422" t="n">
         <v>372.74</v>
@@ -15684,7 +15684,7 @@
         <v>365.33</v>
       </c>
       <c r="C424" t="n">
-        <v>369.07</v>
+        <v>368.97</v>
       </c>
       <c r="D424" t="n">
         <v>372.38</v>
@@ -15720,7 +15720,7 @@
         <v>365.8</v>
       </c>
       <c r="C425" t="n">
-        <v>369.44</v>
+        <v>369.4</v>
       </c>
       <c r="D425" t="n">
         <v>372.55</v>
@@ -15756,7 +15756,7 @@
         <v>365.38</v>
       </c>
       <c r="C426" t="n">
-        <v>368.97</v>
+        <v>368.89</v>
       </c>
       <c r="D426" t="n">
         <v>371.98</v>
@@ -15792,7 +15792,7 @@
         <v>365.58</v>
       </c>
       <c r="C427" t="n">
-        <v>369</v>
+        <v>368.93</v>
       </c>
       <c r="D427" t="n">
         <v>372.3</v>
@@ -15828,7 +15828,7 @@
         <v>364.09</v>
       </c>
       <c r="C428" t="n">
-        <v>367.27</v>
+        <v>367.11</v>
       </c>
       <c r="D428" t="n">
         <v>370.64</v>
@@ -15864,7 +15864,7 @@
         <v>364.81</v>
       </c>
       <c r="C429" t="n">
-        <v>367.65</v>
+        <v>367.54</v>
       </c>
       <c r="D429" t="n">
         <v>370.71</v>
@@ -15900,7 +15900,7 @@
         <v>364.81</v>
       </c>
       <c r="C430" t="n">
-        <v>368.64</v>
+        <v>368.5</v>
       </c>
       <c r="D430" t="n">
         <v>370.71</v>
@@ -15936,7 +15936,7 @@
         <v>364.17</v>
       </c>
       <c r="C431" t="n">
-        <v>366.43</v>
+        <v>366.14</v>
       </c>
       <c r="D431" t="n">
         <v>369.39</v>
@@ -15972,7 +15972,7 @@
         <v>364.17</v>
       </c>
       <c r="C432" t="n">
-        <v>365.11</v>
+        <v>364.9</v>
       </c>
       <c r="D432" t="n">
         <v>368.13</v>
@@ -16008,7 +16008,7 @@
         <v>364.17</v>
       </c>
       <c r="C433" t="n">
-        <v>364.13</v>
+        <v>363.99</v>
       </c>
       <c r="D433" t="n">
         <v>367.18</v>
@@ -16044,7 +16044,7 @@
         <v>364.33</v>
       </c>
       <c r="C434" t="n">
-        <v>362.65</v>
+        <v>362.64</v>
       </c>
       <c r="D434" t="n">
         <v>365.69</v>
@@ -16080,7 +16080,7 @@
         <v>364.33</v>
       </c>
       <c r="C435" t="n">
-        <v>362.41</v>
+        <v>362.4</v>
       </c>
       <c r="D435" t="n">
         <v>365.63</v>
@@ -16116,7 +16116,7 @@
         <v>364.33</v>
       </c>
       <c r="C436" t="n">
-        <v>362.2</v>
+        <v>362.17</v>
       </c>
       <c r="D436" t="n">
         <v>365.3</v>
@@ -16152,7 +16152,7 @@
         <v>364.97</v>
       </c>
       <c r="C437" t="n">
-        <v>361.43</v>
+        <v>361.42</v>
       </c>
       <c r="D437" t="n">
         <v>364.11</v>
@@ -16188,7 +16188,7 @@
         <v>364.01</v>
       </c>
       <c r="C438" t="n">
-        <v>361.26</v>
+        <v>361.31</v>
       </c>
       <c r="D438" t="n">
         <v>362.84</v>
@@ -16224,7 +16224,7 @@
         <v>363.75</v>
       </c>
       <c r="C439" t="n">
-        <v>360.43</v>
+        <v>360.42</v>
       </c>
       <c r="D439" t="n">
         <v>362.5</v>
@@ -16260,7 +16260,7 @@
         <v>363.75</v>
       </c>
       <c r="C440" t="n">
-        <v>360.43</v>
+        <v>360.42</v>
       </c>
       <c r="D440" t="n">
         <v>363.2</v>
@@ -16296,7 +16296,7 @@
         <v>363.7</v>
       </c>
       <c r="C441" t="n">
-        <v>360.43</v>
+        <v>360.42</v>
       </c>
       <c r="D441" t="n">
         <v>363.2</v>
@@ -16332,7 +16332,7 @@
         <v>363.13</v>
       </c>
       <c r="C442" t="n">
-        <v>360.18</v>
+        <v>360.09</v>
       </c>
       <c r="D442" t="n">
         <v>363.02</v>
@@ -16368,7 +16368,7 @@
         <v>362.56</v>
       </c>
       <c r="C443" t="n">
-        <v>360.34</v>
+        <v>360.43</v>
       </c>
       <c r="D443" t="n">
         <v>361.71</v>
@@ -16404,7 +16404,7 @@
         <v>361.88</v>
       </c>
       <c r="C444" t="n">
-        <v>360.07</v>
+        <v>360.11</v>
       </c>
       <c r="D444" t="n">
         <v>361.7</v>
@@ -16440,7 +16440,7 @@
         <v>362.35</v>
       </c>
       <c r="C445" t="n">
-        <v>360.87</v>
+        <v>360.98</v>
       </c>
       <c r="D445" t="n">
         <v>361.93</v>
@@ -16476,7 +16476,7 @@
         <v>362.35</v>
       </c>
       <c r="C446" t="n">
-        <v>361.37</v>
+        <v>361.55</v>
       </c>
       <c r="D446" t="n">
         <v>361.66</v>
@@ -16512,7 +16512,7 @@
         <v>360.59</v>
       </c>
       <c r="C447" t="n">
-        <v>360.38</v>
+        <v>360.51</v>
       </c>
       <c r="D447" t="n">
         <v>361.01</v>
@@ -16548,7 +16548,7 @@
         <v>356.1</v>
       </c>
       <c r="C448" t="n">
-        <v>358.9</v>
+        <v>359.06</v>
       </c>
       <c r="D448" t="n">
         <v>359.42</v>
@@ -16584,7 +16584,7 @@
         <v>355.98</v>
       </c>
       <c r="C449" t="n">
-        <v>358.98</v>
+        <v>359.07</v>
       </c>
       <c r="D449" t="n">
         <v>359.59</v>
@@ -16620,7 +16620,7 @@
         <v>357.99</v>
       </c>
       <c r="C450" t="n">
-        <v>358.49</v>
+        <v>358.68</v>
       </c>
       <c r="D450" t="n">
         <v>360.49</v>
@@ -16656,7 +16656,7 @@
         <v>359.47</v>
       </c>
       <c r="C451" t="n">
-        <v>361.59</v>
+        <v>361.64</v>
       </c>
       <c r="D451" t="n">
         <v>362.72</v>
@@ -16692,7 +16692,7 @@
         <v>360.36</v>
       </c>
       <c r="C452" t="n">
-        <v>362.08</v>
+        <v>362.19</v>
       </c>
       <c r="D452" t="n">
         <v>363.07</v>
@@ -16728,7 +16728,7 @@
         <v>357.97</v>
       </c>
       <c r="C453" t="n">
-        <v>361.98</v>
+        <v>361.96</v>
       </c>
       <c r="D453" t="n">
         <v>364.03</v>
@@ -16764,7 +16764,7 @@
         <v>359.38</v>
       </c>
       <c r="C454" t="n">
-        <v>363.35</v>
+        <v>363.25</v>
       </c>
       <c r="D454" t="n">
         <v>365.23</v>
@@ -16800,7 +16800,7 @@
         <v>360.06</v>
       </c>
       <c r="C455" t="n">
-        <v>364.09</v>
+        <v>364.04</v>
       </c>
       <c r="D455" t="n">
         <v>366.18</v>
@@ -16836,7 +16836,7 @@
         <v>361.91</v>
       </c>
       <c r="C456" t="n">
-        <v>366.31</v>
+        <v>366.24</v>
       </c>
       <c r="D456" t="n">
         <v>368.58</v>
@@ -16872,7 +16872,7 @@
         <v>362.81</v>
       </c>
       <c r="C457" t="n">
-        <v>367.32</v>
+        <v>367.25</v>
       </c>
       <c r="D457" t="n">
         <v>369.2</v>
@@ -16908,7 +16908,7 @@
         <v>363.78</v>
       </c>
       <c r="C458" t="n">
-        <v>368.1</v>
+        <v>368.11</v>
       </c>
       <c r="D458" t="n">
         <v>369.8</v>
@@ -16944,7 +16944,7 @@
         <v>364.51</v>
       </c>
       <c r="C459" t="n">
-        <v>368.55</v>
+        <v>368.53</v>
       </c>
       <c r="D459" t="n">
         <v>369.93</v>
@@ -16980,7 +16980,7 @@
         <v>367.04</v>
       </c>
       <c r="C460" t="n">
-        <v>370.23</v>
+        <v>370.28</v>
       </c>
       <c r="D460" t="n">
         <v>371.54</v>
@@ -17016,7 +17016,7 @@
         <v>367.73</v>
       </c>
       <c r="C461" t="n">
-        <v>370.04</v>
+        <v>369.81</v>
       </c>
       <c r="D461" t="n">
         <v>373.38</v>
@@ -17052,7 +17052,7 @@
         <v>367.54</v>
       </c>
       <c r="C462" t="n">
-        <v>368.56</v>
+        <v>368.42</v>
       </c>
       <c r="D462" t="n">
         <v>371.79</v>
@@ -17088,7 +17088,7 @@
         <v>367.3</v>
       </c>
       <c r="C463" t="n">
-        <v>365.3</v>
+        <v>365.1</v>
       </c>
       <c r="D463" t="n">
         <v>371.79</v>
@@ -17124,7 +17124,7 @@
         <v>368.85</v>
       </c>
       <c r="C464" t="n">
-        <v>366</v>
+        <v>365.79</v>
       </c>
       <c r="D464" t="n">
         <v>372.22</v>
@@ -17160,7 +17160,7 @@
         <v>369.95</v>
       </c>
       <c r="C465" t="n">
-        <v>367.42</v>
+        <v>367.24</v>
       </c>
       <c r="D465" t="n">
         <v>372.97</v>
@@ -17196,7 +17196,7 @@
         <v>371.64</v>
       </c>
       <c r="C466" t="n">
-        <v>368.39</v>
+        <v>368.22</v>
       </c>
       <c r="D466" t="n">
         <v>374.24</v>
@@ -17232,7 +17232,7 @@
         <v>371.51</v>
       </c>
       <c r="C467" t="n">
-        <v>368.41</v>
+        <v>368.17</v>
       </c>
       <c r="D467" t="n">
         <v>374.45</v>
@@ -17268,7 +17268,7 @@
         <v>370.16</v>
       </c>
       <c r="C468" t="n">
-        <v>368.41</v>
+        <v>368.17</v>
       </c>
       <c r="D468" t="n">
         <v>374.8</v>
@@ -17304,7 +17304,7 @@
         <v>370.01</v>
       </c>
       <c r="C469" t="n">
-        <v>368.46</v>
+        <v>368.3</v>
       </c>
       <c r="D469" t="n">
         <v>374.9</v>
@@ -17340,7 +17340,7 @@
         <v>371.96</v>
       </c>
       <c r="C470" t="n">
-        <v>370.02</v>
+        <v>369.77</v>
       </c>
       <c r="D470" t="n">
         <v>376.01</v>
@@ -17376,7 +17376,7 @@
         <v>371.6</v>
       </c>
       <c r="C471" t="n">
-        <v>369.55</v>
+        <v>369.44</v>
       </c>
       <c r="D471" t="n">
         <v>374.97</v>
@@ -17412,7 +17412,7 @@
         <v>370.26</v>
       </c>
       <c r="C472" t="n">
-        <v>368.13</v>
+        <v>367.87</v>
       </c>
       <c r="D472" t="n">
         <v>373.48</v>
@@ -17448,7 +17448,7 @@
         <v>369.69</v>
       </c>
       <c r="C473" t="n">
-        <v>368.05</v>
+        <v>367.85</v>
       </c>
       <c r="D473" t="n">
         <v>372.77</v>
@@ -17484,7 +17484,7 @@
         <v>369.25</v>
       </c>
       <c r="C474" t="n">
-        <v>367.82</v>
+        <v>367.64</v>
       </c>
       <c r="D474" t="n">
         <v>372.46</v>
@@ -17520,7 +17520,7 @@
         <v>368.32</v>
       </c>
       <c r="C475" t="n">
-        <v>366.06</v>
+        <v>365.82</v>
       </c>
       <c r="D475" t="n">
         <v>371.55</v>
@@ -17556,7 +17556,7 @@
         <v>367.56</v>
       </c>
       <c r="C476" t="n">
-        <v>365.21</v>
+        <v>364.96</v>
       </c>
       <c r="D476" t="n">
         <v>370.89</v>
@@ -17592,7 +17592,7 @@
         <v>367.35</v>
       </c>
       <c r="C477" t="n">
-        <v>365.3</v>
+        <v>365.12</v>
       </c>
       <c r="D477" t="n">
         <v>370.48</v>
@@ -17628,7 +17628,7 @@
         <v>368.17</v>
       </c>
       <c r="C478" t="n">
-        <v>366.23</v>
+        <v>365.93</v>
       </c>
       <c r="D478" t="n">
         <v>371.62</v>
@@ -17664,7 +17664,7 @@
         <v>368.41</v>
       </c>
       <c r="C479" t="n">
-        <v>371.57</v>
+        <v>371.42</v>
       </c>
       <c r="D479" t="n">
         <v>373.2</v>
@@ -17700,7 +17700,7 @@
         <v>367.71</v>
       </c>
       <c r="C480" t="n">
-        <v>370.73</v>
+        <v>370.74</v>
       </c>
       <c r="D480" t="n">
         <v>371.81</v>
@@ -17736,7 +17736,7 @@
         <v>366.77</v>
       </c>
       <c r="C481" t="n">
-        <v>369.47</v>
+        <v>369.42</v>
       </c>
       <c r="D481" t="n">
         <v>371.01</v>
@@ -17772,7 +17772,7 @@
         <v>370.26</v>
       </c>
       <c r="C482" t="n">
-        <v>370.03</v>
+        <v>369.98</v>
       </c>
       <c r="D482" t="n">
         <v>370.99</v>
@@ -17808,7 +17808,7 @@
         <v>371.21</v>
       </c>
       <c r="C483" t="n">
-        <v>371.37</v>
+        <v>371.32</v>
       </c>
       <c r="D483" t="n">
         <v>371.8</v>
@@ -17844,7 +17844,7 @@
         <v>374.05</v>
       </c>
       <c r="C484" t="n">
-        <v>374.41</v>
+        <v>374.3</v>
       </c>
       <c r="D484" t="n">
         <v>374.79</v>
@@ -17880,7 +17880,7 @@
         <v>372.03</v>
       </c>
       <c r="C485" t="n">
-        <v>371.33</v>
+        <v>371.3</v>
       </c>
       <c r="D485" t="n">
         <v>370.97</v>
@@ -17916,7 +17916,7 @@
         <v>373.22</v>
       </c>
       <c r="C486" t="n">
-        <v>373.09</v>
+        <v>373</v>
       </c>
       <c r="D486" t="n">
         <v>372.62</v>
@@ -17952,7 +17952,7 @@
         <v>373.95</v>
       </c>
       <c r="C487" t="n">
-        <v>373.87</v>
+        <v>373.68</v>
       </c>
       <c r="D487" t="n">
         <v>373.29</v>
@@ -17988,7 +17988,7 @@
         <v>371.53</v>
       </c>
       <c r="C488" t="n">
-        <v>371.72</v>
+        <v>371.63</v>
       </c>
       <c r="D488" t="n">
         <v>372.12</v>
@@ -18024,7 +18024,7 @@
         <v>372.2</v>
       </c>
       <c r="C489" t="n">
-        <v>372.98</v>
+        <v>373</v>
       </c>
       <c r="D489" t="n">
         <v>373.24</v>
@@ -18060,7 +18060,7 @@
         <v>372.59</v>
       </c>
       <c r="C490" t="n">
-        <v>374.02</v>
+        <v>374.13</v>
       </c>
       <c r="D490" t="n">
         <v>374.14</v>
@@ -18096,7 +18096,7 @@
         <v>371.67</v>
       </c>
       <c r="C491" t="n">
-        <v>373.32</v>
+        <v>373.39</v>
       </c>
       <c r="D491" t="n">
         <v>373.88</v>
@@ -18132,7 +18132,7 @@
         <v>373.21</v>
       </c>
       <c r="C492" t="n">
-        <v>375.3</v>
+        <v>375.18</v>
       </c>
       <c r="D492" t="n">
         <v>376.04</v>
@@ -18204,7 +18204,7 @@
         <v>371.32</v>
       </c>
       <c r="C494" t="n">
-        <v>373.8</v>
+        <v>373.74</v>
       </c>
       <c r="D494" t="n">
         <v>374.38</v>
@@ -18240,7 +18240,7 @@
         <v>371.32</v>
       </c>
       <c r="C495" t="n">
-        <v>373.89</v>
+        <v>373.86</v>
       </c>
       <c r="D495" t="n">
         <v>374.98</v>
@@ -18276,7 +18276,7 @@
         <v>372.81</v>
       </c>
       <c r="C496" t="n">
-        <v>373.11</v>
+        <v>373.05</v>
       </c>
       <c r="D496" t="n">
         <v>374.29</v>
@@ -18312,7 +18312,7 @@
         <v>372.41</v>
       </c>
       <c r="C497" t="n">
-        <v>372.63</v>
+        <v>372.6</v>
       </c>
       <c r="D497" t="n">
         <v>374.36</v>
@@ -18348,7 +18348,7 @@
         <v>372.56</v>
       </c>
       <c r="C498" t="n">
-        <v>371.41</v>
+        <v>371.33</v>
       </c>
       <c r="D498" t="n">
         <v>373.54</v>
@@ -18384,7 +18384,7 @@
         <v>372.56</v>
       </c>
       <c r="C499" t="n">
-        <v>369.59</v>
+        <v>369.57</v>
       </c>
       <c r="D499" t="n">
         <v>373.54</v>
@@ -18420,7 +18420,7 @@
         <v>371.98</v>
       </c>
       <c r="C500" t="n">
-        <v>369.64</v>
+        <v>369.56</v>
       </c>
       <c r="D500" t="n">
         <v>373.95</v>
@@ -18456,7 +18456,7 @@
         <v>372.35</v>
       </c>
       <c r="C501" t="n">
-        <v>368.54</v>
+        <v>368.59</v>
       </c>
       <c r="D501" t="n">
         <v>372.37</v>
@@ -18492,7 +18492,7 @@
         <v>373.06</v>
       </c>
       <c r="C502" t="n">
-        <v>368.39</v>
+        <v>368.48</v>
       </c>
       <c r="D502" t="n">
         <v>372.06</v>
@@ -18528,7 +18528,7 @@
         <v>372.03</v>
       </c>
       <c r="C503" t="n">
-        <v>367.95</v>
+        <v>367.98</v>
       </c>
       <c r="D503" t="n">
         <v>371.93</v>
@@ -18564,7 +18564,7 @@
         <v>371.21</v>
       </c>
       <c r="C504" t="n">
-        <v>367.35</v>
+        <v>367.4</v>
       </c>
       <c r="D504" t="n">
         <v>371.69</v>
@@ -18636,7 +18636,7 @@
         <v>368.74</v>
       </c>
       <c r="C506" t="n">
-        <v>364.98</v>
+        <v>365.05</v>
       </c>
       <c r="D506" t="n">
         <v>370.45</v>
@@ -18659,6 +18659,42 @@
       <c r="J506" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="C507" t="n">
+        <v>358.6</v>
+      </c>
+      <c r="D507" t="n">
+        <v>364.51</v>
+      </c>
+      <c r="E507" t="n">
+        <v>360.55</v>
+      </c>
+      <c r="F507" t="n">
+        <v>363.85</v>
+      </c>
+      <c r="G507" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="H507" t="n">
+        <v>375.76</v>
+      </c>
+      <c r="I507" t="n">
+        <v>383.74</v>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24941,6 +24977,16 @@
       </c>
       <c r="B626" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -25108,34 +25154,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0583</v>
+        <v>0.0579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0823</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.183840835957589</v>
+        <v>-0.1884651376791234</v>
       </c>
       <c r="J2" t="n">
+        <v>506</v>
+      </c>
+      <c r="K2" t="n">
         <v>505</v>
       </c>
-      <c r="K2" t="n">
-        <v>504</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.02270257367026707</v>
+        <v>0.0238331014735611</v>
       </c>
       <c r="M2" t="n">
-        <v>7.187645606880355</v>
+        <v>7.194315089959708</v>
       </c>
       <c r="N2" t="n">
-        <v>74.33040389215573</v>
+        <v>74.46560240135923</v>
       </c>
       <c r="O2" t="n">
-        <v>8.621508214468959</v>
+        <v>8.629345421372308</v>
       </c>
       <c r="P2" t="n">
-        <v>379.4959907881183</v>
+        <v>379.5475502600352</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25183,37 +25229,37 @@
         <v>0.1421802542529837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0484</v>
+        <v>0.048</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0582</v>
+        <v>0.0578</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2227293792622593</v>
+        <v>-0.2238462894577174</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K3" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02743435524813598</v>
+        <v>0.02787803185034377</v>
       </c>
       <c r="M3" t="n">
-        <v>7.765343122571186</v>
+        <v>7.732230634841893</v>
       </c>
       <c r="N3" t="n">
-        <v>89.11086336722516</v>
+        <v>88.70208897544799</v>
       </c>
       <c r="O3" t="n">
-        <v>9.439855050117304</v>
+        <v>9.418178644273423</v>
       </c>
       <c r="P3" t="n">
-        <v>382.4123316288528</v>
+        <v>382.2600816535793</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25264,34 +25310,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.0624</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1264</v>
+        <v>0.1247</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1599656677681863</v>
+        <v>-0.1649306237640395</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01966425681164907</v>
+        <v>0.02085435329355423</v>
       </c>
       <c r="M4" t="n">
-        <v>6.912469637625294</v>
+        <v>6.925148560448514</v>
       </c>
       <c r="N4" t="n">
-        <v>65.71248138540039</v>
+        <v>65.91205669263921</v>
       </c>
       <c r="O4" t="n">
-        <v>8.106323543098956</v>
+        <v>8.118624064004885</v>
       </c>
       <c r="P4" t="n">
-        <v>381.6608814502387</v>
+        <v>381.7159521916395</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25342,34 +25388,34 @@
         <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.067</v>
+        <v>0.0667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2684627198530639</v>
+        <v>-0.2718193031552909</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K5" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05403510050065674</v>
+        <v>0.05539982998280635</v>
       </c>
       <c r="M5" t="n">
-        <v>6.742299893045237</v>
+        <v>6.745518321704496</v>
       </c>
       <c r="N5" t="n">
-        <v>64.99261787000133</v>
+        <v>65.01474548590112</v>
       </c>
       <c r="O5" t="n">
-        <v>8.061799915031465</v>
+        <v>8.063172172656436</v>
       </c>
       <c r="P5" t="n">
-        <v>376.3574689092828</v>
+        <v>376.3946997590994</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25420,34 +25466,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0514</v>
+        <v>0.051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2736751464839258</v>
+        <v>-0.2750822008345895</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K6" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08507001862631158</v>
+        <v>0.08612444324536628</v>
       </c>
       <c r="M6" t="n">
-        <v>5.412636175607946</v>
+        <v>5.410513534660096</v>
       </c>
       <c r="N6" t="n">
-        <v>41.49340262852753</v>
+        <v>41.43785863167</v>
       </c>
       <c r="O6" t="n">
-        <v>6.441537287676563</v>
+        <v>6.437224450931472</v>
       </c>
       <c r="P6" t="n">
-        <v>374.7074561051558</v>
+        <v>374.7230629960018</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25498,34 +25544,34 @@
         <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0564</v>
+        <v>0.0563</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0727</v>
+        <v>0.0723</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3434614387479647</v>
+        <v>-0.3442061309335711</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K7" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1215028311934073</v>
+        <v>0.1223611455298036</v>
       </c>
       <c r="M7" t="n">
-        <v>5.429151960140061</v>
+        <v>5.422864821348877</v>
       </c>
       <c r="N7" t="n">
-        <v>43.93462648643888</v>
+        <v>43.85521058404198</v>
       </c>
       <c r="O7" t="n">
-        <v>6.62832003500426</v>
+        <v>6.622326674518706</v>
       </c>
       <c r="P7" t="n">
-        <v>382.8424823547832</v>
+        <v>382.8507423979358</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25576,34 +25622,34 @@
         <v>0.055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0489</v>
+        <v>0.049</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0692</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.221339573694337</v>
+        <v>-0.2216041531108726</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K8" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03747027350780641</v>
+        <v>0.03769557691923253</v>
       </c>
       <c r="M8" t="n">
-        <v>6.607300793245952</v>
+        <v>6.595621260356259</v>
       </c>
       <c r="N8" t="n">
-        <v>64.82498524528556</v>
+        <v>64.69780816134775</v>
       </c>
       <c r="O8" t="n">
-        <v>8.051396477958688</v>
+        <v>8.043494772879992</v>
       </c>
       <c r="P8" t="n">
-        <v>382.2627981502874</v>
+        <v>382.2657328358396</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25654,34 +25700,34 @@
         <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0462</v>
+        <v>0.046</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2038987087780918</v>
+        <v>-0.202606189530828</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K9" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03170040186541112</v>
+        <v>0.03141902802532126</v>
       </c>
       <c r="M9" t="n">
-        <v>6.429023292374716</v>
+        <v>6.422240403610791</v>
       </c>
       <c r="N9" t="n">
-        <v>65.41403445292839</v>
+        <v>65.30708427595096</v>
       </c>
       <c r="O9" t="n">
-        <v>8.087894315143366</v>
+        <v>8.081279866206279</v>
       </c>
       <c r="P9" t="n">
-        <v>385.7208593682079</v>
+        <v>385.7065228880294</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25719,7 +25765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J506"/>
+  <dimension ref="A1:J507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25884,7 +25930,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-45.76169375516966,170.66710038883605</t>
+          <t>-45.761705169520106,170.66709340876073</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25936,7 +25982,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-45.76172394529836,170.66708192703632</t>
+          <t>-45.76172675752935,170.66708020730601</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25988,7 +26034,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-45.76171178653462,170.66708936233894</t>
+          <t>-45.7617179072729,170.6670856193979</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -26040,7 +26086,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-45.76176670774861,170.66705577700012</t>
+          <t>-45.761769602691814,170.6670540066867</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26092,7 +26138,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-45.76174768383545,170.66706741048358</t>
+          <t>-45.761749751652175,170.6670661459749</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26144,7 +26190,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-45.76175827105686,170.6670609361981</t>
+          <t>-45.76176066972417,170.66705946936747</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26196,7 +26242,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-45.761785731660396,170.66704414350852</t>
+          <t>-45.76178655878696,170.66704363770435</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -26300,7 +26346,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-45.76183254701993,170.66701551496854</t>
+          <t>-45.76183180260616,170.66701597019306</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -26404,7 +26450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-45.76193097504507,170.66695532406152</t>
+          <t>-45.761927418402806,170.66695749903084</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -26456,7 +26502,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-45.76192361362264,170.66695982574188</t>
+          <t>-45.76192204208299,170.66696078677464</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -26508,7 +26554,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-45.76186852701665,170.6669935124353</t>
+          <t>-45.76187820439423,170.66698759450762</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -26560,7 +26606,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-45.76181559092779,170.6670258839684</t>
+          <t>-45.761823283203874,170.6670211799839</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -26612,7 +26658,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-45.7617964015929,170.6670376186336</t>
+          <t>-45.761799296535756,170.66703584831825</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -26664,7 +26710,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-45.761762985678764,170.66705805311707</t>
+          <t>-45.76176745216259,170.6670553217767</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -26716,7 +26762,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-45.76177092609439,170.66705319740052</t>
+          <t>-45.761773242048896,170.66705178114955</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -26768,7 +26814,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-45.76180392844426,170.66703301581333</t>
+          <t>-45.76180525184668,170.6670322065261</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -26820,7 +26866,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-45.761841231847185,170.6670102040149</t>
+          <t>-45.76184313423788,170.66700904066295</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -26872,7 +26918,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-45.76183767520368,170.66701237897706</t>
+          <t>-45.761838915893286,170.66701162026936</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -26924,7 +26970,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-45.76185454858174,170.66700206054935</t>
+          <t>-45.76185554113336,170.66700145358283</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -26976,7 +27022,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-45.76189391979293,170.6669779841932</t>
+          <t>-45.76189689744733,170.66697616329088</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -27028,7 +27074,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-45.76197018081946,170.66693134879932</t>
+          <t>-45.76197572256346,170.66692795988814</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -27080,7 +27126,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-45.76196968454387,170.66693165228384</t>
+          <t>-45.76197563985087,170.66692801046892</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -27132,7 +27178,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-45.761953307448934,170.6669416672708</t>
+          <t>-45.7619593454689,170.66693797487733</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -27184,7 +27230,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-45.76191443252245,170.66696544019555</t>
+          <t>-45.76192063596856,170.666961646646</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -27236,7 +27282,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-45.76190839450143,170.66696913258295</t>
+          <t>-45.761913109120606,170.666966249486</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -27288,7 +27334,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-45.761903597169564,170.66697206626</t>
+          <t>-45.761908311788815,170.6669691831636</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -27340,7 +27386,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-45.76189292724148,170.66697859116059</t>
+          <t>-45.76189755914829,170.66697575864592</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -27392,7 +27438,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-45.76190194291718,170.66697307787265</t>
+          <t>-45.761906409398605,170.66697034651833</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -27444,7 +27490,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-45.761904258870516,170.66697166161492</t>
+          <t>-45.761906243973364,170.6669704476796</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -27496,7 +27542,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-45.76191666576308,170.6669640745178</t>
+          <t>-45.76191922985412,170.6669625065173</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -27548,7 +27594,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-45.76200549909636,170.66690975080152</t>
+          <t>-45.76200516824603,170.6669099531248</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -27600,7 +27646,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-45.76201360492973,170.66690479388004</t>
+          <t>-45.76201153711513,170.66690605840097</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -27652,7 +27698,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-45.7619845728111,170.66692254774503</t>
+          <t>-45.76199003184221,170.6669192094129</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -27704,7 +27750,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-45.762024936553495,170.66689786430365</t>
+          <t>-45.762032546110795,170.66689321086392</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -27756,7 +27802,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-45.76206935320539,170.66687070235972</t>
+          <t>-45.762076549198554,170.66686630181715</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -27808,7 +27854,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-45.76202857590701,170.66689563874567</t>
+          <t>-45.7620313881347,170.66689391899612</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -27860,7 +27906,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-45.762012529666144,170.66690545143092</t>
+          <t>-45.76201583816949,170.66690342819732</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -27912,7 +27958,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-45.76199689698721,170.66691501120638</t>
+          <t>-45.76199375390879,170.66691693327698</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -27964,7 +28010,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-45.76191021417902,170.66696801980873</t>
+          <t>-45.76190765008788,170.66696958780872</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -28016,7 +28062,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-45.76191021417902,170.66696801980873</t>
+          <t>-45.76190765008788,170.66696958780872</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -28068,7 +28114,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-45.76190607854814,170.66697054884088</t>
+          <t>-45.76190591312289,170.66697065000218</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -28120,7 +28166,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-45.76186397782194,170.66699629436638</t>
+          <t>-45.761862737132454,170.66699705307482</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -28172,7 +28218,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-45.76183436669803,170.66701440219745</t>
+          <t>-45.76183238159466,170.66701561612953</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -28224,7 +28270,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-45.76185066108787,170.66700443783475</t>
+          <t>-45.761847435295046,170.66700641047555</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -28276,7 +28322,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-45.761846525456036,170.66700696686138</t>
+          <t>-45.76184371322635,170.66700868659927</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -28328,7 +28374,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-45.76185893235135,170.66699937978035</t>
+          <t>-45.7618568645355,170.6670006442941</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -28380,7 +28426,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-45.76185372145539,170.6670025663548</t>
+          <t>-45.76185297704168,170.6670030215797</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -28432,7 +28478,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-45.761849668536236,170.6670050448012</t>
+          <t>-45.76184875869724,170.66700560118704</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -28484,7 +28530,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-45.76185430044384,170.667002212291</t>
+          <t>-45.7618528116164,170.66700312274077</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -28536,7 +28582,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-45.761863067983,170.66699685075258</t>
+          <t>-45.761861496442975,170.66699781178318</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -28588,7 +28634,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-45.76186480494825,170.6669957885608</t>
+          <t>-45.761862488994566,170.66699720481648</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -28640,7 +28686,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-45.761859015063976,170.6669993291998</t>
+          <t>-45.761859676765056,170.66699892455537</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -28692,7 +28738,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-45.7618486759846,170.6670056517676</t>
+          <t>-45.761848924122496,170.66700550002597</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -28744,7 +28790,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-45.76184495391591,170.6670079278914</t>
+          <t>-45.761842803387324,170.66700924298502</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -28796,7 +28842,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-45.7618410664219,170.66701030517595</t>
+          <t>-45.761839991157586,170.66701096272269</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -28848,7 +28894,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-45.76184090099663,170.66701040633697</t>
+          <t>-45.76184015658288,170.66701086156164</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -28900,7 +28946,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-45.76184412678954,170.66700843369665</t>
+          <t>-45.76184387865162,170.66700858543823</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -28952,7 +28998,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-45.76185372145539,170.6670025663548</t>
+          <t>-45.761852398053215,170.66700337564345</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -29004,7 +29050,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-45.76186182729351,170.66699760946094</t>
+          <t>-45.76186207543141,170.66699745771928</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -29056,7 +29102,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-45.76187167009659,170.66699159037356</t>
+          <t>-45.76187109110819,170.66699194443757</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -29108,7 +29154,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-45.761876963704815,170.66698835321642</t>
+          <t>-45.76187779083109,170.66698784741055</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -29160,7 +29206,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-45.761878700669996,170.66698729102407</t>
+          <t>-45.76188076848567,170.66698602650933</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -29212,7 +29258,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-45.761878700669996,170.66698729102407</t>
+          <t>-45.76188076848567,170.66698602650933</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -29264,7 +29310,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-45.761878700669996,170.66698729102407</t>
+          <t>-45.76188076848567,170.66698602650933</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -29316,7 +29362,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-45.76191608677477,170.66696442858242</t>
+          <t>-45.76191699661353,170.66696387219517</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -29368,7 +29414,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-45.76193436626208,170.66695325025327</t>
+          <t>-45.761935110675566,170.66695279502702</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -29420,7 +29466,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-45.76193097504507,170.66695532406152</t>
+          <t>-45.76193188488378,170.66695476767396</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -29472,7 +29518,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-45.761944126349796,170.66694728173056</t>
+          <t>-45.761945780601906,170.66694627011634</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -29524,7 +29570,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-45.76194966809437,170.66694389282264</t>
+          <t>-45.7619524803229,170.66694217307807</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -29576,7 +29622,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-45.76201749242115,170.66690241658043</t>
+          <t>-45.762020304648956,170.66690069683156</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -29628,7 +29674,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-45.76196745130371,170.66693301796425</t>
+          <t>-45.76197820394135,170.66692644246504</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -29680,7 +29726,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-45.761926673989294,170.66695795425693</t>
+          <t>-45.76193296014772,170.666954110125</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -29732,7 +29778,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-45.76185041294996,170.66700458957638</t>
+          <t>-45.76185711267341,170.66700049255243</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -29784,7 +29830,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-45.76186331612089,170.6669966990109</t>
+          <t>-45.76187092568293,170.66699204559873</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -29836,7 +29882,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-45.76180938747916,170.6670296775033</t>
+          <t>-45.761815839065726,170.667025732227</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -29888,7 +29934,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-45.761848924122496,170.66700550002597</t>
+          <t>-45.76185669911023,170.6670007454552</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -29940,7 +29986,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-45.761863729684045,170.66699644610807</t>
+          <t>-45.76187175280922,170.66699153979297</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -29992,7 +30038,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-45.761889370598674,170.6669807661269</t>
+          <t>-45.76189747643568,170.66697580922653</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -30044,7 +30090,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-45.76188225731294,170.66698511605864</t>
+          <t>-45.76188961873655,170.66698061438507</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -30096,7 +30142,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-45.761900784940515,170.66697378600148</t>
+          <t>-45.76190583041027,170.66697070058282</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -30148,7 +30194,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-45.76189838627451,170.66697525283968</t>
+          <t>-45.7619016120667,170.6669732801952</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -30200,7 +30246,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-45.76192626042623,170.66695820716035</t>
+          <t>-45.76192940350547,170.6669562850945</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -30252,7 +30298,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-45.761876963704815,170.66698835321642</t>
+          <t>-45.76187249722288,170.6669910845678</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -30304,7 +30350,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-45.76185653368498,170.6670008466163</t>
+          <t>-45.76185148821423,170.6670039320294</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -30356,7 +30402,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-45.76175669951622,170.66706189722504</t>
+          <t>-45.76175388728555,170.66706361695725</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -30408,7 +30454,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-45.76168027300146,170.66710863341393</t>
+          <t>-45.761679859438004,170.66710888631502</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -30460,7 +30506,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-45.76168027300146,170.66710863341393</t>
+          <t>-45.761679859438004,170.66710888631502</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -30512,7 +30558,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-45.7616597602534,170.66712117730378</t>
+          <t>-45.761662655197775,170.66711940699733</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -30564,7 +30610,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-45.7616597602534,170.66712117730378</t>
+          <t>-45.761662655197775,170.66711940699733</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -30616,7 +30662,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-45.76175008250284,170.66706594365348</t>
+          <t>-45.7617501652155,170.66706589307316</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -30668,7 +30714,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-45.76179201782224,170.66704029939646</t>
+          <t>-45.76179234867286,170.66704009707476</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -30720,7 +30766,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-45.76181815501984,170.66702431597372</t>
+          <t>-45.76181724518072,170.66702487235892</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -30772,7 +30818,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-45.762028079631534,170.6668959422309</t>
+          <t>-45.762027500643484,170.66689629629693</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -30824,7 +30870,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-45.76206306705027,170.66687454651088</t>
+          <t>-45.76206331518799,170.66687439476812</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -30876,7 +30922,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-45.7620537205299,170.66688026215508</t>
+          <t>-45.762051652715606,170.66688152667788</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -30928,7 +30974,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-45.76204578012294,170.66688511792205</t>
+          <t>-45.76204404315888,170.6668861801209</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -30980,7 +31026,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-45.76200343128171,170.66691101532209</t>
+          <t>-45.762002521443236,170.6669115717111</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -31032,7 +31078,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-45.76200343128171,170.66691101532209</t>
+          <t>-45.762002521443236,170.6669115717111</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -31084,7 +31130,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-45.76199127253108,170.66691845070096</t>
+          <t>-45.7619919342318,170.66691804605455</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -31136,7 +31182,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-45.76199879937676,170.66691384784775</t>
+          <t>-45.761998137676045,170.66691425249425</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -31188,7 +31234,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-45.76202121448735,170.6669001404422</t>
+          <t>-45.76202204161317,170.66689963463367</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -31240,7 +31286,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-45.76197332389817,170.66692942673038</t>
+          <t>-45.76197646697683,170.66692750466123</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -31292,7 +31338,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-45.76197332389817,170.66692942673038</t>
+          <t>-45.76197646697683,170.66692750466123</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -31344,7 +31390,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-45.76197944463027,170.66692568375342</t>
+          <t>-45.76198233957107,170.6669239134262</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -31396,7 +31442,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-45.76202592910445,170.66689725733332</t>
+          <t>-45.76202543282899,170.66689756081848</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -31448,7 +31494,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-45.76194172768421,170.6669487485711</t>
+          <t>-45.761941231408564,170.66694905205532</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -31500,7 +31546,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-45.76193800561687,170.66695102470268</t>
+          <t>-45.76193254658468,170.66695436302845</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -31552,7 +31598,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-45.76192650856407,170.6669580554183</t>
+          <t>-45.76192080139379,170.66696154548467</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -31604,7 +31650,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-45.76195818749249,170.66693868300766</t>
+          <t>-45.761954382712766,170.66694100972134</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -31656,7 +31702,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-45.76192361362264,170.66695982574188</t>
+          <t>-45.761923530910025,170.66695987632258</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -31708,7 +31754,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-45.76193891545555,170.66695046831498</t>
+          <t>-45.76193717849078,170.66695153050966</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -31760,7 +31806,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-45.76195363829935,170.66694146494788</t>
+          <t>-45.761950247082595,170.6669435387576</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -31812,7 +31858,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-45.76195694680346,170.66693944171868</t>
+          <t>-45.761953555586736,170.66694151552863</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -31864,7 +31910,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-45.761941975822026,170.66694859682897</t>
+          <t>-45.76193817104209,170.66695092354126</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -31916,7 +31962,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-45.761890942138514,170.6669798050953</t>
+          <t>-45.761889784161795,170.66698051322385</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -31968,7 +32014,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-45.76191137215566,170.66696731167966</t>
+          <t>-45.761914184384615,170.66696559193753</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -32020,7 +32066,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-45.7619682784297,170.6669325121567</t>
+          <t>-45.761970594382454,170.66693109589554</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -32072,7 +32118,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-45.761949171818735,170.66694419630696</t>
+          <t>-45.76194793112966,170.66694495501775</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -32124,7 +32170,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-45.761928162816304,170.66695704380473</t>
+          <t>-45.76192791467847,170.66695719554676</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -32176,7 +32222,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-45.76192948621808,170.6669562345138</t>
+          <t>-45.761928493666744,170.666956841482</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -32228,7 +32274,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-45.76190880806454,170.6669688796797</t>
+          <t>-45.76190814636358,170.66696928432486</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -32280,7 +32326,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-45.761916913900926,170.66696392277584</t>
+          <t>-45.76191616948739,170.66696437800175</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -32332,7 +32378,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-45.76191269555752,170.66696650238924</t>
+          <t>-45.76191112401781,170.6669674634216</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -32384,7 +32430,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-45.76189251367836,170.66697884406366</t>
+          <t>-45.761890942138514,170.6669798050953</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -32436,7 +32482,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-45.761883167151815,170.66698455967207</t>
+          <t>-45.7618790315205,170.66698708870175</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -32488,7 +32534,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-45.761869106005065,170.6669931583713</t>
+          <t>-45.761865135798786,170.66699558623853</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -32540,7 +32586,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-45.761890694000655,170.66697995683714</t>
+          <t>-45.7618870546452,170.66698218238386</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -32592,7 +32638,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-45.7618887916103,170.66698112019114</t>
+          <t>-45.76188812990931,170.666981524836</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -32644,7 +32690,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-45.76186323340825,170.66699674959145</t>
+          <t>-45.76186406053457,170.66699624378586</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -32696,7 +32742,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-45.76188548310533,170.6669831434153</t>
+          <t>-45.7618850695422,170.6669833963183</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -32748,7 +32794,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-45.761877873543725,170.66698779682997</t>
+          <t>-45.761878535244726,170.66698739218526</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -32800,7 +32846,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-45.761877873543725,170.66698779682997</t>
+          <t>-45.761878535244726,170.66698739218526</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -32852,7 +32898,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-45.76185223262796,170.66700347680452</t>
+          <t>-45.76185355603011,170.66700266751587</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -32904,7 +32950,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-45.7618421416862,170.6670096476292</t>
+          <t>-45.76184412678954,170.66700843369665</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -32956,7 +33002,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-45.761848924122496,170.66700550002597</t>
+          <t>-45.76185256347849,170.66700327448237</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -33008,7 +33054,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-45.7618628198451,170.66699700249424</t>
+          <t>-45.761867865315615,170.66699391707985</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -33060,7 +33106,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-45.76184313423788,170.66700904066295</t>
+          <t>-45.76184900683514,170.66700544944547</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -33112,7 +33158,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-45.76184057014608,170.66701060865907</t>
+          <t>-45.76184553290439,170.66700757382773</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -33164,7 +33210,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-45.761915011510766,170.66696508613094</t>
+          <t>-45.76192121495686,170.66696129258133</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -33216,7 +33262,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-45.76192708755236,170.66695770135354</t>
+          <t>-45.761934118124245,170.66695340199536</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -33268,7 +33314,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-45.761939908006845,170.66694986134655</t>
+          <t>-45.76195165319686,170.6669426788853</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -33320,7 +33366,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-45.76194470533805,170.6669469276656</t>
+          <t>-45.76195206675988,170.66694242598172</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -33372,7 +33418,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-45.761896070321114,170.66697666909712</t>
+          <t>-45.761897807286154,170.66697560690406</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -33424,7 +33470,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-45.7618901977249,170.6669802603208</t>
+          <t>-45.76188581395583,170.66698294109293</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -33476,7 +33522,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-45.76185578927126,170.6670013018412</t>
+          <t>-45.76185198449004,170.66700362854615</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -33528,7 +33574,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-45.76185066108787,170.66700443783475</t>
+          <t>-45.761851819064766,170.66700372970723</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -33580,7 +33626,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-45.76185066108787,170.66700443783475</t>
+          <t>-45.761851819064766,170.66700372970723</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -33632,7 +33678,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-45.76183254701993,170.66701551496854</t>
+          <t>-45.761833787709556,170.66701475626098</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -33736,7 +33782,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-45.76185578927126,170.6670013018412</t>
+          <t>-45.76185694724814,170.66700059371354</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -33788,7 +33834,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-45.76184379593899,170.66700863601875</t>
+          <t>-45.76184611189286,170.66700721976403</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -33840,7 +33886,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-45.76183825419216,170.6670120249135</t>
+          <t>-45.76183982573232,170.6670110638837</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -33892,7 +33938,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-45.761840652858716,170.66701055807854</t>
+          <t>-45.76184561561703,170.66700752324718</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -33944,7 +33990,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-45.761847435295046,170.66700641047555</t>
+          <t>-45.76185314246694,170.6670029204186</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -33996,7 +34042,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-45.76185587198389,170.66700125126067</t>
+          <t>-45.76186025575348,170.6669985704915</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -34048,7 +34094,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-45.761875888440656,170.666989010764</t>
+          <t>-45.76188076848567,170.66698602650933</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -34100,7 +34146,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-45.76187894880788,170.66698713928233</t>
+          <t>-45.7618837461402,170.6669842056079</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -34152,7 +34198,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-45.76187497860174,170.6669895671504</t>
+          <t>-45.76188018949728,170.6669863805735</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -34204,7 +34250,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-45.76187084297029,170.66699209617929</t>
+          <t>-45.761876715566935,170.66698850495817</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -34256,7 +34302,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-45.76188242273819,170.66698501489745</t>
+          <t>-45.76188763363357,170.66698182831962</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -34308,7 +34354,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-45.76188581395583,170.66698294109293</t>
+          <t>-45.7618916038395,170.66697940045043</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -34360,7 +34406,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-45.76188200917506,170.6669852678004</t>
+          <t>-45.76188854347243,170.66698127193297</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -34412,7 +34458,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-45.76188118204879,170.66698577360637</t>
+          <t>-45.76188581395583,170.66698294109293</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -34464,7 +34510,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-45.761876550141686,170.66698860611933</t>
+          <t>-45.76188010678465,170.66698643115407</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -34516,7 +34562,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-45.76186968499347,170.66699280430734</t>
+          <t>-45.76187133924607,170.66699179269585</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -34568,7 +34614,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-45.761873407061806,170.66699052818143</t>
+          <t>-45.76187423418809,170.66699002237564</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -34620,7 +34666,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-45.76185620283442,170.6670010489385</t>
+          <t>-45.761857360811305,170.6670003408108</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -34672,7 +34718,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-45.76185008209942,170.6670047918985</t>
+          <t>-45.76185165363951,170.6670038308683</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -34724,7 +34770,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-45.76185545842072,170.66700150416338</t>
+          <t>-45.76185669911023,170.6670007454552</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -34776,7 +34822,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-45.761881678324556,170.6669854701228</t>
+          <t>-45.76188143018667,170.66698562186457</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -34828,7 +34874,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-45.76189615303374,170.66697661851651</t>
+          <t>-45.76189689744733,170.66697616329088</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -34880,7 +34926,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-45.761902439192895,170.66697277438885</t>
+          <t>-45.761902108342426,170.6669729767114</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -34932,7 +34978,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-45.76191087587995,170.66696761516357</t>
+          <t>-45.7619116202935,170.6669671599377</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -34984,7 +35030,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-45.76191343997105,170.66696604716338</t>
+          <t>-45.76191492879815,170.6669651367116</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -35036,7 +35082,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-45.76191343997105,170.66696604716338</t>
+          <t>-45.76191492879815,170.6669651367116</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -35088,7 +35134,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-45.761937674766436,170.66695122702546</t>
+          <t>-45.761939494443816,170.66695011425008</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -35140,7 +35186,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-45.761953390161544,170.6669416166901</t>
+          <t>-45.7619552925514,170.66694045333332</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -35192,7 +35238,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-45.761981264307344,170.66692457097633</t>
+          <t>-45.76198233957107,170.6669239134262</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -35244,7 +35290,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-45.76203734344027,170.66689027717294</t>
+          <t>-45.762039824817556,170.66688875974637</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -35296,7 +35342,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-45.762042471619964,170.6668871411579</t>
+          <t>-45.76204544927264,170.66688532024565</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -35348,7 +35394,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-45.76203899769179,170.66688926555526</t>
+          <t>-45.76204156178164,170.6668876975477</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -35400,7 +35446,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-45.76203461392524,170.666891946342</t>
+          <t>-45.76203659902707,170.66689073240087</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -35452,7 +35498,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-45.762037922428306,170.66688992310674</t>
+          <t>-45.76204056923074,170.66688830451838</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -35504,7 +35550,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-45.76202568096673,170.66689740907591</t>
+          <t>-45.76202907218249,170.66689533526048</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -35556,7 +35602,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-45.76201947752313,170.66690120264008</t>
+          <t>-45.76202212432575,170.6668995840528</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -35608,7 +35654,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-45.7620274179309,170.6668963468778</t>
+          <t>-45.76203188441017,170.6668936155109</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -35660,7 +35706,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-45.762043464170866,170.66688653418717</t>
+          <t>-45.76204693809897,170.66688440978947</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -35712,7 +35758,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-45.76205099101503,170.66688193132515</t>
+          <t>-45.762054878505886,170.6668795540223</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -35764,7 +35810,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-45.76204511842234,170.66688552256926</t>
+          <t>-45.76204966761387,170.66688274061966</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -35816,7 +35862,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-45.762039824817556,170.66688875974637</t>
+          <t>-45.762042306194815,170.6668872423197</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -35868,7 +35914,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-45.76203461392524,170.666891946342</t>
+          <t>-45.762037591578,170.66689012543029</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -35920,7 +35966,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-45.76203246339822,170.66689326144478</t>
+          <t>-45.762033952224606,170.666892350989</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -35972,7 +36018,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-45.762028079631534,170.6668959422309</t>
+          <t>-45.762028989469904,170.66689538584134</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -36024,7 +36070,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-45.761934118124245,170.66695340199536</t>
+          <t>-45.7619312231829,170.66695517231943</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -36076,7 +36122,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-45.76194503618847,170.66694672534274</t>
+          <t>-45.76194065242032,170.66694940612024</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -36128,7 +36174,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-45.76194569788932,170.66694632069704</t>
+          <t>-45.76194081784553,170.66694930495882</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -36180,7 +36226,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-45.761946442302765,170.66694586547064</t>
+          <t>-45.76194222395985,170.66694844508686</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -36232,7 +36278,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-45.76193436626208,170.66695325025327</t>
+          <t>-45.76192915536763,170.66695643683656</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -36284,7 +36330,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-45.76193618593948,170.666952137478</t>
+          <t>-45.7619319675964,170.66695471709326</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -36336,7 +36382,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-45.761932463872064,170.66695441360915</t>
+          <t>-45.76192948621808,170.6669562345138</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -36388,7 +36434,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-45.761932463872064,170.66695441360915</t>
+          <t>-45.76192948621808,170.6669562345138</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -36440,7 +36486,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-45.76192965164331,170.66695613335247</t>
+          <t>-45.76192733569019,170.66695754961154</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -36492,7 +36538,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-45.76195082607082,170.66694318469257</t>
+          <t>-45.761950247082595,170.6669435387576</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -36544,7 +36590,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-45.76195008165738,170.66694363991905</t>
+          <t>-45.761947600279235,170.66694515734062</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -36596,7 +36642,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-45.76195413457497,170.66694116146354</t>
+          <t>-45.76195289388592,170.66694192017445</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -36648,7 +36694,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-45.76195223218509,170.66694232482024</t>
+          <t>-45.761949833519566,170.66694379166123</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -36700,7 +36746,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-45.76195669866564,170.66693959346088</t>
+          <t>-45.761953555586736,170.66694151552863</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -36752,7 +36798,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-45.7619550444136,170.66694060507552</t>
+          <t>-45.76195223218509,170.66694232482024</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -36804,7 +36850,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-45.76195554068921,170.66694030159115</t>
+          <t>-45.76195388643716,170.6669413132057</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -36856,7 +36902,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-45.76195818749249,170.66693868300766</t>
+          <t>-45.76195719494126,170.66693928997645</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -36908,7 +36954,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-45.76195132234645,170.6669428812082</t>
+          <t>-45.76195008165738,170.66694363991905</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -36960,7 +37006,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-45.761944870763266,170.66694682650416</t>
+          <t>-45.76194396092458,170.66694738289198</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -37012,7 +37058,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-45.76195430000017,170.6669410603021</t>
+          <t>-45.761953307448934,170.6669416672708</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -37064,7 +37110,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-45.761954713563185,170.66694080739845</t>
+          <t>-45.761953390161544,170.6669416166901</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -37116,7 +37162,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-45.76195719494126,170.66693928997645</t>
+          <t>-45.76195587153962,170.6669400992682</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -37168,7 +37214,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-45.76195132234645,170.6669428812082</t>
+          <t>-45.76195008165738,170.66694363991905</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -37220,7 +37266,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-45.76194784841705,170.66694500559848</t>
+          <t>-45.76194669044058,170.6669457137285</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -37272,7 +37318,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-45.76194784841705,170.66694500559848</t>
+          <t>-45.76194669044058,170.6669457137285</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -37324,7 +37370,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-45.76194851011789,170.66694460095272</t>
+          <t>-45.761947600279235,170.66694515734062</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -37376,7 +37422,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-45.76195099149602,170.6669430835311</t>
+          <t>-45.76194908910613,170.6669442468877</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -37428,7 +37474,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-45.761945780601906,170.66694627011634</t>
+          <t>-45.7619440436372,170.66694733231128</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -37480,7 +37526,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-45.7619440436372,170.66694733231128</t>
+          <t>-45.761944622625435,170.6669469782463</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -37532,7 +37578,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-45.76194023885728,170.66694965902377</t>
+          <t>-45.76193891545555,170.66695046831498</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -37584,7 +37630,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-45.76192584686317,170.6669584600637</t>
+          <t>-45.76192518516229,170.6669588647091</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -37636,7 +37682,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-45.761911041305176,170.66696751400227</t>
+          <t>-45.761910379604245,170.66696791864743</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -37688,7 +37734,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-45.761908311788815,170.6669691831636</t>
+          <t>-45.761906822961684,170.66697009361513</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -37740,7 +37786,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-45.76189499505703,170.66697732664517</t>
+          <t>-45.761895408620134,170.6669770737421</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -37792,7 +37838,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-45.76190616126073,170.66697049826024</t>
+          <t>-45.76190715381217,170.66696989129255</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -37844,7 +37890,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-45.761886144806326,170.6669827387705</t>
+          <t>-45.7618870546452,170.66698218238386</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -37896,7 +37942,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-45.76187861795736,170.66698734160465</t>
+          <t>-45.761879693221516,170.666986684057</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -37948,7 +37994,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-45.76188052034779,170.66698617825108</t>
+          <t>-45.76188176103717,170.66698541954221</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -38000,7 +38046,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-45.76188382885283,170.6669841550273</t>
+          <t>-45.761884242415945,170.66698390212431</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -38052,7 +38098,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-45.761871835521845,170.6669914892124</t>
+          <t>-45.761872331797626,170.66699118572896</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -38104,7 +38150,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-45.761875640302776,170.66698916250576</t>
+          <t>-45.76187721184269,170.66698820147465</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -38156,7 +38202,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-45.76186571478721,170.66699523217457</t>
+          <t>-45.761867451752465,170.6669941699827</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -38208,7 +38254,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-45.76186571478721,170.66699523217457</t>
+          <t>-45.761867451752465,170.6669941699827</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -38260,7 +38306,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-45.761883415289695,170.6669844079303</t>
+          <t>-45.76188473869171,170.6669835986407</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -38312,7 +38358,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-45.761883167151815,170.66698455967207</t>
+          <t>-45.76188449055383,170.6669837503825</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -38364,7 +38410,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-45.761883167151815,170.66698455967207</t>
+          <t>-45.76188449055383,170.6669837503825</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -38416,7 +38462,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-45.761883663427575,170.6669842561885</t>
+          <t>-45.76188482140432,170.66698354806013</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -38468,7 +38514,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-45.761892182827864,170.66697904638613</t>
+          <t>-45.7618937543677,170.66697808535443</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -38520,7 +38566,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-45.76189863441236,170.66697510109782</t>
+          <t>-45.761900040526925,170.66697424122714</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -38572,7 +38618,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-45.76192609500101,170.66695830832168</t>
+          <t>-45.76192874180458,170.66695668973998</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -38624,7 +38670,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-45.761929072655015,170.66695648741722</t>
+          <t>-45.76193205030902,170.66695466651257</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -38676,7 +38722,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-45.761925764150575,170.66695851064438</t>
+          <t>-45.761927749253246,170.66695729670812</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -38728,7 +38774,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-45.761928328241524,170.66695694264334</t>
+          <t>-45.76193031334419,170.66695572870697</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -38780,7 +38826,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-45.76192071868117,170.66696159606533</t>
+          <t>-45.76192195937038,170.6669608373553</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -38832,7 +38878,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-45.76189896526286,170.6669748987753</t>
+          <t>-45.76190152935408,170.66697333077582</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -38884,7 +38930,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-45.76189350622983,170.6669782370963</t>
+          <t>-45.76189640117159,170.66697646677463</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -38936,7 +38982,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-45.76187878338262,170.6669872404435</t>
+          <t>-45.76188234002555,170.66698506547803</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -38988,7 +39034,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-45.76187307621129,170.66699073050376</t>
+          <t>-45.76187646742905,170.6669886566999</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -39040,7 +39086,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-45.76187580572803,170.66698906134457</t>
+          <t>-45.76187828710685,170.66698754392704</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -39092,7 +39138,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-45.76186356425878,170.6669965472692</t>
+          <t>-45.761865053086154,170.6669956368191</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -39144,7 +39190,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-45.761864391385096,170.6669960414636</t>
+          <t>-45.76186546664931,170.6669953839163</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -39196,7 +39242,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-45.761855210282825,170.667001655905</t>
+          <t>-45.76185802251238,170.6669999361664</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -39248,7 +39294,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-45.76186191000613,170.66699755888038</t>
+          <t>-45.761863067983,170.66699685075258</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -39300,7 +39346,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-45.76185554113336,170.66700145358283</t>
+          <t>-45.76185603740917,170.66700115009957</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -39352,7 +39398,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-45.76186232356929,170.6669973059776</t>
+          <t>-45.76186207543141,170.66699745771928</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -39404,7 +39450,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-45.76187737726795,170.6669881003135</t>
+          <t>-45.76187795625634,170.6669877462494</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -39456,7 +39502,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-45.76188076848567,170.66698602650933</t>
+          <t>-45.76187961050889,170.66698673463762</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -39508,7 +39554,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-45.76188151289931,170.666985571284</t>
+          <t>-45.761879196945756,170.66698698754055</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -39560,7 +39606,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-45.761904258870516,170.66697166161492</t>
+          <t>-45.761902108342426,170.6669729767114</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -39612,7 +39658,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-45.761915094223376,170.66696503555028</t>
+          <t>-45.76191451523506,170.6669653896149</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -39664,7 +39710,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-45.76192898994242,170.66695653799792</t>
+          <t>-45.761927749253246,170.66695729670812</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -39716,7 +39762,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-45.761910379604245,170.66696791864743</t>
+          <t>-45.761909469765456,170.66696847503457</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -39768,7 +39814,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-45.76191443252245,170.66696544019555</t>
+          <t>-45.76191253013228,170.66696660355055</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -39820,7 +39866,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-45.76185884963872,170.6669994303609</t>
+          <t>-45.76185678182287,170.66700069487464</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -39872,7 +39918,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-45.761859097776615,170.66699927861924</t>
+          <t>-45.76185860150081,170.66699958210256</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -39924,7 +39970,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-45.761790859845064,170.66704100752244</t>
+          <t>-45.761792762236134,170.66703984417262</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -39976,7 +40022,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-45.761824275755615,170.66702057301805</t>
+          <t>-45.7618279978246,170.66701829689595</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -40028,7 +40074,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-45.76182965207746,170.66701728528605</t>
+          <t>-45.761831471755585,170.66701617251508</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -40080,7 +40126,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-45.76183213345673,170.66701576787105</t>
+          <t>-45.761834780261246,170.6670141492949</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -40132,7 +40178,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-45.76182047097394,170.6670228997203</t>
+          <t>-45.7618220425142,170.66702193869116</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -40184,7 +40230,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-45.761824937456765,170.66702016837417</t>
+          <t>-45.76182758426136,170.66701854979843</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -40236,7 +40282,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-45.761824027617685,170.66702072475954</t>
+          <t>-45.76182717069815,170.66701880270088</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -40288,7 +40334,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-45.76182080182452,170.66702269739838</t>
+          <t>-45.76182336591652,170.6670211294034</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -40340,7 +40386,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-45.76183362228427,170.667014857422</t>
+          <t>-45.76183684807728,170.6670128847822</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -40392,7 +40438,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-45.76182626085907,170.6670193590863</t>
+          <t>-45.761831223617655,170.6670163242566</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -40444,7 +40490,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-45.761834614835976,170.66701425045594</t>
+          <t>-45.7618383369048,170.66701197433298</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -40496,7 +40542,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-45.76182981750273,170.66701718412506</t>
+          <t>-45.76183411856013,170.66701455393897</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -40548,7 +40594,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-45.7618220425142,170.66702193869116</t>
+          <t>-45.761826674422295,170.66701910618386</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -40600,7 +40646,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-45.76182626085907,170.6670193590863</t>
+          <t>-45.76182990021538,170.66701713354456</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -40652,7 +40698,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-45.76183064462916,170.66701667832007</t>
+          <t>-45.761834614835976,170.66701425045594</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -40704,7 +40750,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-45.761831471755585,170.66701617251508</t>
+          <t>-45.76183569010031,170.6670135929093</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -40756,7 +40802,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-45.76183659993935,170.6670130365237</t>
+          <t>-45.76184090099663,170.66701040633697</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -40808,7 +40854,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-45.761837923341595,170.66701222723555</t>
+          <t>-45.76184172812302,170.66700990053178</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -40860,7 +40906,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-45.76183883318064,170.66701167084992</t>
+          <t>-45.76184164541038,170.6670099511123</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -40912,7 +40958,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-45.76182981750273,170.66701718412506</t>
+          <t>-45.76183130633029,170.66701627367607</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -40964,7 +41010,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-45.7618352765371,170.66701384581188</t>
+          <t>-45.76183825419216,170.6670120249135</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -41016,7 +41062,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-45.76184693901923,170.66700671395873</t>
+          <t>-45.761847766145586,170.66700620815342</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -41068,7 +41114,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-45.761840239295516,170.6670108109811</t>
+          <t>-45.761842803387324,170.66700924298502</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -41120,7 +41166,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-45.761851570926865,170.66700388144886</t>
+          <t>-45.76185148821423,170.6670039320294</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -41172,7 +41218,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-45.76183701350256,170.66701278362117</t>
+          <t>-45.761838915893286,170.66701162026936</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -41224,7 +41270,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-45.76184205897358,170.6670096982097</t>
+          <t>-45.76184247253676,170.66700944530712</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -41276,7 +41322,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-45.76184817970878,170.66700595525077</t>
+          <t>-45.761849668536236,170.6670050448012</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -41328,7 +41374,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-45.76184875869724,170.66700560118704</t>
+          <t>-45.76184942039833,170.6670051965428</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -41380,7 +41426,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-45.76184147998509,170.66701005227335</t>
+          <t>-45.7618421416862,170.6670096476292</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -41432,7 +41478,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-45.76182518559469,170.66702001663268</t>
+          <t>-45.76182609543379,170.6670194602473</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -41484,7 +41530,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-45.76181741060602,170.667024771198</t>
+          <t>-45.7618189821463,170.66702381016893</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -41536,7 +41582,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-45.76182030554864,170.66702300088127</t>
+          <t>-45.7618236967671,170.66702092708147</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -41588,7 +41634,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-45.76181542550249,170.66702598512936</t>
+          <t>-45.76181964384748,170.6670234055251</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -41640,7 +41686,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-45.761816335341614,170.66702542874415</t>
+          <t>-45.761818899433656,170.66702386074942</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -41692,7 +41738,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-45.76181360582424,170.66702709789965</t>
+          <t>-45.76181608720367,170.66702558048556</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -41744,7 +41790,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-45.76180500370872,170.66703235826748</t>
+          <t>-45.761807236950276,170.66703099259522</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -41796,7 +41842,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-45.76178498724647,170.66704459873225</t>
+          <t>-45.76178688963758,170.66704343538268</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -41848,7 +41894,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-45.7617992138231,170.6670358988987</t>
+          <t>-45.761802274191226,170.6670340274223</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -41900,7 +41946,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-45.76180707152498,170.66703109375612</t>
+          <t>-45.761811289870096,170.6670285141527</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -41952,7 +41998,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-45.76180640982378,170.66703149839978</t>
+          <t>-45.761811455295394,170.66702841299175</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -42004,7 +42050,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-45.76181650076691,170.6670253275832</t>
+          <t>-45.76182080182452,170.66702269739838</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -42056,7 +42102,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-45.76182212522685,170.66702188811067</t>
+          <t>-45.76182609543379,170.6670194602473</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -42108,7 +42154,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-45.76183502839918,170.6670139975534</t>
+          <t>-45.761838915893286,170.66701162026936</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -42160,7 +42206,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-45.761838171479525,170.667012075494</t>
+          <t>-45.76184147998509,170.66701005227335</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -42212,7 +42258,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-45.76184693901923,170.66700671395873</t>
+          <t>-45.76184801428351,170.66700605641182</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -42264,7 +42310,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-45.76185231534059,170.667003426224</t>
+          <t>-45.76185438315647,170.66700216171046</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -42316,7 +42362,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-45.76185057837523,170.6670044884153</t>
+          <t>-45.76185413501857,170.6670023134521</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -42368,7 +42414,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-45.761851322788964,170.66700403319047</t>
+          <t>-45.76185388688066,170.66700246519372</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -42420,7 +42466,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-45.76185206720268,170.6670035779656</t>
+          <t>-45.761853969593304,170.6670024146132</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -42472,7 +42518,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-45.76186629377562,170.66699487811064</t>
+          <t>-45.761867865315615,170.66699391707985</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -42524,7 +42570,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-45.76188779905881,170.66698172715843</t>
+          <t>-45.76188994958704,170.66698041206263</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -42576,7 +42622,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-45.76187961050889,170.66698673463762</t>
+          <t>-45.761881595611925,170.6669855207034</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -42628,7 +42674,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-45.76187034669452,170.66699239966275</t>
+          <t>-45.761872000947115,170.66699138805123</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -42680,7 +42726,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-45.7618748131765,170.66698966831157</t>
+          <t>-45.76187737726795,170.6669881003135</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -42732,7 +42778,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-45.761863895109315,170.66699634494697</t>
+          <t>-45.76186554936194,170.6669953333357</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -42784,7 +42830,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-45.7618486759846,170.6670056517676</t>
+          <t>-45.761851819064766,170.66700372970723</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -42836,7 +42882,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-45.761824027617685,170.66702072475954</t>
+          <t>-45.76182551644527,170.66701981431075</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -42888,7 +42934,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-45.76182320049123,170.6670212305644</t>
+          <t>-45.76182692256022,170.6670189544424</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -42940,7 +42986,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-45.76181815501984,170.66702431597372</t>
+          <t>-45.76182055368658,170.66702284913984</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -42992,7 +43038,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-45.76181575635309,170.66702578280746</t>
+          <t>-45.76181716246808,170.66702492293942</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -43044,7 +43090,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-45.76180533455932,170.66703215594566</t>
+          <t>-45.76180839492738,170.6670302844688</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -43096,7 +43142,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-45.761808312214725,170.66703033504928</t>
+          <t>-45.76181170343334,170.66702826125038</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -43148,7 +43194,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-45.76180988375506,170.66702937402053</t>
+          <t>-45.76181261327247,170.66702770486526</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -43200,7 +43246,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-45.76180988375506,170.66702937402053</t>
+          <t>-45.761813192261,170.667027350802</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -43252,7 +43298,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-45.76180417658221,170.66703286407196</t>
+          <t>-45.76180690609967,170.66703119491703</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -43304,7 +43350,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-45.761803266743044,170.6670334204569</t>
+          <t>-45.761805748122576,170.6670319030434</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -43356,7 +43402,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-45.76179590531697,170.6670379221162</t>
+          <t>-45.76179855212188,170.66703630354223</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -43408,7 +43454,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-45.7617872204882,170.66704323306104</t>
+          <t>-45.76178904016665,170.66704212029177</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -43460,7 +43506,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-45.7617808516136,170.6670471277528</t>
+          <t>-45.76178209230346,170.6670463690467</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -43512,7 +43558,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-45.7617933412247,170.66703949010963</t>
+          <t>-45.76179524361575,170.6670383267597</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -43616,7 +43662,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-45.76179789042067,170.66703670818575</t>
+          <t>-45.76179863483453,170.6670362529618</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -43668,7 +43714,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-45.761803514880995,170.66703326871556</t>
+          <t>-45.76180359759365,170.66703321813512</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -43720,7 +43766,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>-45.76180508642137,170.667032307687</t>
+          <t>-45.761804672858126,170.66703256058926</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -43772,7 +43818,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-45.761809801042425,170.667029424601</t>
+          <t>-45.76181013189302,170.66702922227918</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -43824,7 +43870,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-45.76181352311159,170.66702714848012</t>
+          <t>-45.76181335768631,170.66702724964108</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -43876,7 +43922,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-45.76181352311159,170.66702714848012</t>
+          <t>-45.76181360582424,170.66702709789965</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -43980,7 +44026,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-45.76180880849063,170.66703003156653</t>
+          <t>-45.76180889120328,170.66702998098606</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -44032,7 +44078,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-45.76181550821514,170.66702593454886</t>
+          <t>-45.76181542550249,170.66702598512936</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -44084,7 +44130,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-45.76182253879008,170.66702163520827</t>
+          <t>-45.761822207939495,170.6670218375302</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -44136,7 +44182,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-45.76181906485895,170.66702375958846</t>
+          <t>-45.76181873400837,170.66702396191036</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -44188,7 +44234,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-45.76182030554864,170.66702300088127</t>
+          <t>-45.761819974698064,170.6670232032032</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -44240,7 +44286,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-45.76182088453716,170.6670226468179</t>
+          <t>-45.76182162895098,170.6670221915936</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -44292,7 +44338,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-45.761814019387494,170.6670268449973</t>
+          <t>-45.76181476380132,170.6670263897731</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -44344,7 +44390,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-45.761801860627976,170.66703428032451</t>
+          <t>-45.76180210876594,170.66703412858317</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -44396,7 +44442,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-45.76180583083522,170.66703185246294</t>
+          <t>-45.761806161685826,170.6670316501411</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -44448,7 +44494,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>-45.76178961915524,170.6670417662288</t>
+          <t>-45.76178862660337,170.66704237319388</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -44500,7 +44546,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>-45.76176976811713,170.66705390552593</t>
+          <t>-45.76176902370316,170.6670543607494</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -44552,7 +44598,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-45.76176976811713,170.66705390552593</t>
+          <t>-45.76176902370316,170.6670543607494</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -44604,7 +44650,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-45.76177191864633,170.66705259043584</t>
+          <t>-45.761772332209645,170.6670523375339</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -44656,7 +44702,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-45.76177365561221,170.6670515282476</t>
+          <t>-45.761773076623584,170.66705188231035</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -44708,7 +44754,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-45.761765384346006,170.66705658628618</t>
+          <t>-45.761766459610634,170.66705592874126</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -44760,7 +44806,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-45.761765384346006,170.66705658628618</t>
+          <t>-45.761766459610634,170.66705592874126</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -44812,7 +44858,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>-45.76176869285252,170.66705456307093</t>
+          <t>-45.76177034710576,170.66705355146323</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -44864,7 +44910,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>-45.761791356121,170.6670407040399</t>
+          <t>-45.76179243138552,170.66704004649435</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -44916,7 +44962,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-45.761800950788796,170.6670348367094</t>
+          <t>-45.76180194334062,170.66703422974405</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -44968,7 +45014,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-45.76181980927277,170.66702330436416</t>
+          <t>-45.76182138081303,170.66702234333502</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -45020,7 +45066,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-45.761828163249874,170.66701819573498</t>
+          <t>-45.76182915580159,170.66701758876903</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -45072,7 +45118,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-45.76182981750273,170.66701718412506</t>
+          <t>-45.76183023106595,170.66701693122258</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -45124,7 +45170,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-45.761837096215196,170.66701273304068</t>
+          <t>-45.76183800605423,170.66701217665505</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -45176,7 +45222,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-45.76183585552558,170.66701349174832</t>
+          <t>-45.76183569010031,170.6670135929093</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -45228,7 +45274,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-45.76187927965838,170.66698693695997</t>
+          <t>-45.761879445083636,170.66698683579878</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -45280,7 +45326,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-45.761880354922525,170.6669862794123</t>
+          <t>-45.76187911423313,170.66698703812116</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -45332,7 +45378,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-45.76189689744733,170.66697616329088</t>
+          <t>-45.76189631845897,170.66697651735527</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -45384,7 +45430,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-45.76189549133275,170.66697702316145</t>
+          <t>-45.76189615303374,170.66697661851651</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -45436,7 +45482,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-45.76188432512858,170.66698385154373</t>
+          <t>-45.76188482140432,170.66698354806013</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -45488,7 +45534,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-45.76183196803144,170.66701586903207</t>
+          <t>-45.76183155446823,170.66701612193458</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -45540,7 +45586,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-45.761808312214725,170.66703033504928</t>
+          <t>-45.76180889120328,170.66702998098606</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -45592,7 +45638,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-45.76179557446637,170.66703812443794</t>
+          <t>-45.76179706329413,170.6670372139901</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -45644,7 +45690,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>-45.76178846117805,170.66704247435473</t>
+          <t>-45.76178937101728,170.6670419179701</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -45696,7 +45742,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-45.76177845294649,170.66704859458451</t>
+          <t>-45.76178200959081,170.6670464196271</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -45748,7 +45794,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-45.76179028085648,170.66704136158543</t>
+          <t>-45.76179292766143,170.66703974301177</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -45800,7 +45846,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-45.761804672858126,170.66703256058926</t>
+          <t>-45.761808312214725,170.66703033504928</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -45852,7 +45898,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-45.761800702650845,170.66703498845075</t>
+          <t>-45.76180401115691,170.66703296523286</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -45904,7 +45950,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-45.76180277046714,170.6670337239396</t>
+          <t>-45.76180583083522,170.66703185246294</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -45956,7 +46002,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-45.761816004491024,170.66702563106602</t>
+          <t>-45.761818320445144,170.66702421481276</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -46008,7 +46054,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-45.761816004491024,170.66702563106602</t>
+          <t>-45.761818320445144,170.66702421481276</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -46060,7 +46106,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-45.76181219970922,170.66702795776757</t>
+          <t>-45.76181476380132,170.6670263897731</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -46112,7 +46158,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>-45.76182080182452,170.66702269739838</t>
+          <t>-45.76182303506594,170.66702133172535</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -46164,7 +46210,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>-45.761829238514245,170.66701753818853</t>
+          <t>-45.76183279515786,170.66701536322702</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -46216,7 +46262,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-45.76183047920388,170.66701677948106</t>
+          <t>-45.76183320872108,170.6670151103245</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -46268,7 +46314,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-45.76183180260616,170.66701597019306</t>
+          <t>-45.76183387042221,170.6670147056805</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -46320,7 +46366,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-45.761840404720786,170.6670107098201</t>
+          <t>-45.7618421416862,170.6670096476292</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -46372,7 +46418,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>-45.76184445764009,170.66700823137455</t>
+          <t>-45.76184578104228,170.66700742208613</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -46424,7 +46470,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-45.76184718715713,170.66700656221715</t>
+          <t>-45.76184884140987,170.66700555060652</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -46476,7 +46522,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>-45.76186166186823,170.66699771062204</t>
+          <t>-45.76186348154615,170.6669965978498</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -46528,7 +46574,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>-45.76189987510167,170.66697434238841</t>
+          <t>-45.761901198503594,170.66697353309834</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -46580,7 +46626,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>-45.76191666576308,170.6669640745178</t>
+          <t>-45.76191832001537,170.66696306290459</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -46632,7 +46678,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>-45.76191253013228,170.66696660355055</t>
+          <t>-45.76191484608553,170.66696518729225</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -46684,7 +46730,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-45.76191492879815,170.6669651367116</t>
+          <t>-45.761916748475684,170.66696402393714</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -46736,7 +46782,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-45.761912860982754,170.66696640122794</t>
+          <t>-45.761913357258464,170.66696609774402</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -46788,7 +46834,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>-45.76191203385659,170.66696690703446</t>
+          <t>-45.76191195114397,170.6669669576151</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -46840,7 +46886,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-45.76191253013228,170.66696660355055</t>
+          <t>-45.76191269555752,170.66696650238924</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -46892,7 +46938,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>-45.76191079316733,170.6669676657442</t>
+          <t>-45.76191021417902,170.66696801980873</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -46944,7 +46990,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>-45.76190442429575,170.66697156045365</t>
+          <t>-45.761903762594805,170.66697196509872</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -46996,7 +47042,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>-45.76191724475138,170.6669637204532</t>
+          <t>-45.76191641762522,170.66696422625978</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -47048,7 +47094,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-45.761913936246756,170.66696574367947</t>
+          <t>-45.76191269555752,170.66696650238924</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -47100,7 +47146,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>-45.76190988332854,170.66696822213132</t>
+          <t>-45.761908311788815,170.6669691831636</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -47152,7 +47198,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>-45.761915094223376,170.66696503555028</t>
+          <t>-45.761913770821536,170.66696584484077</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -47204,7 +47250,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-45.76188970144917,170.6669805638045</t>
+          <t>-45.76188713735782,170.66698213180328</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -47256,7 +47302,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-45.761897228297805,170.66697596096841</t>
+          <t>-45.76189449878129,170.6669776301289</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -47308,7 +47354,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-45.76190607854814,170.66697054884088</t>
+          <t>-45.761903762594805,170.66697196509872</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -47360,7 +47406,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>-45.761917575601835,170.66696351813056</t>
+          <t>-45.76191592134953,170.66696452974372</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -47412,7 +47458,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-45.76193180217117,170.66695481825465</t>
+          <t>-45.76192932079285,170.66695633567517</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -47464,7 +47510,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>-45.76193262929728,170.66695431244776</t>
+          <t>-45.76193006520636,170.66695588044902</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -47516,7 +47562,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>-45.761946111452346,170.66694606779348</t>
+          <t>-45.76194569788932,170.66694632069704</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -47568,7 +47614,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-45.76195570611442,170.66694020042965</t>
+          <t>-45.76195611967743,170.66693994752603</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -47620,7 +47666,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-45.761954465425376,170.66694095914062</t>
+          <t>-45.76195421728756,170.6669411108828</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -47724,7 +47770,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>-45.76197870021691,170.6669261389804</t>
+          <t>-45.76197952734286,170.66692563317264</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -47776,7 +47822,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>-45.76197563985087,170.66692801046892</t>
+          <t>-45.76197597070125,170.66692780814586</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -47828,7 +47874,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-45.76197952734286,170.66692563317264</t>
+          <t>-45.76198018904362,170.66692522852645</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -47880,7 +47926,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>-45.761979279205065,170.66692578491498</t>
+          <t>-45.761979858193236,170.66692543084955</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -47932,7 +47978,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>-45.76199358848361,170.66691703443854</t>
+          <t>-45.761994911885054,170.6669162251457</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -47984,7 +48030,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>-45.76199044540516,170.6669189565089</t>
+          <t>-45.76199135524366,170.66691840012015</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -48036,7 +48082,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>-45.76198225685848,170.66692396400694</t>
+          <t>-45.76198341483479,170.66692325587601</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -48088,7 +48134,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>-45.76200053634112,170.66691278565068</t>
+          <t>-45.762002935006166,170.666911318807</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -48140,7 +48186,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>-45.76201145440254,170.6669061089818</t>
+          <t>-45.76201319136681,170.66690504678422</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -48192,7 +48238,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>-45.762019560235714,170.66690115205924</t>
+          <t>-45.76202071821186,170.66690044392732</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -48244,7 +48290,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>-45.762031801697596,170.66689366609177</t>
+          <t>-45.76203188441017,170.6668936155109</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -48296,7 +48342,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>-45.76203378679946,170.6668924521508</t>
+          <t>-45.762033869512045,170.6668924015699</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -48348,7 +48394,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>-45.762035523763586,170.66689138995233</t>
+          <t>-45.7620357719013,170.6668912382097</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -48400,7 +48446,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-45.76204189263194,170.66688749522416</t>
+          <t>-45.762041975344516,170.66688744464324</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -48452,7 +48498,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>-45.762043298745716,170.666886635349</t>
+          <t>-45.76204288518284,170.66688688825343</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -48504,7 +48550,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-45.76205016388931,170.66688243713423</t>
+          <t>-45.76205024660188,170.6668823865533</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -48556,7 +48602,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-45.76205016388931,170.66688243713423</t>
+          <t>-45.76205024660188,170.6668823865533</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -48608,7 +48654,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-45.76205016388931,170.66688243713423</t>
+          <t>-45.76205024660188,170.6668823865533</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -48660,7 +48706,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>-45.762052231703606,170.6668811726115</t>
+          <t>-45.762052976116756,170.66688071738332</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -48712,7 +48758,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>-45.76205090830247,170.66688198190607</t>
+          <t>-45.76205016388931,170.66688243713423</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -48764,7 +48810,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>-45.762053141541905,170.66688061622148</t>
+          <t>-45.76205281069161,170.66688081854514</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -48816,7 +48862,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-45.7620465245361,170.66688466269397</t>
+          <t>-45.76204561469779,170.66688521908387</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -48868,7 +48914,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-45.76204238890739,170.6668871917388</t>
+          <t>-45.76204090008105,170.6668881021948</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -48920,7 +48966,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>-45.76205057745217,170.6668821842297</t>
+          <t>-45.76204950218873,170.66688284178147</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -48972,7 +49018,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-45.762062818912575,170.66687469825368</t>
+          <t>-45.762061495511475,170.66687550754855</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -49024,7 +49070,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-45.76206215721203,170.66687510290112</t>
+          <t>-45.76206141279891,170.66687555812948</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -49076,7 +49122,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-45.762066210127855,170.66687262443543</t>
+          <t>-45.762064638589074,170.66687358547318</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -49128,7 +49174,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-45.76204056923074,170.66688830451838</t>
+          <t>-45.762040155667854,170.66688855742282</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -49180,7 +49226,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-45.76203651631451,170.66689078298177</t>
+          <t>-45.76203560647617,170.66689133937143</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -49232,7 +49278,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-45.76203734344027,170.66689027717294</t>
+          <t>-45.762037508865426,170.66689017601118</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -49284,7 +49330,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-45.76202601181704,170.66689720675248</t>
+          <t>-45.762026838942845,170.66689670094382</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -49336,7 +49382,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>-45.76201989108604,170.66690094973583</t>
+          <t>-45.762020304648956,170.66690069683156</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -49388,7 +49434,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>-45.762001528892185,170.6669121786809</t>
+          <t>-45.7620021078803,170.66691182461514</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -49440,7 +49486,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-45.76199317492067,170.66691728734259</t>
+          <t>-45.76199375390879,170.66691693327698</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -49492,7 +49538,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-45.76198672333852,170.66692123264457</t>
+          <t>-45.76198664062593,170.66692128322538</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -49544,7 +49590,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-45.761983001271815,170.66692350877994</t>
+          <t>-45.761983166697014,170.66692340761838</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -49596,7 +49642,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>-45.76196910555568,170.66693200634916</t>
+          <t>-45.7619686919927,170.66693225925295</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -49648,7 +49694,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>-45.76197067709505,170.66693104531475</t>
+          <t>-45.76197257948479,170.66692988195726</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -49700,7 +49746,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>-45.76198291855923,170.6669235593607</t>
+          <t>-45.76198407653553,170.66692285122974</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -49752,7 +49798,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>-45.762009882863424,170.66690707001763</t>
+          <t>-45.76201153711513,170.66690605840097</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -49804,7 +49850,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-45.76200409298239,170.6669106106755</t>
+          <t>-45.76200582994671,170.66690954847823</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -49856,7 +49902,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>-45.76199234779475,170.66691779315056</t>
+          <t>-45.761993836621386,170.66691688269614</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -49908,7 +49954,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>-45.76198432467333,170.6669226994874</t>
+          <t>-45.7619857307874,170.66692183961402</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -49960,7 +50006,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>-45.76198415924813,170.66692280064896</t>
+          <t>-45.761986144350374,170.66692158671012</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -50012,7 +50058,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-45.76198415924813,170.66692280064896</t>
+          <t>-45.761986144350374,170.66692158671012</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -50064,7 +50110,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-45.76198374568517,170.6669230535529</t>
+          <t>-45.76198506908666,170.66692224426032</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -50116,7 +50162,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-45.76197084252025,170.66693094415325</t>
+          <t>-45.761972910335174,170.6669296796342</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -50168,7 +50214,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>-45.761974730012305,170.66692856685737</t>
+          <t>-45.76197563985087,170.66692801046892</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -50220,7 +50266,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-45.76198647520074,170.66692138438694</t>
+          <t>-45.761988625728144,170.6669200692864</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -50272,7 +50318,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-45.761987136901475,170.66692097974064</t>
+          <t>-45.76198879115333,170.6669199681248</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -50324,7 +50370,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-45.761989039291095,170.66691981638243</t>
+          <t>-45.76199052811776,170.66691890592813</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -50376,7 +50422,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>-45.76200359670686,170.6669109141604</t>
+          <t>-45.762005581808964,170.6669097002207</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -50428,7 +50474,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>-45.76201062727669,170.66690661479012</t>
+          <t>-45.7620126950913,170.66690535026927</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -50480,7 +50526,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>-45.762009882863424,170.66690707001763</t>
+          <t>-45.76201137168995,170.66690615956261</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -50532,7 +50578,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>-45.76200219059288,170.66691177403433</t>
+          <t>-45.7620046719705,170.66691025660973</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -50584,7 +50630,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-45.76195802206727,170.6669387841691</t>
+          <t>-45.761959262756314,170.66693802545808</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -50636,7 +50682,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>-45.761964969925735,170.6669345353868</t>
+          <t>-45.76196488721313,170.66693458596754</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -50688,7 +50734,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>-45.76197539171308,170.66692816221124</t>
+          <t>-45.76197580527605,170.6669279093074</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -50740,7 +50786,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>-45.76197075980764,170.666930994734</t>
+          <t>-45.76197117337063,170.6669307418302</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -50792,7 +50838,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>-45.761959676319314,170.66693777255438</t>
+          <t>-45.761960089882315,170.66693751965067</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -50844,7 +50890,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>-45.7619345316873,170.66695314909188</t>
+          <t>-45.76193544152599,170.66695259270426</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -50896,7 +50942,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>-45.76196000716972,170.66693757023143</t>
+          <t>-45.76196025530752,170.66693741848923</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -50948,7 +50994,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>-45.761945449751494,170.66694647243918</t>
+          <t>-45.76194619416494,170.66694601721275</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -51000,7 +51046,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>-45.761938998168155,170.66695041773428</t>
+          <t>-45.76194056970771,170.66694945670096</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -51052,7 +51098,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>-45.761956781378245,170.66693954288016</t>
+          <t>-45.76195752579168,170.66693908765353</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -51104,7 +51150,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>-45.76194635959016,170.66694591605133</t>
+          <t>-45.76194619416494,170.66694601721275</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -51156,7 +51202,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>-45.76193775747904,170.66695117644477</t>
+          <t>-45.76193684764035,170.66695173283244</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -51208,7 +51254,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>-45.761943547361554,170.66694763579554</t>
+          <t>-45.76194296837332,170.6669479898605</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -51260,7 +51306,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>-45.76192717026497,170.66695765077287</t>
+          <t>-45.761928162816304,170.66695704380473</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -51364,7 +51410,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>-45.76193957715642,170.6669500636694</t>
+          <t>-45.761940073432065,170.66694976018516</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -51416,7 +51462,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>-45.76193883274295,170.66695051889567</t>
+          <t>-45.761939080880765,170.6669503671536</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -51468,7 +51514,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>-45.76194528432629,170.6669465736006</t>
+          <t>-45.761945780601906,170.66694627011634</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -51520,7 +51566,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>-45.76194925453134,170.66694414572623</t>
+          <t>-45.76194950266915,170.6669439939841</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -51572,7 +51618,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>-45.7619593454689,170.66693797487733</t>
+          <t>-45.76196000716972,170.66693757023143</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -51624,7 +51670,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>-45.76197439916192,170.66692876918043</t>
+          <t>-45.76197456458711,170.6669286680189</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -51676,7 +51722,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>-45.761973985598935,170.66692902208425</t>
+          <t>-45.76197464729971,170.66692861743815</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -51728,7 +51774,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>-45.76198308398442,170.66692345819914</t>
+          <t>-45.761982670421446,170.66692371110307</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -51780,7 +51826,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>-45.76198432467333,170.6669226994874</t>
+          <t>-45.76198358025997,170.66692315471445</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -51832,7 +51878,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>-45.76198796402741,170.66692047393272</t>
+          <t>-45.761987715889624,170.66692062567512</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -51884,7 +51930,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>-45.76199292678289,170.66691743908498</t>
+          <t>-45.761992513219944,170.66691769198897</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -51988,7 +52034,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>-45.762012529666144,170.66690545143092</t>
+          <t>-45.76201195067806,170.66690580549678</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -52024,6 +52070,58 @@
       <c r="J506" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-45.761761034658456,170.66611654704084</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-45.76206530028963,170.6668731808257</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-45.76219160067615,170.66771204024315</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-45.76231972210243,170.66856700903378</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-45.76238934826235,170.66946798805543</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-45.76244358520166,170.6703612848202</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-45.76248082327565,170.67122064227715</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-45.76242259125005,170.67209784765228</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
